--- a/data/monitoringPhenology/2025Senescence.xlsx
+++ b/data/monitoringPhenology/2025Senescence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB54CFD-EE8A-D94E-9D8F-E73189AAF270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8169BC-D189-3144-857E-966CC2CEBE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-1980" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -2289,22 +2289,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:M437" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:M437" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M437" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{74371ACB-E7E7-834B-BA9E-B0BFC0290814}" name="doy" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B193062B-AFAC-2F4E-A4A5-A3F7B0601374}" name="chl1" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B0D9E193-6B50-E247-B9F4-407694E3F903}" name="chl2" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C32C804B-8B2B-8F4E-8A79-99775D6DBA19}" name="chl3" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C32219B7-C5AB-7248-94DA-26F55B0BF9C0}" name="percent" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{A346F99A-2FED-2B42-A373-8726298C2933}" name="greenleafcover" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{5FC8C25B-6484-4F49-840C-35AD4157DCE8}" name="lastleavesfell" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{74371ACB-E7E7-834B-BA9E-B0BFC0290814}" name="doy" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B193062B-AFAC-2F4E-A4A5-A3F7B0601374}" name="chl1" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{B0D9E193-6B50-E247-B9F4-407694E3F903}" name="chl2" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C32C804B-8B2B-8F4E-8A79-99775D6DBA19}" name="chl3" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{C32219B7-C5AB-7248-94DA-26F55B0BF9C0}" name="percent" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{A346F99A-2FED-2B42-A373-8726298C2933}" name="greenleafcover" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{5FC8C25B-6484-4F49-840C-35AD4157DCE8}" name="lastleavesfell" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2630,9 +2630,9 @@
   <dimension ref="A1:M437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2666,7 @@
       <c r="G1" t="s">
         <v>458</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>459</v>
       </c>
       <c r="I1" t="s">
@@ -2701,13 +2701,6 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2725,13 +2718,6 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2749,13 +2735,6 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2773,13 +2752,6 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2797,13 +2769,6 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2821,13 +2786,6 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2845,13 +2803,6 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2869,13 +2820,6 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2893,13 +2837,6 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2917,13 +2854,6 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2941,13 +2871,6 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2965,13 +2888,6 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2989,13 +2905,6 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3013,13 +2922,6 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3037,15 +2939,8 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3061,15 +2956,8 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3085,15 +2973,8 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3109,15 +2990,8 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3133,15 +3007,8 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3157,15 +3024,8 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3181,15 +3041,8 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3205,15 +3058,8 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3229,15 +3075,8 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3253,15 +3092,8 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3277,15 +3109,8 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3301,15 +3126,8 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3325,15 +3143,8 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3349,15 +3160,8 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3373,15 +3177,8 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3397,15 +3194,8 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3421,15 +3211,8 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3445,15 +3228,8 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3469,15 +3245,8 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3493,15 +3262,8 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3517,15 +3279,8 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3541,15 +3296,8 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3565,15 +3313,8 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3589,15 +3330,8 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3613,15 +3347,8 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3637,15 +3364,8 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3661,15 +3381,8 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3685,15 +3398,8 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3709,15 +3415,8 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3733,15 +3432,8 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3757,15 +3449,8 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3781,15 +3466,8 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3805,15 +3483,8 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3829,15 +3500,8 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3853,15 +3517,8 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3877,15 +3534,8 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3901,15 +3551,8 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3925,15 +3568,8 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3949,15 +3585,8 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3973,15 +3602,8 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3997,15 +3619,8 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4021,15 +3636,8 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4045,15 +3653,8 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4069,15 +3670,8 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4093,15 +3687,8 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4117,15 +3704,8 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4141,15 +3721,8 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4165,15 +3738,8 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4189,15 +3755,8 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4213,15 +3772,8 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4237,15 +3789,8 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4261,15 +3806,8 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4285,15 +3823,8 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4309,15 +3840,8 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4333,15 +3857,8 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4357,15 +3874,8 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4381,15 +3891,8 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4405,15 +3908,8 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4429,15 +3925,8 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4453,15 +3942,8 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4477,15 +3959,8 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4501,15 +3976,8 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4525,15 +3993,8 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4549,15 +4010,8 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4573,15 +4027,8 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4597,15 +4044,8 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4621,15 +4061,8 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4645,15 +4078,8 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4669,15 +4095,8 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4693,15 +4112,8 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4717,15 +4129,8 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -4741,15 +4146,8 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -4765,15 +4163,8 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -4789,15 +4180,8 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -4813,15 +4197,8 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4837,15 +4214,8 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4861,15 +4231,8 @@
       <c r="E92" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4885,15 +4248,8 @@
       <c r="E93" t="s">
         <v>106</v>
       </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4909,15 +4265,8 @@
       <c r="E94" t="s">
         <v>106</v>
       </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4933,15 +4282,8 @@
       <c r="E95" t="s">
         <v>106</v>
       </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4957,15 +4299,8 @@
       <c r="E96" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4981,15 +4316,8 @@
       <c r="E97" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5005,15 +4333,8 @@
       <c r="E98" t="s">
         <v>106</v>
       </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -5029,15 +4350,8 @@
       <c r="E99" t="s">
         <v>106</v>
       </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -5053,15 +4367,8 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -5077,15 +4384,8 @@
       <c r="E101" t="s">
         <v>106</v>
       </c>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -5101,15 +4401,8 @@
       <c r="E102" t="s">
         <v>106</v>
       </c>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -5125,15 +4418,8 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -5149,15 +4435,8 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -5173,15 +4452,8 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -5197,15 +4469,8 @@
       <c r="E106" t="s">
         <v>106</v>
       </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -5221,15 +4486,8 @@
       <c r="E107" t="s">
         <v>106</v>
       </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -5245,15 +4503,8 @@
       <c r="E108" t="s">
         <v>106</v>
       </c>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -5269,15 +4520,8 @@
       <c r="E109" t="s">
         <v>106</v>
       </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -5293,15 +4537,8 @@
       <c r="E110" t="s">
         <v>106</v>
       </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -5317,15 +4554,8 @@
       <c r="E111" t="s">
         <v>106</v>
       </c>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -5341,15 +4571,8 @@
       <c r="E112" t="s">
         <v>106</v>
       </c>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -5365,15 +4588,8 @@
       <c r="E113" t="s">
         <v>106</v>
       </c>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -5389,15 +4605,8 @@
       <c r="E114" t="s">
         <v>106</v>
       </c>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -5413,15 +4622,8 @@
       <c r="E115" t="s">
         <v>106</v>
       </c>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5437,15 +4639,8 @@
       <c r="E116" t="s">
         <v>106</v>
       </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -5461,15 +4656,8 @@
       <c r="E117" t="s">
         <v>106</v>
       </c>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -5485,15 +4673,8 @@
       <c r="E118" t="s">
         <v>106</v>
       </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5509,15 +4690,8 @@
       <c r="E119" t="s">
         <v>106</v>
       </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -5533,15 +4707,8 @@
       <c r="E120" t="s">
         <v>106</v>
       </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -5557,15 +4724,8 @@
       <c r="E121" t="s">
         <v>106</v>
       </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -5581,15 +4741,8 @@
       <c r="E122" t="s">
         <v>106</v>
       </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -5605,15 +4758,8 @@
       <c r="E123" t="s">
         <v>106</v>
       </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -5629,15 +4775,8 @@
       <c r="E124" t="s">
         <v>106</v>
       </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -5653,15 +4792,8 @@
       <c r="E125" t="s">
         <v>106</v>
       </c>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -5677,15 +4809,8 @@
       <c r="E126" t="s">
         <v>106</v>
       </c>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -5701,15 +4826,8 @@
       <c r="E127" t="s">
         <v>106</v>
       </c>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -5725,15 +4843,8 @@
       <c r="E128" t="s">
         <v>106</v>
       </c>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -5749,15 +4860,8 @@
       <c r="E129" t="s">
         <v>106</v>
       </c>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5773,15 +4877,8 @@
       <c r="E130" t="s">
         <v>106</v>
       </c>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -5797,15 +4894,8 @@
       <c r="E131" t="s">
         <v>106</v>
       </c>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -5821,15 +4911,8 @@
       <c r="E132" t="s">
         <v>106</v>
       </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -5845,15 +4928,8 @@
       <c r="E133" t="s">
         <v>106</v>
       </c>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -5869,15 +4945,8 @@
       <c r="E134" t="s">
         <v>106</v>
       </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -5893,15 +4962,8 @@
       <c r="E135" t="s">
         <v>106</v>
       </c>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -5917,15 +4979,8 @@
       <c r="E136" t="s">
         <v>106</v>
       </c>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -5941,15 +4996,8 @@
       <c r="E137" t="s">
         <v>106</v>
       </c>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -5965,15 +5013,8 @@
       <c r="E138" t="s">
         <v>106</v>
       </c>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -5989,15 +5030,8 @@
       <c r="E139" t="s">
         <v>106</v>
       </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -6013,15 +5047,8 @@
       <c r="E140" t="s">
         <v>106</v>
       </c>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -6037,15 +5064,8 @@
       <c r="E141" t="s">
         <v>106</v>
       </c>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -6061,15 +5081,8 @@
       <c r="E142" t="s">
         <v>106</v>
       </c>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -6085,15 +5098,8 @@
       <c r="E143" t="s">
         <v>106</v>
       </c>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6109,15 +5115,8 @@
       <c r="E144" t="s">
         <v>106</v>
       </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -6133,15 +5132,8 @@
       <c r="E145" t="s">
         <v>106</v>
       </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -6157,15 +5149,8 @@
       <c r="E146" t="s">
         <v>106</v>
       </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -6181,15 +5166,8 @@
       <c r="E147" t="s">
         <v>106</v>
       </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -6205,15 +5183,8 @@
       <c r="E148" t="s">
         <v>106</v>
       </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -6229,15 +5200,8 @@
       <c r="E149" t="s">
         <v>106</v>
       </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -6253,15 +5217,8 @@
       <c r="E150" t="s">
         <v>106</v>
       </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -6277,15 +5234,8 @@
       <c r="E151" t="s">
         <v>106</v>
       </c>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -6301,15 +5251,8 @@
       <c r="E152" t="s">
         <v>106</v>
       </c>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -6325,15 +5268,8 @@
       <c r="E153" t="s">
         <v>106</v>
       </c>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -6349,15 +5285,8 @@
       <c r="E154" t="s">
         <v>106</v>
       </c>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -6373,15 +5302,8 @@
       <c r="E155" t="s">
         <v>106</v>
       </c>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -6397,15 +5319,8 @@
       <c r="E156" t="s">
         <v>106</v>
       </c>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -6421,15 +5336,8 @@
       <c r="E157" t="s">
         <v>106</v>
       </c>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -6445,15 +5353,8 @@
       <c r="E158" t="s">
         <v>106</v>
       </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -6469,15 +5370,8 @@
       <c r="E159" t="s">
         <v>106</v>
       </c>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -6493,15 +5387,8 @@
       <c r="E160" t="s">
         <v>106</v>
       </c>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -6517,15 +5404,8 @@
       <c r="E161" t="s">
         <v>106</v>
       </c>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -6541,15 +5421,8 @@
       <c r="E162" t="s">
         <v>106</v>
       </c>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -6565,15 +5438,8 @@
       <c r="E163" t="s">
         <v>106</v>
       </c>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -6589,15 +5455,8 @@
       <c r="E164" t="s">
         <v>106</v>
       </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -6613,15 +5472,8 @@
       <c r="E165" t="s">
         <v>106</v>
       </c>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6637,15 +5489,8 @@
       <c r="E166" t="s">
         <v>106</v>
       </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6661,15 +5506,8 @@
       <c r="E167" t="s">
         <v>106</v>
       </c>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6685,15 +5523,8 @@
       <c r="E168" t="s">
         <v>106</v>
       </c>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6709,15 +5540,8 @@
       <c r="E169" t="s">
         <v>106</v>
       </c>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -6733,15 +5557,8 @@
       <c r="E170" t="s">
         <v>106</v>
       </c>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -6757,15 +5574,8 @@
       <c r="E171" t="s">
         <v>106</v>
       </c>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -6781,15 +5591,8 @@
       <c r="E172" t="s">
         <v>106</v>
       </c>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -6805,15 +5608,8 @@
       <c r="E173" t="s">
         <v>106</v>
       </c>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -6829,15 +5625,8 @@
       <c r="E174" t="s">
         <v>106</v>
       </c>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6853,15 +5642,8 @@
       <c r="E175" t="s">
         <v>106</v>
       </c>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6877,15 +5659,8 @@
       <c r="E176" t="s">
         <v>106</v>
       </c>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6901,15 +5676,8 @@
       <c r="E177" t="s">
         <v>106</v>
       </c>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6925,15 +5693,8 @@
       <c r="E178" t="s">
         <v>106</v>
       </c>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6949,15 +5710,8 @@
       <c r="E179" t="s">
         <v>106</v>
       </c>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6973,15 +5727,8 @@
       <c r="E180" t="s">
         <v>106</v>
       </c>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6997,15 +5744,8 @@
       <c r="E181" t="s">
         <v>106</v>
       </c>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -7021,15 +5761,8 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -7045,15 +5778,8 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -7069,15 +5795,8 @@
       <c r="E184" t="s">
         <v>198</v>
       </c>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -7093,15 +5812,8 @@
       <c r="E185" t="s">
         <v>198</v>
       </c>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -7117,15 +5829,8 @@
       <c r="E186" t="s">
         <v>198</v>
       </c>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -7141,15 +5846,8 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -7165,15 +5863,8 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -7189,15 +5880,8 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -7213,15 +5897,8 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -7237,15 +5914,8 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -7261,15 +5931,8 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -7285,15 +5948,8 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -7309,15 +5965,8 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -7333,15 +5982,8 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -7357,15 +5999,8 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -7381,15 +6016,8 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -7405,15 +6033,8 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -7429,15 +6050,8 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -7453,15 +6067,8 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -7477,15 +6084,8 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -7501,15 +6101,8 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -7525,15 +6118,8 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -7549,15 +6135,8 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -7573,15 +6152,8 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -7597,15 +6169,8 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -7621,15 +6186,8 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -7645,15 +6203,8 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -7669,15 +6220,8 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -7693,15 +6237,8 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -7717,15 +6254,8 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -7741,15 +6271,8 @@
       <c r="E212" t="s">
         <v>198</v>
       </c>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -7765,15 +6288,8 @@
       <c r="E213" t="s">
         <v>198</v>
       </c>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -7789,15 +6305,8 @@
       <c r="E214" t="s">
         <v>198</v>
       </c>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -7813,15 +6322,8 @@
       <c r="E215" t="s">
         <v>198</v>
       </c>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -7837,15 +6339,8 @@
       <c r="E216" t="s">
         <v>198</v>
       </c>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -7861,15 +6356,8 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -7885,15 +6373,8 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -7909,15 +6390,8 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -7933,15 +6407,8 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -7957,15 +6424,8 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -7981,15 +6441,8 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
-      <c r="M222" s="1"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -8005,15 +6458,8 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -8029,15 +6475,8 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -8053,15 +6492,8 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -8077,15 +6509,8 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -8101,15 +6526,8 @@
       <c r="E227" t="s">
         <v>198</v>
       </c>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -8125,15 +6543,8 @@
       <c r="E228" t="s">
         <v>198</v>
       </c>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -8149,15 +6560,8 @@
       <c r="E229" t="s">
         <v>198</v>
       </c>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -8173,15 +6577,8 @@
       <c r="E230" t="s">
         <v>198</v>
       </c>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -8197,15 +6594,8 @@
       <c r="E231" t="s">
         <v>198</v>
       </c>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -8221,15 +6611,8 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -8245,15 +6628,8 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -8269,15 +6645,8 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -8293,15 +6662,8 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -8317,15 +6679,8 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -8341,15 +6696,8 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -8365,15 +6713,8 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -8389,15 +6730,8 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -8413,15 +6747,8 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -8437,15 +6764,8 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
-      <c r="M241" s="1"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -8461,15 +6781,8 @@
       <c r="E242" t="s">
         <v>198</v>
       </c>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -8485,15 +6798,8 @@
       <c r="E243" t="s">
         <v>198</v>
       </c>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -8509,15 +6815,8 @@
       <c r="E244" t="s">
         <v>198</v>
       </c>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -8533,15 +6832,8 @@
       <c r="E245" t="s">
         <v>198</v>
       </c>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -8557,15 +6849,8 @@
       <c r="E246" t="s">
         <v>198</v>
       </c>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -8581,15 +6866,8 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -8605,15 +6883,8 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -8629,15 +6900,8 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -8653,15 +6917,8 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -8677,15 +6934,8 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -8701,15 +6951,8 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -8725,15 +6968,8 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -8749,15 +6985,8 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-      <c r="M254" s="1"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -8773,15 +7002,8 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -8797,15 +7019,8 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-      <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-      <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
-      <c r="L256" s="1"/>
-      <c r="M256" s="1"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -8821,15 +7036,8 @@
       <c r="E257" t="s">
         <v>198</v>
       </c>
-      <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
-      <c r="I257" s="1"/>
-      <c r="J257" s="1"/>
-      <c r="K257" s="1"/>
-      <c r="L257" s="1"/>
-      <c r="M257" s="1"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -8845,15 +7053,8 @@
       <c r="E258" t="s">
         <v>198</v>
       </c>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
-      <c r="M258" s="1"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -8869,15 +7070,8 @@
       <c r="E259" t="s">
         <v>198</v>
       </c>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-      <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
-      <c r="M259" s="1"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -8893,15 +7087,8 @@
       <c r="E260" t="s">
         <v>198</v>
       </c>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
-      <c r="L260" s="1"/>
-      <c r="M260" s="1"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -8917,15 +7104,8 @@
       <c r="E261" t="s">
         <v>198</v>
       </c>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
-      <c r="J261" s="1"/>
-      <c r="K261" s="1"/>
-      <c r="L261" s="1"/>
-      <c r="M261" s="1"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -8941,15 +7121,8 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-      <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
-      <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
-      <c r="K262" s="1"/>
-      <c r="L262" s="1"/>
-      <c r="M262" s="1"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -8965,15 +7138,8 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-      <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
-      <c r="K263" s="1"/>
-      <c r="L263" s="1"/>
-      <c r="M263" s="1"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -8989,15 +7155,8 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
-      <c r="L264" s="1"/>
-      <c r="M264" s="1"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -9013,15 +7172,8 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-      <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
-      <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
-      <c r="L265" s="1"/>
-      <c r="M265" s="1"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -9037,15 +7189,8 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-      <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
-      <c r="I266" s="1"/>
-      <c r="J266" s="1"/>
-      <c r="K266" s="1"/>
-      <c r="L266" s="1"/>
-      <c r="M266" s="1"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -9061,15 +7206,8 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
-      <c r="M267" s="1"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -9085,15 +7223,8 @@
       <c r="E268" t="s">
         <v>286</v>
       </c>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
-      <c r="M268" s="1"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>287</v>
       </c>
@@ -9109,15 +7240,8 @@
       <c r="E269" t="s">
         <v>286</v>
       </c>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
-      <c r="L269" s="1"/>
-      <c r="M269" s="1"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>288</v>
       </c>
@@ -9133,15 +7257,8 @@
       <c r="E270" t="s">
         <v>286</v>
       </c>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
-      <c r="K270" s="1"/>
-      <c r="L270" s="1"/>
-      <c r="M270" s="1"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -9157,15 +7274,8 @@
       <c r="E271" t="s">
         <v>286</v>
       </c>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-      <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
-      <c r="L271" s="1"/>
-      <c r="M271" s="1"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>290</v>
       </c>
@@ -9181,15 +7291,8 @@
       <c r="E272" t="s">
         <v>286</v>
       </c>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
-      <c r="L272" s="1"/>
-      <c r="M272" s="1"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -9205,15 +7308,8 @@
       <c r="E273" t="s">
         <v>286</v>
       </c>
-      <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
-      <c r="I273" s="1"/>
-      <c r="J273" s="1"/>
-      <c r="K273" s="1"/>
-      <c r="L273" s="1"/>
-      <c r="M273" s="1"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -9229,15 +7325,8 @@
       <c r="E274" t="s">
         <v>286</v>
       </c>
-      <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
-      <c r="J274" s="1"/>
-      <c r="K274" s="1"/>
-      <c r="L274" s="1"/>
-      <c r="M274" s="1"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -9253,15 +7342,8 @@
       <c r="E275" t="s">
         <v>286</v>
       </c>
-      <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
-      <c r="I275" s="1"/>
-      <c r="J275" s="1"/>
-      <c r="K275" s="1"/>
-      <c r="L275" s="1"/>
-      <c r="M275" s="1"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -9277,15 +7359,8 @@
       <c r="E276" t="s">
         <v>286</v>
       </c>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
-      <c r="I276" s="1"/>
-      <c r="J276" s="1"/>
-      <c r="K276" s="1"/>
-      <c r="L276" s="1"/>
-      <c r="M276" s="1"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -9301,15 +7376,8 @@
       <c r="E277" t="s">
         <v>286</v>
       </c>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
-      <c r="I277" s="1"/>
-      <c r="J277" s="1"/>
-      <c r="K277" s="1"/>
-      <c r="L277" s="1"/>
-      <c r="M277" s="1"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -9325,15 +7393,8 @@
       <c r="E278" t="s">
         <v>286</v>
       </c>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-      <c r="I278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
-      <c r="L278" s="1"/>
-      <c r="M278" s="1"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -9349,15 +7410,8 @@
       <c r="E279" t="s">
         <v>286</v>
       </c>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
-      <c r="I279" s="1"/>
-      <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
-      <c r="L279" s="1"/>
-      <c r="M279" s="1"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -9373,15 +7427,8 @@
       <c r="E280" t="s">
         <v>286</v>
       </c>
-      <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
-      <c r="J280" s="1"/>
-      <c r="K280" s="1"/>
-      <c r="L280" s="1"/>
-      <c r="M280" s="1"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -9397,15 +7444,8 @@
       <c r="E281" t="s">
         <v>286</v>
       </c>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-      <c r="I281" s="1"/>
-      <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
-      <c r="L281" s="1"/>
-      <c r="M281" s="1"/>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -9421,15 +7461,8 @@
       <c r="E282" t="s">
         <v>286</v>
       </c>
-      <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
-      <c r="I282" s="1"/>
-      <c r="J282" s="1"/>
-      <c r="K282" s="1"/>
-      <c r="L282" s="1"/>
-      <c r="M282" s="1"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -9445,15 +7478,8 @@
       <c r="E283" t="s">
         <v>286</v>
       </c>
-      <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-      <c r="I283" s="1"/>
-      <c r="J283" s="1"/>
-      <c r="K283" s="1"/>
-      <c r="L283" s="1"/>
-      <c r="M283" s="1"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -9469,15 +7495,8 @@
       <c r="E284" t="s">
         <v>286</v>
       </c>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="1"/>
-      <c r="M284" s="1"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -9493,15 +7512,8 @@
       <c r="E285" t="s">
         <v>286</v>
       </c>
-      <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
-      <c r="L285" s="1"/>
-      <c r="M285" s="1"/>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -9517,15 +7529,8 @@
       <c r="E286" t="s">
         <v>286</v>
       </c>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="1"/>
-      <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
-      <c r="L286" s="1"/>
-      <c r="M286" s="1"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -9541,15 +7546,8 @@
       <c r="E287" t="s">
         <v>286</v>
       </c>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="I287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="1"/>
-      <c r="M287" s="1"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -9565,15 +7563,8 @@
       <c r="E288" t="s">
         <v>286</v>
       </c>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="1"/>
-      <c r="M288" s="1"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -9589,15 +7580,8 @@
       <c r="E289" t="s">
         <v>286</v>
       </c>
-      <c r="G289" s="1"/>
-      <c r="H289" s="1"/>
-      <c r="I289" s="1"/>
-      <c r="J289" s="1"/>
-      <c r="K289" s="1"/>
-      <c r="L289" s="1"/>
-      <c r="M289" s="1"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -9613,15 +7597,8 @@
       <c r="E290" t="s">
         <v>286</v>
       </c>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-      <c r="I290" s="1"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
-      <c r="L290" s="1"/>
-      <c r="M290" s="1"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -9637,15 +7614,8 @@
       <c r="E291" t="s">
         <v>286</v>
       </c>
-      <c r="G291" s="1"/>
-      <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
-      <c r="L291" s="1"/>
-      <c r="M291" s="1"/>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -9661,15 +7631,8 @@
       <c r="E292" t="s">
         <v>286</v>
       </c>
-      <c r="G292" s="1"/>
-      <c r="H292" s="1"/>
-      <c r="I292" s="1"/>
-      <c r="J292" s="1"/>
-      <c r="K292" s="1"/>
-      <c r="L292" s="1"/>
-      <c r="M292" s="1"/>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -9685,15 +7648,8 @@
       <c r="E293" t="s">
         <v>286</v>
       </c>
-      <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
-      <c r="L293" s="1"/>
-      <c r="M293" s="1"/>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -9709,15 +7665,8 @@
       <c r="E294" t="s">
         <v>286</v>
       </c>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -9733,15 +7682,8 @@
       <c r="E295" t="s">
         <v>286</v>
       </c>
-      <c r="G295" s="1"/>
-      <c r="H295" s="1"/>
-      <c r="I295" s="1"/>
-      <c r="J295" s="1"/>
-      <c r="K295" s="1"/>
-      <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -9757,15 +7699,8 @@
       <c r="E296" t="s">
         <v>286</v>
       </c>
-      <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
-      <c r="J296" s="1"/>
-      <c r="K296" s="1"/>
-      <c r="L296" s="1"/>
-      <c r="M296" s="1"/>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -9781,15 +7716,8 @@
       <c r="E297" t="s">
         <v>286</v>
       </c>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -9805,15 +7733,8 @@
       <c r="E298" t="s">
         <v>286</v>
       </c>
-      <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
-      <c r="M298" s="1"/>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -9829,15 +7750,8 @@
       <c r="E299" t="s">
         <v>286</v>
       </c>
-      <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
-      <c r="K299" s="1"/>
-      <c r="L299" s="1"/>
-      <c r="M299" s="1"/>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -9853,15 +7767,8 @@
       <c r="E300" t="s">
         <v>286</v>
       </c>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
-      <c r="M300" s="1"/>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -9877,15 +7784,8 @@
       <c r="E301" t="s">
         <v>286</v>
       </c>
-      <c r="G301" s="1"/>
-      <c r="H301" s="1"/>
-      <c r="I301" s="1"/>
-      <c r="J301" s="1"/>
-      <c r="K301" s="1"/>
-      <c r="L301" s="1"/>
-      <c r="M301" s="1"/>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -9901,15 +7801,8 @@
       <c r="E302" t="s">
         <v>286</v>
       </c>
-      <c r="G302" s="1"/>
-      <c r="H302" s="1"/>
-      <c r="I302" s="1"/>
-      <c r="J302" s="1"/>
-      <c r="K302" s="1"/>
-      <c r="L302" s="1"/>
-      <c r="M302" s="1"/>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -9925,15 +7818,8 @@
       <c r="E303" t="s">
         <v>286</v>
       </c>
-      <c r="G303" s="1"/>
-      <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
-      <c r="J303" s="1"/>
-      <c r="K303" s="1"/>
-      <c r="L303" s="1"/>
-      <c r="M303" s="1"/>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -9949,15 +7835,8 @@
       <c r="E304" t="s">
         <v>286</v>
       </c>
-      <c r="G304" s="1"/>
-      <c r="H304" s="1"/>
-      <c r="I304" s="1"/>
-      <c r="J304" s="1"/>
-      <c r="K304" s="1"/>
-      <c r="L304" s="1"/>
-      <c r="M304" s="1"/>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -9973,15 +7852,8 @@
       <c r="E305" t="s">
         <v>286</v>
       </c>
-      <c r="G305" s="1"/>
-      <c r="H305" s="1"/>
-      <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
-      <c r="K305" s="1"/>
-      <c r="L305" s="1"/>
-      <c r="M305" s="1"/>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -9997,15 +7869,8 @@
       <c r="E306" t="s">
         <v>286</v>
       </c>
-      <c r="G306" s="1"/>
-      <c r="H306" s="1"/>
-      <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
-      <c r="K306" s="1"/>
-      <c r="L306" s="1"/>
-      <c r="M306" s="1"/>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -10021,15 +7886,8 @@
       <c r="E307" t="s">
         <v>286</v>
       </c>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -10045,15 +7903,8 @@
       <c r="E308" t="s">
         <v>286</v>
       </c>
-      <c r="G308" s="1"/>
-      <c r="H308" s="1"/>
-      <c r="I308" s="1"/>
-      <c r="J308" s="1"/>
-      <c r="K308" s="1"/>
-      <c r="L308" s="1"/>
-      <c r="M308" s="1"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -10069,15 +7920,8 @@
       <c r="E309" t="s">
         <v>286</v>
       </c>
-      <c r="G309" s="1"/>
-      <c r="H309" s="1"/>
-      <c r="I309" s="1"/>
-      <c r="J309" s="1"/>
-      <c r="K309" s="1"/>
-      <c r="L309" s="1"/>
-      <c r="M309" s="1"/>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -10093,15 +7937,8 @@
       <c r="E310" t="s">
         <v>286</v>
       </c>
-      <c r="G310" s="1"/>
-      <c r="H310" s="1"/>
-      <c r="I310" s="1"/>
-      <c r="J310" s="1"/>
-      <c r="K310" s="1"/>
-      <c r="L310" s="1"/>
-      <c r="M310" s="1"/>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -10117,15 +7954,8 @@
       <c r="E311" t="s">
         <v>286</v>
       </c>
-      <c r="G311" s="1"/>
-      <c r="H311" s="1"/>
-      <c r="I311" s="1"/>
-      <c r="J311" s="1"/>
-      <c r="K311" s="1"/>
-      <c r="L311" s="1"/>
-      <c r="M311" s="1"/>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -10141,15 +7971,8 @@
       <c r="E312" t="s">
         <v>286</v>
       </c>
-      <c r="G312" s="1"/>
-      <c r="H312" s="1"/>
-      <c r="I312" s="1"/>
-      <c r="J312" s="1"/>
-      <c r="K312" s="1"/>
-      <c r="L312" s="1"/>
-      <c r="M312" s="1"/>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -10165,15 +7988,8 @@
       <c r="E313" t="s">
         <v>286</v>
       </c>
-      <c r="G313" s="1"/>
-      <c r="H313" s="1"/>
-      <c r="I313" s="1"/>
-      <c r="J313" s="1"/>
-      <c r="K313" s="1"/>
-      <c r="L313" s="1"/>
-      <c r="M313" s="1"/>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -10189,15 +8005,8 @@
       <c r="E314" t="s">
         <v>286</v>
       </c>
-      <c r="G314" s="1"/>
-      <c r="H314" s="1"/>
-      <c r="I314" s="1"/>
-      <c r="J314" s="1"/>
-      <c r="K314" s="1"/>
-      <c r="L314" s="1"/>
-      <c r="M314" s="1"/>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -10213,15 +8022,8 @@
       <c r="E315" t="s">
         <v>286</v>
       </c>
-      <c r="G315" s="1"/>
-      <c r="H315" s="1"/>
-      <c r="I315" s="1"/>
-      <c r="J315" s="1"/>
-      <c r="K315" s="1"/>
-      <c r="L315" s="1"/>
-      <c r="M315" s="1"/>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -10237,15 +8039,8 @@
       <c r="E316" t="s">
         <v>286</v>
       </c>
-      <c r="G316" s="1"/>
-      <c r="H316" s="1"/>
-      <c r="I316" s="1"/>
-      <c r="J316" s="1"/>
-      <c r="K316" s="1"/>
-      <c r="L316" s="1"/>
-      <c r="M316" s="1"/>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -10261,15 +8056,8 @@
       <c r="E317" t="s">
         <v>286</v>
       </c>
-      <c r="G317" s="1"/>
-      <c r="H317" s="1"/>
-      <c r="I317" s="1"/>
-      <c r="J317" s="1"/>
-      <c r="K317" s="1"/>
-      <c r="L317" s="1"/>
-      <c r="M317" s="1"/>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -10285,15 +8073,8 @@
       <c r="E318" t="s">
         <v>286</v>
       </c>
-      <c r="G318" s="1"/>
-      <c r="H318" s="1"/>
-      <c r="I318" s="1"/>
-      <c r="J318" s="1"/>
-      <c r="K318" s="1"/>
-      <c r="L318" s="1"/>
-      <c r="M318" s="1"/>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -10309,15 +8090,8 @@
       <c r="E319" t="s">
         <v>286</v>
       </c>
-      <c r="G319" s="1"/>
-      <c r="H319" s="1"/>
-      <c r="I319" s="1"/>
-      <c r="J319" s="1"/>
-      <c r="K319" s="1"/>
-      <c r="L319" s="1"/>
-      <c r="M319" s="1"/>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -10333,15 +8107,8 @@
       <c r="E320" t="s">
         <v>286</v>
       </c>
-      <c r="G320" s="1"/>
-      <c r="H320" s="1"/>
-      <c r="I320" s="1"/>
-      <c r="J320" s="1"/>
-      <c r="K320" s="1"/>
-      <c r="L320" s="1"/>
-      <c r="M320" s="1"/>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -10357,15 +8124,8 @@
       <c r="E321" t="s">
         <v>286</v>
       </c>
-      <c r="G321" s="1"/>
-      <c r="H321" s="1"/>
-      <c r="I321" s="1"/>
-      <c r="J321" s="1"/>
-      <c r="K321" s="1"/>
-      <c r="L321" s="1"/>
-      <c r="M321" s="1"/>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -10381,15 +8141,8 @@
       <c r="E322" t="s">
         <v>286</v>
       </c>
-      <c r="G322" s="1"/>
-      <c r="H322" s="1"/>
-      <c r="I322" s="1"/>
-      <c r="J322" s="1"/>
-      <c r="K322" s="1"/>
-      <c r="L322" s="1"/>
-      <c r="M322" s="1"/>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -10405,15 +8158,8 @@
       <c r="E323" t="s">
         <v>286</v>
       </c>
-      <c r="G323" s="1"/>
-      <c r="H323" s="1"/>
-      <c r="I323" s="1"/>
-      <c r="J323" s="1"/>
-      <c r="K323" s="1"/>
-      <c r="L323" s="1"/>
-      <c r="M323" s="1"/>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -10429,15 +8175,8 @@
       <c r="E324" t="s">
         <v>286</v>
       </c>
-      <c r="G324" s="1"/>
-      <c r="H324" s="1"/>
-      <c r="I324" s="1"/>
-      <c r="J324" s="1"/>
-      <c r="K324" s="1"/>
-      <c r="L324" s="1"/>
-      <c r="M324" s="1"/>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -10453,15 +8192,8 @@
       <c r="E325" t="s">
         <v>286</v>
       </c>
-      <c r="G325" s="1"/>
-      <c r="H325" s="1"/>
-      <c r="I325" s="1"/>
-      <c r="J325" s="1"/>
-      <c r="K325" s="1"/>
-      <c r="L325" s="1"/>
-      <c r="M325" s="1"/>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -10477,15 +8209,8 @@
       <c r="E326" t="s">
         <v>286</v>
       </c>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
-      <c r="M326" s="1"/>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -10501,15 +8226,8 @@
       <c r="E327" t="s">
         <v>286</v>
       </c>
-      <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
-      <c r="M327" s="1"/>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -10525,15 +8243,8 @@
       <c r="E328" t="s">
         <v>286</v>
       </c>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
-      <c r="J328" s="1"/>
-      <c r="K328" s="1"/>
-      <c r="L328" s="1"/>
-      <c r="M328" s="1"/>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -10549,15 +8260,8 @@
       <c r="E329" t="s">
         <v>286</v>
       </c>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
-      <c r="J329" s="1"/>
-      <c r="K329" s="1"/>
-      <c r="L329" s="1"/>
-      <c r="M329" s="1"/>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -10573,15 +8277,8 @@
       <c r="E330" t="s">
         <v>286</v>
       </c>
-      <c r="G330" s="1"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
-      <c r="K330" s="1"/>
-      <c r="L330" s="1"/>
-      <c r="M330" s="1"/>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -10597,15 +8294,8 @@
       <c r="E331" t="s">
         <v>286</v>
       </c>
-      <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
-      <c r="I331" s="1"/>
-      <c r="J331" s="1"/>
-      <c r="K331" s="1"/>
-      <c r="L331" s="1"/>
-      <c r="M331" s="1"/>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -10621,15 +8311,8 @@
       <c r="E332" t="s">
         <v>286</v>
       </c>
-      <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
-      <c r="K332" s="1"/>
-      <c r="L332" s="1"/>
-      <c r="M332" s="1"/>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -10645,15 +8328,8 @@
       <c r="E333" t="s">
         <v>286</v>
       </c>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -10669,15 +8345,8 @@
       <c r="E334" t="s">
         <v>286</v>
       </c>
-      <c r="G334" s="1"/>
-      <c r="H334" s="1"/>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
-      <c r="L334" s="1"/>
-      <c r="M334" s="1"/>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -10693,15 +8362,8 @@
       <c r="E335" t="s">
         <v>286</v>
       </c>
-      <c r="G335" s="1"/>
-      <c r="H335" s="1"/>
-      <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
-      <c r="K335" s="1"/>
-      <c r="L335" s="1"/>
-      <c r="M335" s="1"/>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -10717,15 +8379,8 @@
       <c r="E336" t="s">
         <v>286</v>
       </c>
-      <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
-      <c r="M336" s="1"/>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -10741,15 +8396,8 @@
       <c r="E337" t="s">
         <v>286</v>
       </c>
-      <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
-      <c r="M337" s="1"/>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -10765,15 +8413,8 @@
       <c r="E338" t="s">
         <v>286</v>
       </c>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
-      <c r="M338" s="1"/>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -10789,15 +8430,8 @@
       <c r="E339" t="s">
         <v>286</v>
       </c>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -10813,15 +8447,8 @@
       <c r="E340" t="s">
         <v>286</v>
       </c>
-      <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
-      <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
-      <c r="M340" s="1"/>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -10837,15 +8464,8 @@
       <c r="E341" t="s">
         <v>286</v>
       </c>
-      <c r="G341" s="1"/>
-      <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
-      <c r="M341" s="1"/>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -10861,15 +8481,8 @@
       <c r="E342" t="s">
         <v>286</v>
       </c>
-      <c r="G342" s="1"/>
-      <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
-      <c r="J342" s="1"/>
-      <c r="K342" s="1"/>
-      <c r="L342" s="1"/>
-      <c r="M342" s="1"/>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -10885,15 +8498,8 @@
       <c r="E343" t="s">
         <v>286</v>
       </c>
-      <c r="G343" s="1"/>
-      <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
-      <c r="J343" s="1"/>
-      <c r="K343" s="1"/>
-      <c r="L343" s="1"/>
-      <c r="M343" s="1"/>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -10909,15 +8515,8 @@
       <c r="E344" t="s">
         <v>286</v>
       </c>
-      <c r="G344" s="1"/>
-      <c r="H344" s="1"/>
-      <c r="I344" s="1"/>
-      <c r="J344" s="1"/>
-      <c r="K344" s="1"/>
-      <c r="L344" s="1"/>
-      <c r="M344" s="1"/>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -10933,15 +8532,8 @@
       <c r="E345" t="s">
         <v>286</v>
       </c>
-      <c r="G345" s="1"/>
-      <c r="H345" s="1"/>
-      <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
-      <c r="L345" s="1"/>
-      <c r="M345" s="1"/>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -10957,15 +8549,8 @@
       <c r="E346" t="s">
         <v>286</v>
       </c>
-      <c r="G346" s="1"/>
-      <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
-      <c r="M346" s="1"/>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -10981,15 +8566,8 @@
       <c r="E347" t="s">
         <v>286</v>
       </c>
-      <c r="G347" s="1"/>
-      <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
-      <c r="M347" s="1"/>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -11005,15 +8583,8 @@
       <c r="E348" t="s">
         <v>368</v>
       </c>
-      <c r="G348" s="1"/>
-      <c r="H348" s="1"/>
-      <c r="I348" s="1"/>
-      <c r="J348" s="1"/>
-      <c r="K348" s="1"/>
-      <c r="L348" s="1"/>
-      <c r="M348" s="1"/>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>369</v>
       </c>
@@ -11029,15 +8600,8 @@
       <c r="E349" t="s">
         <v>368</v>
       </c>
-      <c r="G349" s="1"/>
-      <c r="H349" s="1"/>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
-      <c r="M349" s="1"/>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>370</v>
       </c>
@@ -11053,15 +8617,8 @@
       <c r="E350" t="s">
         <v>368</v>
       </c>
-      <c r="G350" s="1"/>
-      <c r="H350" s="1"/>
-      <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
-      <c r="K350" s="1"/>
-      <c r="L350" s="1"/>
-      <c r="M350" s="1"/>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>371</v>
       </c>
@@ -11077,15 +8634,8 @@
       <c r="E351" t="s">
         <v>368</v>
       </c>
-      <c r="G351" s="1"/>
-      <c r="H351" s="1"/>
-      <c r="I351" s="1"/>
-      <c r="J351" s="1"/>
-      <c r="K351" s="1"/>
-      <c r="L351" s="1"/>
-      <c r="M351" s="1"/>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>372</v>
       </c>
@@ -11101,15 +8651,8 @@
       <c r="E352" t="s">
         <v>368</v>
       </c>
-      <c r="G352" s="1"/>
-      <c r="H352" s="1"/>
-      <c r="I352" s="1"/>
-      <c r="J352" s="1"/>
-      <c r="K352" s="1"/>
-      <c r="L352" s="1"/>
-      <c r="M352" s="1"/>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>373</v>
       </c>
@@ -11125,15 +8668,8 @@
       <c r="E353" t="s">
         <v>368</v>
       </c>
-      <c r="G353" s="1"/>
-      <c r="H353" s="1"/>
-      <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1"/>
-      <c r="L353" s="1"/>
-      <c r="M353" s="1"/>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>374</v>
       </c>
@@ -11149,15 +8685,8 @@
       <c r="E354" t="s">
         <v>368</v>
       </c>
-      <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-      <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
-      <c r="M354" s="1"/>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>375</v>
       </c>
@@ -11173,15 +8702,8 @@
       <c r="E355" t="s">
         <v>368</v>
       </c>
-      <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>376</v>
       </c>
@@ -11197,15 +8719,8 @@
       <c r="E356" t="s">
         <v>368</v>
       </c>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
-      <c r="M356" s="1"/>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>377</v>
       </c>
@@ -11221,15 +8736,8 @@
       <c r="E357" t="s">
         <v>368</v>
       </c>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-      <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
-      <c r="M357" s="1"/>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -11245,15 +8753,8 @@
       <c r="E358" t="s">
         <v>368</v>
       </c>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
-      <c r="M358" s="1"/>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -11269,15 +8770,8 @@
       <c r="E359" t="s">
         <v>368</v>
       </c>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
-      <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
-      <c r="M359" s="1"/>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -11293,15 +8787,8 @@
       <c r="E360" t="s">
         <v>368</v>
       </c>
-      <c r="G360" s="1"/>
-      <c r="H360" s="1"/>
-      <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
-      <c r="M360" s="1"/>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -11317,15 +8804,8 @@
       <c r="E361" t="s">
         <v>368</v>
       </c>
-      <c r="G361" s="1"/>
-      <c r="H361" s="1"/>
-      <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -11341,15 +8821,8 @@
       <c r="E362" t="s">
         <v>368</v>
       </c>
-      <c r="G362" s="1"/>
-      <c r="H362" s="1"/>
-      <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1"/>
-      <c r="L362" s="1"/>
-      <c r="M362" s="1"/>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -11365,15 +8838,8 @@
       <c r="E363" t="s">
         <v>368</v>
       </c>
-      <c r="G363" s="1"/>
-      <c r="H363" s="1"/>
-      <c r="I363" s="1"/>
-      <c r="J363" s="1"/>
-      <c r="K363" s="1"/>
-      <c r="L363" s="1"/>
-      <c r="M363" s="1"/>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -11389,15 +8855,8 @@
       <c r="E364" t="s">
         <v>368</v>
       </c>
-      <c r="G364" s="1"/>
-      <c r="H364" s="1"/>
-      <c r="I364" s="1"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="1"/>
-      <c r="M364" s="1"/>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -11413,15 +8872,8 @@
       <c r="E365" t="s">
         <v>368</v>
       </c>
-      <c r="G365" s="1"/>
-      <c r="H365" s="1"/>
-      <c r="I365" s="1"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
-      <c r="M365" s="1"/>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -11437,15 +8889,8 @@
       <c r="E366" t="s">
         <v>368</v>
       </c>
-      <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-      <c r="I366" s="1"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
-      <c r="M366" s="1"/>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -11461,15 +8906,8 @@
       <c r="E367" t="s">
         <v>368</v>
       </c>
-      <c r="G367" s="1"/>
-      <c r="H367" s="1"/>
-      <c r="I367" s="1"/>
-      <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
-      <c r="L367" s="1"/>
-      <c r="M367" s="1"/>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -11485,15 +8923,8 @@
       <c r="E368" t="s">
         <v>368</v>
       </c>
-      <c r="G368" s="1"/>
-      <c r="H368" s="1"/>
-      <c r="I368" s="1"/>
-      <c r="J368" s="1"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="1"/>
-      <c r="M368" s="1"/>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -11509,15 +8940,8 @@
       <c r="E369" t="s">
         <v>368</v>
       </c>
-      <c r="G369" s="1"/>
-      <c r="H369" s="1"/>
-      <c r="I369" s="1"/>
-      <c r="J369" s="1"/>
-      <c r="K369" s="1"/>
-      <c r="L369" s="1"/>
-      <c r="M369" s="1"/>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -11533,15 +8957,8 @@
       <c r="E370" t="s">
         <v>368</v>
       </c>
-      <c r="G370" s="1"/>
-      <c r="H370" s="1"/>
-      <c r="I370" s="1"/>
-      <c r="J370" s="1"/>
-      <c r="K370" s="1"/>
-      <c r="L370" s="1"/>
-      <c r="M370" s="1"/>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -11557,15 +8974,8 @@
       <c r="E371" t="s">
         <v>368</v>
       </c>
-      <c r="G371" s="1"/>
-      <c r="H371" s="1"/>
-      <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
-      <c r="K371" s="1"/>
-      <c r="L371" s="1"/>
-      <c r="M371" s="1"/>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -11581,15 +8991,8 @@
       <c r="E372" t="s">
         <v>368</v>
       </c>
-      <c r="G372" s="1"/>
-      <c r="H372" s="1"/>
-      <c r="I372" s="1"/>
-      <c r="J372" s="1"/>
-      <c r="K372" s="1"/>
-      <c r="L372" s="1"/>
-      <c r="M372" s="1"/>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -11605,15 +9008,8 @@
       <c r="E373" t="s">
         <v>368</v>
       </c>
-      <c r="G373" s="1"/>
-      <c r="H373" s="1"/>
-      <c r="I373" s="1"/>
-      <c r="J373" s="1"/>
-      <c r="K373" s="1"/>
-      <c r="L373" s="1"/>
-      <c r="M373" s="1"/>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -11629,15 +9025,8 @@
       <c r="E374" t="s">
         <v>368</v>
       </c>
-      <c r="G374" s="1"/>
-      <c r="H374" s="1"/>
-      <c r="I374" s="1"/>
-      <c r="J374" s="1"/>
-      <c r="K374" s="1"/>
-      <c r="L374" s="1"/>
-      <c r="M374" s="1"/>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -11653,15 +9042,8 @@
       <c r="E375" t="s">
         <v>368</v>
       </c>
-      <c r="G375" s="1"/>
-      <c r="H375" s="1"/>
-      <c r="I375" s="1"/>
-      <c r="J375" s="1"/>
-      <c r="K375" s="1"/>
-      <c r="L375" s="1"/>
-      <c r="M375" s="1"/>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -11677,15 +9059,8 @@
       <c r="E376" t="s">
         <v>368</v>
       </c>
-      <c r="G376" s="1"/>
-      <c r="H376" s="1"/>
-      <c r="I376" s="1"/>
-      <c r="J376" s="1"/>
-      <c r="K376" s="1"/>
-      <c r="L376" s="1"/>
-      <c r="M376" s="1"/>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -11701,15 +9076,8 @@
       <c r="E377" t="s">
         <v>368</v>
       </c>
-      <c r="G377" s="1"/>
-      <c r="H377" s="1"/>
-      <c r="I377" s="1"/>
-      <c r="J377" s="1"/>
-      <c r="K377" s="1"/>
-      <c r="L377" s="1"/>
-      <c r="M377" s="1"/>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -11725,15 +9093,8 @@
       <c r="E378" t="s">
         <v>368</v>
       </c>
-      <c r="G378" s="1"/>
-      <c r="H378" s="1"/>
-      <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
-      <c r="K378" s="1"/>
-      <c r="L378" s="1"/>
-      <c r="M378" s="1"/>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -11749,15 +9110,8 @@
       <c r="E379" t="s">
         <v>368</v>
       </c>
-      <c r="G379" s="1"/>
-      <c r="H379" s="1"/>
-      <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-      <c r="K379" s="1"/>
-      <c r="L379" s="1"/>
-      <c r="M379" s="1"/>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -11773,15 +9127,8 @@
       <c r="E380" t="s">
         <v>368</v>
       </c>
-      <c r="G380" s="1"/>
-      <c r="H380" s="1"/>
-      <c r="I380" s="1"/>
-      <c r="J380" s="1"/>
-      <c r="K380" s="1"/>
-      <c r="L380" s="1"/>
-      <c r="M380" s="1"/>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -11797,15 +9144,8 @@
       <c r="E381" t="s">
         <v>368</v>
       </c>
-      <c r="G381" s="1"/>
-      <c r="H381" s="1"/>
-      <c r="I381" s="1"/>
-      <c r="J381" s="1"/>
-      <c r="K381" s="1"/>
-      <c r="L381" s="1"/>
-      <c r="M381" s="1"/>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -11821,15 +9161,8 @@
       <c r="E382" t="s">
         <v>368</v>
       </c>
-      <c r="G382" s="1"/>
-      <c r="H382" s="1"/>
-      <c r="I382" s="1"/>
-      <c r="J382" s="1"/>
-      <c r="K382" s="1"/>
-      <c r="L382" s="1"/>
-      <c r="M382" s="1"/>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -11845,15 +9178,8 @@
       <c r="E383" t="s">
         <v>368</v>
       </c>
-      <c r="G383" s="1"/>
-      <c r="H383" s="1"/>
-      <c r="I383" s="1"/>
-      <c r="J383" s="1"/>
-      <c r="K383" s="1"/>
-      <c r="L383" s="1"/>
-      <c r="M383" s="1"/>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -11869,15 +9195,8 @@
       <c r="E384" t="s">
         <v>368</v>
       </c>
-      <c r="G384" s="1"/>
-      <c r="H384" s="1"/>
-      <c r="I384" s="1"/>
-      <c r="J384" s="1"/>
-      <c r="K384" s="1"/>
-      <c r="L384" s="1"/>
-      <c r="M384" s="1"/>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -11893,15 +9212,8 @@
       <c r="E385" t="s">
         <v>368</v>
       </c>
-      <c r="G385" s="1"/>
-      <c r="H385" s="1"/>
-      <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="1"/>
-      <c r="L385" s="1"/>
-      <c r="M385" s="1"/>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -11917,15 +9229,8 @@
       <c r="E386" t="s">
         <v>368</v>
       </c>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-      <c r="I386" s="1"/>
-      <c r="J386" s="1"/>
-      <c r="K386" s="1"/>
-      <c r="L386" s="1"/>
-      <c r="M386" s="1"/>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -11941,15 +9246,8 @@
       <c r="E387" t="s">
         <v>368</v>
       </c>
-      <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-      <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
-      <c r="K387" s="1"/>
-      <c r="L387" s="1"/>
-      <c r="M387" s="1"/>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -11965,15 +9263,8 @@
       <c r="E388" t="s">
         <v>368</v>
       </c>
-      <c r="G388" s="1"/>
-      <c r="H388" s="1"/>
-      <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
-      <c r="K388" s="1"/>
-      <c r="L388" s="1"/>
-      <c r="M388" s="1"/>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -11989,15 +9280,8 @@
       <c r="E389" t="s">
         <v>368</v>
       </c>
-      <c r="G389" s="1"/>
-      <c r="H389" s="1"/>
-      <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
-      <c r="K389" s="1"/>
-      <c r="L389" s="1"/>
-      <c r="M389" s="1"/>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -12013,15 +9297,8 @@
       <c r="E390" t="s">
         <v>368</v>
       </c>
-      <c r="G390" s="1"/>
-      <c r="H390" s="1"/>
-      <c r="I390" s="1"/>
-      <c r="J390" s="1"/>
-      <c r="K390" s="1"/>
-      <c r="L390" s="1"/>
-      <c r="M390" s="1"/>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -12037,15 +9314,8 @@
       <c r="E391" t="s">
         <v>368</v>
       </c>
-      <c r="G391" s="1"/>
-      <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
-      <c r="K391" s="1"/>
-      <c r="L391" s="1"/>
-      <c r="M391" s="1"/>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -12061,15 +9331,8 @@
       <c r="E392" t="s">
         <v>368</v>
       </c>
-      <c r="G392" s="1"/>
-      <c r="H392" s="1"/>
-      <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
-      <c r="K392" s="1"/>
-      <c r="L392" s="1"/>
-      <c r="M392" s="1"/>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -12085,15 +9348,8 @@
       <c r="E393" t="s">
         <v>368</v>
       </c>
-      <c r="G393" s="1"/>
-      <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1"/>
-      <c r="M393" s="1"/>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -12109,15 +9365,8 @@
       <c r="E394" t="s">
         <v>368</v>
       </c>
-      <c r="G394" s="1"/>
-      <c r="H394" s="1"/>
-      <c r="I394" s="1"/>
-      <c r="J394" s="1"/>
-      <c r="K394" s="1"/>
-      <c r="L394" s="1"/>
-      <c r="M394" s="1"/>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -12133,15 +9382,8 @@
       <c r="E395" t="s">
         <v>368</v>
       </c>
-      <c r="G395" s="1"/>
-      <c r="H395" s="1"/>
-      <c r="I395" s="1"/>
-      <c r="J395" s="1"/>
-      <c r="K395" s="1"/>
-      <c r="L395" s="1"/>
-      <c r="M395" s="1"/>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -12157,15 +9399,8 @@
       <c r="E396" t="s">
         <v>368</v>
       </c>
-      <c r="G396" s="1"/>
-      <c r="H396" s="1"/>
-      <c r="I396" s="1"/>
-      <c r="J396" s="1"/>
-      <c r="K396" s="1"/>
-      <c r="L396" s="1"/>
-      <c r="M396" s="1"/>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -12181,15 +9416,8 @@
       <c r="E397" t="s">
         <v>368</v>
       </c>
-      <c r="G397" s="1"/>
-      <c r="H397" s="1"/>
-      <c r="I397" s="1"/>
-      <c r="J397" s="1"/>
-      <c r="K397" s="1"/>
-      <c r="L397" s="1"/>
-      <c r="M397" s="1"/>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -12205,15 +9433,8 @@
       <c r="E398" t="s">
         <v>368</v>
       </c>
-      <c r="G398" s="1"/>
-      <c r="H398" s="1"/>
-      <c r="I398" s="1"/>
-      <c r="J398" s="1"/>
-      <c r="K398" s="1"/>
-      <c r="L398" s="1"/>
-      <c r="M398" s="1"/>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -12229,15 +9450,8 @@
       <c r="E399" t="s">
         <v>368</v>
       </c>
-      <c r="G399" s="1"/>
-      <c r="H399" s="1"/>
-      <c r="I399" s="1"/>
-      <c r="J399" s="1"/>
-      <c r="K399" s="1"/>
-      <c r="L399" s="1"/>
-      <c r="M399" s="1"/>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -12253,15 +9467,8 @@
       <c r="E400" t="s">
         <v>368</v>
       </c>
-      <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
-      <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1"/>
-      <c r="M400" s="1"/>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -12277,15 +9484,8 @@
       <c r="E401" t="s">
         <v>368</v>
       </c>
-      <c r="G401" s="1"/>
-      <c r="H401" s="1"/>
-      <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
-      <c r="K401" s="1"/>
-      <c r="L401" s="1"/>
-      <c r="M401" s="1"/>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -12301,15 +9501,8 @@
       <c r="E402" t="s">
         <v>368</v>
       </c>
-      <c r="G402" s="1"/>
-      <c r="H402" s="1"/>
-      <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
-      <c r="M402" s="1"/>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -12325,15 +9518,8 @@
       <c r="E403" t="s">
         <v>368</v>
       </c>
-      <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
-      <c r="M403" s="1"/>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -12349,15 +9535,8 @@
       <c r="E404" t="s">
         <v>368</v>
       </c>
-      <c r="G404" s="1"/>
-      <c r="H404" s="1"/>
-      <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
-      <c r="K404" s="1"/>
-      <c r="L404" s="1"/>
-      <c r="M404" s="1"/>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -12373,15 +9552,8 @@
       <c r="E405" t="s">
         <v>368</v>
       </c>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="M405" s="1"/>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -12397,15 +9569,8 @@
       <c r="E406" t="s">
         <v>368</v>
       </c>
-      <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
-      <c r="M406" s="1"/>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -12421,15 +9586,8 @@
       <c r="E407" t="s">
         <v>368</v>
       </c>
-      <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
-      <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1"/>
-      <c r="M407" s="1"/>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -12445,15 +9603,8 @@
       <c r="E408" t="s">
         <v>368</v>
       </c>
-      <c r="G408" s="1"/>
-      <c r="H408" s="1"/>
-      <c r="I408" s="1"/>
-      <c r="J408" s="1"/>
-      <c r="K408" s="1"/>
-      <c r="L408" s="1"/>
-      <c r="M408" s="1"/>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -12469,15 +9620,8 @@
       <c r="E409" t="s">
         <v>368</v>
       </c>
-      <c r="G409" s="1"/>
-      <c r="H409" s="1"/>
-      <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1"/>
-      <c r="M409" s="1"/>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -12493,15 +9637,8 @@
       <c r="E410" t="s">
         <v>368</v>
       </c>
-      <c r="G410" s="1"/>
-      <c r="H410" s="1"/>
-      <c r="I410" s="1"/>
-      <c r="J410" s="1"/>
-      <c r="K410" s="1"/>
-      <c r="L410" s="1"/>
-      <c r="M410" s="1"/>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -12517,15 +9654,8 @@
       <c r="E411" t="s">
         <v>368</v>
       </c>
-      <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-      <c r="I411" s="1"/>
-      <c r="J411" s="1"/>
-      <c r="K411" s="1"/>
-      <c r="L411" s="1"/>
-      <c r="M411" s="1"/>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -12541,15 +9671,8 @@
       <c r="E412" t="s">
         <v>368</v>
       </c>
-      <c r="G412" s="1"/>
-      <c r="H412" s="1"/>
-      <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
-      <c r="K412" s="1"/>
-      <c r="L412" s="1"/>
-      <c r="M412" s="1"/>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -12565,15 +9688,8 @@
       <c r="E413" t="s">
         <v>368</v>
       </c>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1"/>
-      <c r="M413" s="1"/>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -12589,15 +9705,8 @@
       <c r="E414" t="s">
         <v>368</v>
       </c>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1"/>
-      <c r="M414" s="1"/>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -12613,15 +9722,8 @@
       <c r="E415" t="s">
         <v>368</v>
       </c>
-      <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
-      <c r="I415" s="1"/>
-      <c r="J415" s="1"/>
-      <c r="K415" s="1"/>
-      <c r="L415" s="1"/>
-      <c r="M415" s="1"/>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -12637,15 +9739,8 @@
       <c r="E416" t="s">
         <v>368</v>
       </c>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-      <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
-      <c r="M416" s="1"/>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -12661,15 +9756,8 @@
       <c r="E417" t="s">
         <v>368</v>
       </c>
-      <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1"/>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -12685,15 +9773,8 @@
       <c r="E418" t="s">
         <v>368</v>
       </c>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
-      <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1"/>
-      <c r="M418" s="1"/>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -12709,15 +9790,8 @@
       <c r="E419" t="s">
         <v>368</v>
       </c>
-      <c r="G419" s="1"/>
-      <c r="H419" s="1"/>
-      <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
-      <c r="K419" s="1"/>
-      <c r="L419" s="1"/>
-      <c r="M419" s="1"/>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -12733,15 +9807,8 @@
       <c r="E420" t="s">
         <v>368</v>
       </c>
-      <c r="G420" s="1"/>
-      <c r="H420" s="1"/>
-      <c r="I420" s="1"/>
-      <c r="J420" s="1"/>
-      <c r="K420" s="1"/>
-      <c r="L420" s="1"/>
-      <c r="M420" s="1"/>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -12757,15 +9824,8 @@
       <c r="E421" t="s">
         <v>368</v>
       </c>
-      <c r="G421" s="1"/>
-      <c r="H421" s="1"/>
-      <c r="I421" s="1"/>
-      <c r="J421" s="1"/>
-      <c r="K421" s="1"/>
-      <c r="L421" s="1"/>
-      <c r="M421" s="1"/>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -12781,15 +9841,8 @@
       <c r="E422" t="s">
         <v>368</v>
       </c>
-      <c r="G422" s="1"/>
-      <c r="H422" s="1"/>
-      <c r="I422" s="1"/>
-      <c r="J422" s="1"/>
-      <c r="K422" s="1"/>
-      <c r="L422" s="1"/>
-      <c r="M422" s="1"/>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -12805,15 +9858,8 @@
       <c r="E423" t="s">
         <v>368</v>
       </c>
-      <c r="G423" s="1"/>
-      <c r="H423" s="1"/>
-      <c r="I423" s="1"/>
-      <c r="J423" s="1"/>
-      <c r="K423" s="1"/>
-      <c r="L423" s="1"/>
-      <c r="M423" s="1"/>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -12829,15 +9875,8 @@
       <c r="E424" t="s">
         <v>368</v>
       </c>
-      <c r="G424" s="1"/>
-      <c r="H424" s="1"/>
-      <c r="I424" s="1"/>
-      <c r="J424" s="1"/>
-      <c r="K424" s="1"/>
-      <c r="L424" s="1"/>
-      <c r="M424" s="1"/>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -12853,15 +9892,8 @@
       <c r="E425" t="s">
         <v>368</v>
       </c>
-      <c r="G425" s="1"/>
-      <c r="H425" s="1"/>
-      <c r="I425" s="1"/>
-      <c r="J425" s="1"/>
-      <c r="K425" s="1"/>
-      <c r="L425" s="1"/>
-      <c r="M425" s="1"/>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -12877,15 +9909,8 @@
       <c r="E426" t="s">
         <v>368</v>
       </c>
-      <c r="G426" s="1"/>
-      <c r="H426" s="1"/>
-      <c r="I426" s="1"/>
-      <c r="J426" s="1"/>
-      <c r="K426" s="1"/>
-      <c r="L426" s="1"/>
-      <c r="M426" s="1"/>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -12901,15 +9926,8 @@
       <c r="E427" t="s">
         <v>368</v>
       </c>
-      <c r="G427" s="1"/>
-      <c r="H427" s="1"/>
-      <c r="I427" s="1"/>
-      <c r="J427" s="1"/>
-      <c r="K427" s="1"/>
-      <c r="L427" s="1"/>
-      <c r="M427" s="1"/>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -12925,15 +9943,8 @@
       <c r="E428" t="s">
         <v>368</v>
       </c>
-      <c r="G428" s="1"/>
-      <c r="H428" s="1"/>
-      <c r="I428" s="1"/>
-      <c r="J428" s="1"/>
-      <c r="K428" s="1"/>
-      <c r="L428" s="1"/>
-      <c r="M428" s="1"/>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -12949,15 +9960,8 @@
       <c r="E429" t="s">
         <v>368</v>
       </c>
-      <c r="G429" s="1"/>
-      <c r="H429" s="1"/>
-      <c r="I429" s="1"/>
-      <c r="J429" s="1"/>
-      <c r="K429" s="1"/>
-      <c r="L429" s="1"/>
-      <c r="M429" s="1"/>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -12973,15 +9977,8 @@
       <c r="E430" t="s">
         <v>368</v>
       </c>
-      <c r="G430" s="1"/>
-      <c r="H430" s="1"/>
-      <c r="I430" s="1"/>
-      <c r="J430" s="1"/>
-      <c r="K430" s="1"/>
-      <c r="L430" s="1"/>
-      <c r="M430" s="1"/>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -12997,15 +9994,8 @@
       <c r="E431" t="s">
         <v>368</v>
       </c>
-      <c r="G431" s="1"/>
-      <c r="H431" s="1"/>
-      <c r="I431" s="1"/>
-      <c r="J431" s="1"/>
-      <c r="K431" s="1"/>
-      <c r="L431" s="1"/>
-      <c r="M431" s="1"/>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -13021,15 +10011,8 @@
       <c r="E432" t="s">
         <v>368</v>
       </c>
-      <c r="G432" s="1"/>
-      <c r="H432" s="1"/>
-      <c r="I432" s="1"/>
-      <c r="J432" s="1"/>
-      <c r="K432" s="1"/>
-      <c r="L432" s="1"/>
-      <c r="M432" s="1"/>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -13045,15 +10028,8 @@
       <c r="E433" t="s">
         <v>368</v>
       </c>
-      <c r="G433" s="1"/>
-      <c r="H433" s="1"/>
-      <c r="I433" s="1"/>
-      <c r="J433" s="1"/>
-      <c r="K433" s="1"/>
-      <c r="L433" s="1"/>
-      <c r="M433" s="1"/>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -13069,15 +10045,8 @@
       <c r="E434" t="s">
         <v>368</v>
       </c>
-      <c r="G434" s="1"/>
-      <c r="H434" s="1"/>
-      <c r="I434" s="1"/>
-      <c r="J434" s="1"/>
-      <c r="K434" s="1"/>
-      <c r="L434" s="1"/>
-      <c r="M434" s="1"/>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -13093,15 +10062,8 @@
       <c r="E435" t="s">
         <v>368</v>
       </c>
-      <c r="G435" s="1"/>
-      <c r="H435" s="1"/>
-      <c r="I435" s="1"/>
-      <c r="J435" s="1"/>
-      <c r="K435" s="1"/>
-      <c r="L435" s="1"/>
-      <c r="M435" s="1"/>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -13117,15 +10079,8 @@
       <c r="E436" t="s">
         <v>368</v>
       </c>
-      <c r="G436" s="1"/>
-      <c r="H436" s="1"/>
-      <c r="I436" s="1"/>
-      <c r="J436" s="1"/>
-      <c r="K436" s="1"/>
-      <c r="L436" s="1"/>
-      <c r="M436" s="1"/>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -13141,13 +10096,6 @@
       <c r="E437" t="s">
         <v>368</v>
       </c>
-      <c r="G437" s="1"/>
-      <c r="H437" s="1"/>
-      <c r="I437" s="1"/>
-      <c r="J437" s="1"/>
-      <c r="K437" s="1"/>
-      <c r="L437" s="1"/>
-      <c r="M437" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025Senescence.xlsx
+++ b/data/monitoringPhenology/2025Senescence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8169BC-D189-3144-857E-966CC2CEBE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756FD79-0FB5-6A43-80FC-A4D235175E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1980" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="467">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>lastleavesfell</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>only 4 leaves, very small</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2118,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3124</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2176,7 +2182,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2290,21 +2296,32 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:M437" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:M437" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
+  <autoFilter ref="A1:M437" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="betula"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{74371ACB-E7E7-834B-BA9E-B0BFC0290814}" name="doy" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B193062B-AFAC-2F4E-A4A5-A3F7B0601374}" name="chl1" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{B0D9E193-6B50-E247-B9F4-407694E3F903}" name="chl2" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C32C804B-8B2B-8F4E-8A79-99775D6DBA19}" name="chl3" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{C32219B7-C5AB-7248-94DA-26F55B0BF9C0}" name="percent" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{A346F99A-2FED-2B42-A373-8726298C2933}" name="greenleafcover" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{5FC8C25B-6484-4F49-840C-35AD4157DCE8}" name="lastleavesfell" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{74371ACB-E7E7-834B-BA9E-B0BFC0290814}" name="doy" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B193062B-AFAC-2F4E-A4A5-A3F7B0601374}" name="chl1" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{B0D9E193-6B50-E247-B9F4-407694E3F903}" name="chl2" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{C32C804B-8B2B-8F4E-8A79-99775D6DBA19}" name="chl3" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{C32219B7-C5AB-7248-94DA-26F55B0BF9C0}" name="percent" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A346F99A-2FED-2B42-A373-8726298C2933}" name="greenleafcover" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{5FC8C25B-6484-4F49-840C-35AD4157DCE8}" name="lastleavesfell" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2630,9 +2647,9 @@
   <dimension ref="A1:M437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2683,7 @@
       <c r="G1" t="s">
         <v>458</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>459</v>
       </c>
       <c r="I1" t="s">
@@ -2685,7 +2702,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2701,8 +2718,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2718,8 +2738,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2735,8 +2758,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2752,8 +2778,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2769,8 +2798,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2786,8 +2818,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2803,8 +2838,11 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2820,8 +2858,11 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2837,8 +2878,11 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2854,8 +2898,11 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2871,8 +2918,11 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2888,8 +2938,11 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2905,8 +2958,11 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2922,8 +2978,11 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2939,8 +2998,11 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2956,8 +3018,11 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2973,8 +3038,11 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2990,8 +3058,11 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3007,8 +3078,11 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3024,8 +3098,11 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3041,8 +3118,11 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3058,8 +3138,11 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3075,8 +3158,11 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3092,8 +3178,11 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3109,8 +3198,11 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3126,8 +3218,11 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3143,8 +3238,11 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3160,8 +3258,11 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3177,8 +3278,11 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3194,8 +3298,11 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3211,8 +3318,11 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3228,8 +3338,11 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3245,8 +3358,11 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3262,8 +3378,11 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3279,8 +3398,11 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3296,8 +3418,11 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3313,8 +3438,11 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3330,8 +3458,11 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3347,8 +3478,11 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3364,8 +3498,11 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3381,8 +3518,11 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3398,8 +3538,11 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3415,8 +3558,11 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3432,8 +3578,11 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3449,8 +3598,11 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3466,8 +3618,11 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3483,8 +3638,11 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3500,8 +3658,11 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3517,8 +3678,11 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3534,8 +3698,11 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3568,8 +3738,11 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3585,8 +3758,11 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3602,8 +3778,11 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3619,8 +3798,11 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3636,8 +3818,11 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3653,8 +3838,11 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3670,8 +3858,11 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3687,8 +3878,11 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3704,8 +3898,11 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3721,8 +3918,11 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3738,8 +3938,11 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3755,8 +3958,11 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3772,8 +3978,11 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3789,8 +3998,11 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3806,8 +4018,11 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3823,8 +4038,11 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -3840,8 +4058,11 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3857,8 +4078,11 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3874,8 +4098,11 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -3891,8 +4118,11 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -3908,8 +4138,11 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -3925,8 +4158,11 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -3942,8 +4178,11 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -3959,8 +4198,11 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -3976,8 +4218,11 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3993,8 +4238,11 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4010,8 +4258,11 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4027,8 +4278,11 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4044,8 +4298,11 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4061,8 +4318,11 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4078,8 +4338,11 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4095,8 +4358,11 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4112,8 +4378,11 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4129,8 +4398,11 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -4146,8 +4418,11 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -4163,8 +4438,11 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -4180,8 +4458,11 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -4197,8 +4478,11 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4214,8 +4498,11 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4231,8 +4518,23 @@
       <c r="E92" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>231</v>
+      </c>
+      <c r="H92">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I92">
+        <v>16.8</v>
+      </c>
+      <c r="J92">
+        <v>16.5</v>
+      </c>
+      <c r="K92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4248,8 +4550,23 @@
       <c r="E93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>231</v>
+      </c>
+      <c r="H93">
+        <v>20.7</v>
+      </c>
+      <c r="I93">
+        <v>23.9</v>
+      </c>
+      <c r="J93">
+        <v>32.4</v>
+      </c>
+      <c r="K93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4265,8 +4582,23 @@
       <c r="E94" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>231</v>
+      </c>
+      <c r="H94">
+        <v>19.5</v>
+      </c>
+      <c r="I94">
+        <v>20.7</v>
+      </c>
+      <c r="J94">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K94">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4282,8 +4614,23 @@
       <c r="E95" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>231</v>
+      </c>
+      <c r="H95">
+        <v>28.9</v>
+      </c>
+      <c r="I95">
+        <v>21</v>
+      </c>
+      <c r="J95">
+        <v>23.4</v>
+      </c>
+      <c r="K95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4299,8 +4646,23 @@
       <c r="E96" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>231</v>
+      </c>
+      <c r="H96">
+        <v>21.9</v>
+      </c>
+      <c r="I96">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J96">
+        <v>42.5</v>
+      </c>
+      <c r="K96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4316,8 +4678,23 @@
       <c r="E97" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>231</v>
+      </c>
+      <c r="H97">
+        <v>23.7</v>
+      </c>
+      <c r="I97">
+        <v>26.6</v>
+      </c>
+      <c r="J97">
+        <v>21</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4333,8 +4710,23 @@
       <c r="E98" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>231</v>
+      </c>
+      <c r="H98">
+        <v>23.8</v>
+      </c>
+      <c r="I98">
+        <v>17.3</v>
+      </c>
+      <c r="J98">
+        <v>30.9</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4350,8 +4742,23 @@
       <c r="E99" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>231</v>
+      </c>
+      <c r="H99">
+        <v>21.7</v>
+      </c>
+      <c r="I99">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="J99">
+        <v>27.2</v>
+      </c>
+      <c r="K99">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4367,8 +4774,23 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>231</v>
+      </c>
+      <c r="H100">
+        <v>28</v>
+      </c>
+      <c r="I100">
+        <v>33.6</v>
+      </c>
+      <c r="J100">
+        <v>28.1</v>
+      </c>
+      <c r="K100">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4384,8 +4806,23 @@
       <c r="E101" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>231</v>
+      </c>
+      <c r="H101">
+        <v>29.9</v>
+      </c>
+      <c r="I101">
+        <v>23.8</v>
+      </c>
+      <c r="J101">
+        <v>32.5</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4401,8 +4838,23 @@
       <c r="E102" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>231</v>
+      </c>
+      <c r="H102" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I102" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="J102" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="K102" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4418,8 +4870,23 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>231</v>
+      </c>
+      <c r="H103" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="I103" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="K103" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4435,8 +4902,23 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>231</v>
+      </c>
+      <c r="H104" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="I104" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="J104" s="1">
+        <v>34</v>
+      </c>
+      <c r="K104" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -4452,8 +4934,23 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>231</v>
+      </c>
+      <c r="H105" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="I105" s="1">
+        <v>24</v>
+      </c>
+      <c r="J105" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="K105" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -4469,8 +4966,23 @@
       <c r="E106" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>231</v>
+      </c>
+      <c r="H106" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I106" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J106" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="K106" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -4486,8 +4998,23 @@
       <c r="E107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>231</v>
+      </c>
+      <c r="H107">
+        <v>14.5</v>
+      </c>
+      <c r="I107">
+        <v>22.7</v>
+      </c>
+      <c r="J107">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K107">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4503,8 +5030,23 @@
       <c r="E108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>231</v>
+      </c>
+      <c r="H108">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I108">
+        <v>20.2</v>
+      </c>
+      <c r="J108">
+        <v>33.1</v>
+      </c>
+      <c r="K108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4520,8 +5062,23 @@
       <c r="E109" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>231</v>
+      </c>
+      <c r="H109">
+        <v>17</v>
+      </c>
+      <c r="I109">
+        <v>17.8</v>
+      </c>
+      <c r="J109">
+        <v>31.4</v>
+      </c>
+      <c r="K109">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -4537,8 +5094,23 @@
       <c r="E110" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>231</v>
+      </c>
+      <c r="H110">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I110">
+        <v>28.3</v>
+      </c>
+      <c r="J110">
+        <v>24.4</v>
+      </c>
+      <c r="K110">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -4554,8 +5126,23 @@
       <c r="E111" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>231</v>
+      </c>
+      <c r="H111">
+        <v>12</v>
+      </c>
+      <c r="I111">
+        <v>12.4</v>
+      </c>
+      <c r="J111">
+        <v>13.9</v>
+      </c>
+      <c r="K111">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -4571,8 +5158,23 @@
       <c r="E112" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>231</v>
+      </c>
+      <c r="H112">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I112">
+        <v>15.2</v>
+      </c>
+      <c r="J112">
+        <v>20.7</v>
+      </c>
+      <c r="K112">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -4588,8 +5190,23 @@
       <c r="E113" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>231</v>
+      </c>
+      <c r="H113">
+        <v>29.2</v>
+      </c>
+      <c r="I113">
+        <v>28.4</v>
+      </c>
+      <c r="J113">
+        <v>29.7</v>
+      </c>
+      <c r="K113">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -4605,8 +5222,23 @@
       <c r="E114" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>231</v>
+      </c>
+      <c r="H114">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I114">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J114">
+        <v>16</v>
+      </c>
+      <c r="K114">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -4622,8 +5254,23 @@
       <c r="E115" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>231</v>
+      </c>
+      <c r="H115">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I115">
+        <v>29.9</v>
+      </c>
+      <c r="J115">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K115">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -4639,8 +5286,23 @@
       <c r="E116" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>231</v>
+      </c>
+      <c r="H116">
+        <v>26</v>
+      </c>
+      <c r="I116">
+        <v>20.5</v>
+      </c>
+      <c r="J116">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K116">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -4656,8 +5318,23 @@
       <c r="E117" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>231</v>
+      </c>
+      <c r="H117">
+        <v>25.9</v>
+      </c>
+      <c r="I117">
+        <v>20.8</v>
+      </c>
+      <c r="J117">
+        <v>26.1</v>
+      </c>
+      <c r="K117">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -4673,8 +5350,23 @@
       <c r="E118" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>231</v>
+      </c>
+      <c r="H118">
+        <v>20.7</v>
+      </c>
+      <c r="I118">
+        <v>23.7</v>
+      </c>
+      <c r="J118">
+        <v>38.9</v>
+      </c>
+      <c r="K118">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -4690,8 +5382,23 @@
       <c r="E119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>231</v>
+      </c>
+      <c r="H119">
+        <v>24.8</v>
+      </c>
+      <c r="I119">
+        <v>22</v>
+      </c>
+      <c r="J119">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K119">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -4707,8 +5414,23 @@
       <c r="E120" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>231</v>
+      </c>
+      <c r="H120">
+        <v>22.4</v>
+      </c>
+      <c r="I120">
+        <v>25.2</v>
+      </c>
+      <c r="J120">
+        <v>43</v>
+      </c>
+      <c r="K120">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -4724,8 +5446,23 @@
       <c r="E121" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>231</v>
+      </c>
+      <c r="H121">
+        <v>23.1</v>
+      </c>
+      <c r="I121">
+        <v>25.7</v>
+      </c>
+      <c r="J121">
+        <v>17</v>
+      </c>
+      <c r="K121">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -4741,8 +5478,23 @@
       <c r="E122" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>231</v>
+      </c>
+      <c r="H122">
+        <v>22.5</v>
+      </c>
+      <c r="I122">
+        <v>35.9</v>
+      </c>
+      <c r="J122">
+        <v>17.2</v>
+      </c>
+      <c r="K122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -4758,8 +5510,23 @@
       <c r="E123" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>231</v>
+      </c>
+      <c r="H123">
+        <v>15.6</v>
+      </c>
+      <c r="I123">
+        <v>15.3</v>
+      </c>
+      <c r="J123">
+        <v>25.3</v>
+      </c>
+      <c r="K123">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -4775,8 +5542,23 @@
       <c r="E124" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>231</v>
+      </c>
+      <c r="H124">
+        <v>18.3</v>
+      </c>
+      <c r="I124">
+        <v>23.1</v>
+      </c>
+      <c r="J124">
+        <v>26.6</v>
+      </c>
+      <c r="K124">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -4792,8 +5574,23 @@
       <c r="E125" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>231</v>
+      </c>
+      <c r="H125">
+        <v>18.3</v>
+      </c>
+      <c r="I125">
+        <v>17.3</v>
+      </c>
+      <c r="J125">
+        <v>32</v>
+      </c>
+      <c r="K125">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -4809,8 +5606,23 @@
       <c r="E126" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>231</v>
+      </c>
+      <c r="H126">
+        <v>28.2</v>
+      </c>
+      <c r="I126">
+        <v>20.5</v>
+      </c>
+      <c r="J126">
+        <v>38.9</v>
+      </c>
+      <c r="K126">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -4826,8 +5638,23 @@
       <c r="E127" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>231</v>
+      </c>
+      <c r="H127">
+        <v>23.5</v>
+      </c>
+      <c r="I127">
+        <v>30.5</v>
+      </c>
+      <c r="J127">
+        <v>22.1</v>
+      </c>
+      <c r="K127">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -4843,8 +5670,23 @@
       <c r="E128" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>231</v>
+      </c>
+      <c r="H128">
+        <v>22.2</v>
+      </c>
+      <c r="I128">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J128">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K128">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -4860,8 +5702,23 @@
       <c r="E129" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>231</v>
+      </c>
+      <c r="H129">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I129">
+        <v>33.4</v>
+      </c>
+      <c r="J129">
+        <v>17</v>
+      </c>
+      <c r="K129">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -4877,8 +5734,23 @@
       <c r="E130" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>231</v>
+      </c>
+      <c r="H130">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I130">
+        <v>19</v>
+      </c>
+      <c r="J130">
+        <v>20.8</v>
+      </c>
+      <c r="K130">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -4894,8 +5766,23 @@
       <c r="E131" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>231</v>
+      </c>
+      <c r="H131">
+        <v>31.9</v>
+      </c>
+      <c r="I131">
+        <v>31.7</v>
+      </c>
+      <c r="J131">
+        <v>18.7</v>
+      </c>
+      <c r="K131">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -4911,8 +5798,23 @@
       <c r="E132" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>231</v>
+      </c>
+      <c r="H132">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I132">
+        <v>19</v>
+      </c>
+      <c r="J132">
+        <v>38.6</v>
+      </c>
+      <c r="K132">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -4928,8 +5830,23 @@
       <c r="E133" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>231</v>
+      </c>
+      <c r="H133">
+        <v>37.6</v>
+      </c>
+      <c r="I133">
+        <v>30</v>
+      </c>
+      <c r="J133">
+        <v>36.9</v>
+      </c>
+      <c r="K133">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -4945,8 +5862,23 @@
       <c r="E134" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>231</v>
+      </c>
+      <c r="H134">
+        <v>44.1</v>
+      </c>
+      <c r="I134">
+        <v>20</v>
+      </c>
+      <c r="J134">
+        <v>20.3</v>
+      </c>
+      <c r="K134">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -4962,8 +5894,23 @@
       <c r="E135" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>231</v>
+      </c>
+      <c r="H135">
+        <v>32.5</v>
+      </c>
+      <c r="I135">
+        <v>32.5</v>
+      </c>
+      <c r="J135">
+        <v>27.6</v>
+      </c>
+      <c r="K135">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -4979,8 +5926,23 @@
       <c r="E136" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>231</v>
+      </c>
+      <c r="H136">
+        <v>19</v>
+      </c>
+      <c r="I136">
+        <v>18.8</v>
+      </c>
+      <c r="J136">
+        <v>32.6</v>
+      </c>
+      <c r="K136">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -4996,8 +5958,23 @@
       <c r="E137" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>231</v>
+      </c>
+      <c r="H137">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I137">
+        <v>13.3</v>
+      </c>
+      <c r="J137">
+        <v>31.7</v>
+      </c>
+      <c r="K137">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -5013,8 +5990,23 @@
       <c r="E138" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>231</v>
+      </c>
+      <c r="H138">
+        <v>14</v>
+      </c>
+      <c r="I138">
+        <v>15.8</v>
+      </c>
+      <c r="J138">
+        <v>30.6</v>
+      </c>
+      <c r="K138">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -5030,8 +6022,23 @@
       <c r="E139" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>231</v>
+      </c>
+      <c r="H139">
+        <v>10.1</v>
+      </c>
+      <c r="I139">
+        <v>22.5</v>
+      </c>
+      <c r="J139">
+        <v>30.6</v>
+      </c>
+      <c r="K139">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -5047,8 +6054,23 @@
       <c r="E140" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>231</v>
+      </c>
+      <c r="H140">
+        <v>19.7</v>
+      </c>
+      <c r="I140">
+        <v>20.8</v>
+      </c>
+      <c r="J140">
+        <v>24.8</v>
+      </c>
+      <c r="K140">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -5064,8 +6086,23 @@
       <c r="E141" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>231</v>
+      </c>
+      <c r="H141">
+        <v>18.8</v>
+      </c>
+      <c r="I141">
+        <v>21.5</v>
+      </c>
+      <c r="J141">
+        <v>26</v>
+      </c>
+      <c r="K141">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -5081,8 +6118,23 @@
       <c r="E142" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>231</v>
+      </c>
+      <c r="H142" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="I142" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="J142" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="K142" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -5098,8 +6150,23 @@
       <c r="E143" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>231</v>
+      </c>
+      <c r="H143" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="I143" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="J143" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="K143" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -5115,8 +6182,23 @@
       <c r="E144" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>231</v>
+      </c>
+      <c r="H144" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="I144" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="J144" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K144" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -5132,8 +6214,23 @@
       <c r="E145" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>231</v>
+      </c>
+      <c r="H145" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="I145" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="J145" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="K145" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -5149,8 +6246,23 @@
       <c r="E146" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>231</v>
+      </c>
+      <c r="H146" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I146" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="J146" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="K146" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -5166,8 +6278,23 @@
       <c r="E147" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <v>231</v>
+      </c>
+      <c r="H147">
+        <v>21.5</v>
+      </c>
+      <c r="I147">
+        <v>21.3</v>
+      </c>
+      <c r="J147">
+        <v>45.6</v>
+      </c>
+      <c r="K147">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -5183,8 +6310,23 @@
       <c r="E148" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <v>231</v>
+      </c>
+      <c r="H148">
+        <v>28.4</v>
+      </c>
+      <c r="I148">
+        <v>36</v>
+      </c>
+      <c r="J148">
+        <v>27.4</v>
+      </c>
+      <c r="K148">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -5200,8 +6342,23 @@
       <c r="E149" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <v>231</v>
+      </c>
+      <c r="H149">
+        <v>20.9</v>
+      </c>
+      <c r="I149">
+        <v>23.6</v>
+      </c>
+      <c r="J149">
+        <v>32.1</v>
+      </c>
+      <c r="K149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -5217,8 +6374,23 @@
       <c r="E150" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <v>231</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <v>24.8</v>
+      </c>
+      <c r="J150">
+        <v>31.9</v>
+      </c>
+      <c r="K150">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -5234,8 +6406,23 @@
       <c r="E151" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>231</v>
+      </c>
+      <c r="H151">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="I151">
+        <v>22.8</v>
+      </c>
+      <c r="J151">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K151">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -5251,8 +6438,23 @@
       <c r="E152" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <v>231</v>
+      </c>
+      <c r="H152">
+        <v>21.6</v>
+      </c>
+      <c r="I152">
+        <v>24.1</v>
+      </c>
+      <c r="J152">
+        <v>32.4</v>
+      </c>
+      <c r="K152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -5268,8 +6470,23 @@
       <c r="E153" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>231</v>
+      </c>
+      <c r="H153">
+        <v>23.2</v>
+      </c>
+      <c r="I153">
+        <v>24.3</v>
+      </c>
+      <c r="J153">
+        <v>31.7</v>
+      </c>
+      <c r="K153">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -5285,8 +6502,23 @@
       <c r="E154" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G154">
+        <v>231</v>
+      </c>
+      <c r="H154">
+        <v>10.1</v>
+      </c>
+      <c r="I154">
+        <v>14.1</v>
+      </c>
+      <c r="J154">
+        <v>33.6</v>
+      </c>
+      <c r="K154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -5302,8 +6534,23 @@
       <c r="E155" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <v>231</v>
+      </c>
+      <c r="H155">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I155">
+        <v>21.9</v>
+      </c>
+      <c r="J155">
+        <v>34</v>
+      </c>
+      <c r="K155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -5319,8 +6566,23 @@
       <c r="E156" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <v>231</v>
+      </c>
+      <c r="H156">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I156">
+        <v>21.4</v>
+      </c>
+      <c r="J156">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K156">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -5336,8 +6598,23 @@
       <c r="E157" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <v>231</v>
+      </c>
+      <c r="H157">
+        <v>25.1</v>
+      </c>
+      <c r="I157">
+        <v>21.7</v>
+      </c>
+      <c r="J157">
+        <v>35.6</v>
+      </c>
+      <c r="K157">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -5353,8 +6630,23 @@
       <c r="E158" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>231</v>
+      </c>
+      <c r="H158">
+        <v>22.5</v>
+      </c>
+      <c r="I158">
+        <v>24.3</v>
+      </c>
+      <c r="J158">
+        <v>34.1</v>
+      </c>
+      <c r="K158">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -5370,8 +6662,23 @@
       <c r="E159" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>231</v>
+      </c>
+      <c r="H159">
+        <v>21.8</v>
+      </c>
+      <c r="I159">
+        <v>22.6</v>
+      </c>
+      <c r="J159">
+        <v>29.8</v>
+      </c>
+      <c r="K159">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -5387,8 +6694,23 @@
       <c r="E160" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <v>231</v>
+      </c>
+      <c r="H160">
+        <v>26.5</v>
+      </c>
+      <c r="I160">
+        <v>22.1</v>
+      </c>
+      <c r="J160">
+        <v>25.1</v>
+      </c>
+      <c r="K160">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -5404,8 +6726,23 @@
       <c r="E161" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <v>231</v>
+      </c>
+      <c r="H161">
+        <v>29.5</v>
+      </c>
+      <c r="I161">
+        <v>25.3</v>
+      </c>
+      <c r="J161">
+        <v>19.3</v>
+      </c>
+      <c r="K161">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -5421,8 +6758,23 @@
       <c r="E162" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G162">
+        <v>231</v>
+      </c>
+      <c r="H162">
+        <v>20.3</v>
+      </c>
+      <c r="I162">
+        <v>30</v>
+      </c>
+      <c r="J162">
+        <v>25.2</v>
+      </c>
+      <c r="K162">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -5438,8 +6790,23 @@
       <c r="E163" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <v>231</v>
+      </c>
+      <c r="H163">
+        <v>39.4</v>
+      </c>
+      <c r="I163">
+        <v>41</v>
+      </c>
+      <c r="J163">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K163">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -5455,8 +6822,23 @@
       <c r="E164" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G164">
+        <v>231</v>
+      </c>
+      <c r="H164">
+        <v>31.5</v>
+      </c>
+      <c r="I164">
+        <v>26.6</v>
+      </c>
+      <c r="J164">
+        <v>25.1</v>
+      </c>
+      <c r="K164">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -5472,8 +6854,23 @@
       <c r="E165" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <v>231</v>
+      </c>
+      <c r="H165">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I165">
+        <v>26.2</v>
+      </c>
+      <c r="J165">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K165">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -5489,8 +6886,23 @@
       <c r="E166" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G166">
+        <v>231</v>
+      </c>
+      <c r="H166">
+        <v>31.2</v>
+      </c>
+      <c r="I166">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J166">
+        <v>26.3</v>
+      </c>
+      <c r="K166">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -5506,8 +6918,23 @@
       <c r="E167" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G167">
+        <v>231</v>
+      </c>
+      <c r="H167">
+        <v>17.5</v>
+      </c>
+      <c r="I167">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J167">
+        <v>19.8</v>
+      </c>
+      <c r="K167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -5523,8 +6950,23 @@
       <c r="E168" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G168">
+        <v>231</v>
+      </c>
+      <c r="H168">
+        <v>28</v>
+      </c>
+      <c r="I168">
+        <v>30.6</v>
+      </c>
+      <c r="J168">
+        <v>27.5</v>
+      </c>
+      <c r="K168">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -5540,8 +6982,23 @@
       <c r="E169" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G169">
+        <v>231</v>
+      </c>
+      <c r="H169">
+        <v>10.9</v>
+      </c>
+      <c r="I169">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J169">
+        <v>22.9</v>
+      </c>
+      <c r="K169">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -5557,8 +7014,23 @@
       <c r="E170" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <v>231</v>
+      </c>
+      <c r="H170">
+        <v>21.5</v>
+      </c>
+      <c r="I170">
+        <v>31.9</v>
+      </c>
+      <c r="J170">
+        <v>29.8</v>
+      </c>
+      <c r="K170">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -5574,8 +7046,23 @@
       <c r="E171" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <v>231</v>
+      </c>
+      <c r="H171">
+        <v>22.6</v>
+      </c>
+      <c r="I171">
+        <v>21.6</v>
+      </c>
+      <c r="J171">
+        <v>25.8</v>
+      </c>
+      <c r="K171">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -5591,8 +7078,23 @@
       <c r="E172" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>231</v>
+      </c>
+      <c r="H172">
+        <v>14.1</v>
+      </c>
+      <c r="I172">
+        <v>21.8</v>
+      </c>
+      <c r="J172">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K172">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -5608,8 +7110,23 @@
       <c r="E173" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <v>231</v>
+      </c>
+      <c r="H173">
+        <v>25.8</v>
+      </c>
+      <c r="I173">
+        <v>27.8</v>
+      </c>
+      <c r="J173">
+        <v>27.2</v>
+      </c>
+      <c r="K173">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -5625,8 +7142,23 @@
       <c r="E174" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <v>231</v>
+      </c>
+      <c r="H174">
+        <v>22.7</v>
+      </c>
+      <c r="I174">
+        <v>19.2</v>
+      </c>
+      <c r="J174">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K174">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -5642,8 +7174,23 @@
       <c r="E175" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <v>231</v>
+      </c>
+      <c r="H175">
+        <v>19.3</v>
+      </c>
+      <c r="I175">
+        <v>18.5</v>
+      </c>
+      <c r="J175">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K175">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -5659,8 +7206,23 @@
       <c r="E176" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <v>231</v>
+      </c>
+      <c r="H176">
+        <v>24.3</v>
+      </c>
+      <c r="I176">
+        <v>23.9</v>
+      </c>
+      <c r="J176">
+        <v>32.1</v>
+      </c>
+      <c r="K176">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -5676,8 +7238,23 @@
       <c r="E177" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G177">
+        <v>231</v>
+      </c>
+      <c r="H177">
+        <v>24.4</v>
+      </c>
+      <c r="I177">
+        <v>34.4</v>
+      </c>
+      <c r="J177">
+        <v>20.6</v>
+      </c>
+      <c r="K177">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -5693,8 +7270,23 @@
       <c r="E178" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G178">
+        <v>231</v>
+      </c>
+      <c r="H178">
+        <v>37.5</v>
+      </c>
+      <c r="I178">
+        <v>18.7</v>
+      </c>
+      <c r="J178">
+        <v>24</v>
+      </c>
+      <c r="K178">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -5710,8 +7302,23 @@
       <c r="E179" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>231</v>
+      </c>
+      <c r="H179">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I179">
+        <v>11.2</v>
+      </c>
+      <c r="J179">
+        <v>23.9</v>
+      </c>
+      <c r="K179">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -5727,8 +7334,23 @@
       <c r="E180" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <v>231</v>
+      </c>
+      <c r="H180">
+        <v>21.5</v>
+      </c>
+      <c r="I180">
+        <v>24.3</v>
+      </c>
+      <c r="J180">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K180">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -5744,8 +7366,23 @@
       <c r="E181" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G181">
+        <v>231</v>
+      </c>
+      <c r="H181">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I181">
+        <v>25.5</v>
+      </c>
+      <c r="J181">
+        <v>42.2</v>
+      </c>
+      <c r="K181">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -5761,8 +7398,11 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G182">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -5778,8 +7418,11 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G183">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -5795,8 +7438,11 @@
       <c r="E184" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G184">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -5812,8 +7458,11 @@
       <c r="E185" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G185">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -5829,8 +7478,11 @@
       <c r="E186" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -5846,8 +7498,11 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -5863,8 +7518,11 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G188">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -5880,8 +7538,11 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G189">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -5897,8 +7558,11 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G190">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -5914,8 +7578,11 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G191">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -5931,8 +7598,11 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G192">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -5948,8 +7618,11 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -5965,8 +7638,11 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G194">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -5982,8 +7658,11 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -5999,8 +7678,11 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G196">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -6016,8 +7698,11 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G197">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -6033,8 +7718,11 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -6050,8 +7738,11 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G199">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -6067,8 +7758,11 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -6084,8 +7778,11 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G201">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -6101,8 +7798,11 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G202">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -6118,8 +7818,11 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -6135,8 +7838,11 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G204">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -6152,8 +7858,11 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G205">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -6169,8 +7878,11 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G206">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -6186,8 +7898,11 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G207">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -6203,8 +7918,11 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G208">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -6220,8 +7938,11 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G209">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -6237,8 +7958,11 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G210">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -6254,8 +7978,11 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G211">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -6271,8 +7998,11 @@
       <c r="E212" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G212">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -6288,8 +8018,11 @@
       <c r="E213" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G213">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -6305,8 +8038,11 @@
       <c r="E214" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G214">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -6322,8 +8058,11 @@
       <c r="E215" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G215">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -6339,8 +8078,11 @@
       <c r="E216" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G216">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -6356,8 +8098,11 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G217">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -6373,8 +8118,11 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G218">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -6390,8 +8138,11 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G219">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -6407,8 +8158,11 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G220">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -6424,8 +8178,11 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G221">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -6441,8 +8198,11 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G222">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -6458,8 +8218,11 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G223">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -6475,8 +8238,11 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G224">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -6492,8 +8258,11 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G225">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -6509,8 +8278,11 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G226">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -6526,8 +8298,11 @@
       <c r="E227" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G227">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -6543,8 +8318,11 @@
       <c r="E228" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G228">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -6560,8 +8338,11 @@
       <c r="E229" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G229">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -6577,8 +8358,11 @@
       <c r="E230" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G230">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -6594,8 +8378,11 @@
       <c r="E231" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G231">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -6611,8 +8398,11 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -6628,8 +8418,11 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G233">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -6645,8 +8438,11 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G234">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -6662,8 +8458,11 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G235">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -6679,8 +8478,11 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G236">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -6696,8 +8498,11 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G237">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -6713,8 +8518,11 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G238">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -6730,8 +8538,11 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G239">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -6747,8 +8558,11 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G240">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -6764,8 +8578,11 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G241">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -6781,8 +8598,11 @@
       <c r="E242" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G242">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -6798,8 +8618,11 @@
       <c r="E243" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G243">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -6815,8 +8638,11 @@
       <c r="E244" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G244">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -6832,8 +8658,11 @@
       <c r="E245" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G245">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -6849,8 +8678,11 @@
       <c r="E246" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G246">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -6866,8 +8698,11 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G247">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -6883,8 +8718,11 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G248">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -6900,8 +8738,11 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -6917,8 +8758,11 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G250">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -6934,8 +8778,11 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G251">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -6951,8 +8798,11 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G252">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -6968,8 +8818,11 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G253">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -6985,8 +8838,11 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G254">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -7002,8 +8858,11 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G255">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -7019,8 +8878,11 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G256">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -7036,8 +8898,11 @@
       <c r="E257" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G257">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -7053,8 +8918,11 @@
       <c r="E258" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G258">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -7070,8 +8938,11 @@
       <c r="E259" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G259">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -7087,8 +8958,11 @@
       <c r="E260" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G260">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -7104,8 +8978,11 @@
       <c r="E261" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G261">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -7121,8 +8998,11 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G262">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -7138,8 +9018,11 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G263">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -7155,8 +9038,11 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G264">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -7172,8 +9058,11 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G265">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -7189,8 +9078,11 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G266">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -7206,8 +9098,11 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G267">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -7223,8 +9118,29 @@
       <c r="E268" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G268">
+        <v>231</v>
+      </c>
+      <c r="H268">
+        <v>25.5</v>
+      </c>
+      <c r="I268">
+        <v>23.5</v>
+      </c>
+      <c r="J268">
+        <v>23.7</v>
+      </c>
+      <c r="K268">
+        <v>100</v>
+      </c>
+      <c r="L268" t="s">
+        <v>465</v>
+      </c>
+      <c r="M268" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>287</v>
       </c>
@@ -7240,8 +9156,29 @@
       <c r="E269" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G269">
+        <v>231</v>
+      </c>
+      <c r="H269">
+        <v>29.7</v>
+      </c>
+      <c r="I269">
+        <v>29.9</v>
+      </c>
+      <c r="J269">
+        <v>26</v>
+      </c>
+      <c r="K269">
+        <v>95</v>
+      </c>
+      <c r="L269" t="s">
+        <v>465</v>
+      </c>
+      <c r="M269" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>288</v>
       </c>
@@ -7257,8 +9194,29 @@
       <c r="E270" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G270">
+        <v>231</v>
+      </c>
+      <c r="H270">
+        <v>22.9</v>
+      </c>
+      <c r="I270">
+        <v>27.9</v>
+      </c>
+      <c r="J270">
+        <v>26.1</v>
+      </c>
+      <c r="K270">
+        <v>90</v>
+      </c>
+      <c r="L270" t="s">
+        <v>465</v>
+      </c>
+      <c r="M270" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -7274,8 +9232,29 @@
       <c r="E271" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G271">
+        <v>231</v>
+      </c>
+      <c r="H271">
+        <v>27.2</v>
+      </c>
+      <c r="I271">
+        <v>27.2</v>
+      </c>
+      <c r="J271">
+        <v>23.2</v>
+      </c>
+      <c r="K271">
+        <v>95</v>
+      </c>
+      <c r="L271" t="s">
+        <v>465</v>
+      </c>
+      <c r="M271" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>290</v>
       </c>
@@ -7291,8 +9270,23 @@
       <c r="E272" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G272">
+        <v>231</v>
+      </c>
+      <c r="H272">
+        <v>23.4</v>
+      </c>
+      <c r="I272">
+        <v>17.5</v>
+      </c>
+      <c r="J272">
+        <v>22.5</v>
+      </c>
+      <c r="K272">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -7308,8 +9302,23 @@
       <c r="E273" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G273">
+        <v>231</v>
+      </c>
+      <c r="H273">
+        <v>26.5</v>
+      </c>
+      <c r="I273">
+        <v>32.4</v>
+      </c>
+      <c r="J273">
+        <v>9.4</v>
+      </c>
+      <c r="K273">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -7325,8 +9334,23 @@
       <c r="E274" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G274">
+        <v>231</v>
+      </c>
+      <c r="H274">
+        <v>23.8</v>
+      </c>
+      <c r="I274">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J274">
+        <v>20.8</v>
+      </c>
+      <c r="K274">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -7342,8 +9366,23 @@
       <c r="E275" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G275">
+        <v>231</v>
+      </c>
+      <c r="H275">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I275">
+        <v>34.1</v>
+      </c>
+      <c r="J275">
+        <v>33.5</v>
+      </c>
+      <c r="K275">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -7359,8 +9398,23 @@
       <c r="E276" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G276">
+        <v>231</v>
+      </c>
+      <c r="H276">
+        <v>28.7</v>
+      </c>
+      <c r="I276">
+        <v>24.9</v>
+      </c>
+      <c r="J276">
+        <v>26.6</v>
+      </c>
+      <c r="K276">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -7376,8 +9430,23 @@
       <c r="E277" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G277">
+        <v>231</v>
+      </c>
+      <c r="H277">
+        <v>30.7</v>
+      </c>
+      <c r="I277">
+        <v>35</v>
+      </c>
+      <c r="J277">
+        <v>25</v>
+      </c>
+      <c r="K277">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -7393,8 +9462,23 @@
       <c r="E278" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G278">
+        <v>231</v>
+      </c>
+      <c r="H278">
+        <v>28.7</v>
+      </c>
+      <c r="I278">
+        <v>24.4</v>
+      </c>
+      <c r="J278">
+        <v>25.1</v>
+      </c>
+      <c r="K278">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -7410,8 +9494,23 @@
       <c r="E279" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G279">
+        <v>231</v>
+      </c>
+      <c r="H279">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I279">
+        <v>15.4</v>
+      </c>
+      <c r="J279">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K279">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -7427,8 +9526,23 @@
       <c r="E280" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G280">
+        <v>231</v>
+      </c>
+      <c r="H280">
+        <v>24.2</v>
+      </c>
+      <c r="I280">
+        <v>25.6</v>
+      </c>
+      <c r="J280">
+        <v>24.5</v>
+      </c>
+      <c r="K280">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -7444,8 +9558,23 @@
       <c r="E281" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G281">
+        <v>231</v>
+      </c>
+      <c r="H281">
+        <v>25.3</v>
+      </c>
+      <c r="I281">
+        <v>23.5</v>
+      </c>
+      <c r="J281">
+        <v>23.1</v>
+      </c>
+      <c r="K281">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -7461,8 +9590,23 @@
       <c r="E282" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G282">
+        <v>231</v>
+      </c>
+      <c r="H282">
+        <v>22.6</v>
+      </c>
+      <c r="I282">
+        <v>24.8</v>
+      </c>
+      <c r="J282">
+        <v>30.2</v>
+      </c>
+      <c r="K282">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -7478,8 +9622,23 @@
       <c r="E283" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G283">
+        <v>231</v>
+      </c>
+      <c r="H283">
+        <v>19.8</v>
+      </c>
+      <c r="I283">
+        <v>26.4</v>
+      </c>
+      <c r="J283">
+        <v>21.1</v>
+      </c>
+      <c r="K283">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -7495,8 +9654,23 @@
       <c r="E284" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G284">
+        <v>231</v>
+      </c>
+      <c r="H284">
+        <v>25.3</v>
+      </c>
+      <c r="I284">
+        <v>20.2</v>
+      </c>
+      <c r="J284">
+        <v>26.5</v>
+      </c>
+      <c r="K284">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -7512,8 +9686,23 @@
       <c r="E285" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G285">
+        <v>231</v>
+      </c>
+      <c r="H285">
+        <v>22.2</v>
+      </c>
+      <c r="I285">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J285">
+        <v>30.1</v>
+      </c>
+      <c r="K285">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -7529,8 +9718,23 @@
       <c r="E286" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G286">
+        <v>231</v>
+      </c>
+      <c r="H286">
+        <v>24.9</v>
+      </c>
+      <c r="I286">
+        <v>17.8</v>
+      </c>
+      <c r="J286">
+        <v>24.2</v>
+      </c>
+      <c r="K286">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -7546,8 +9750,23 @@
       <c r="E287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G287">
+        <v>231</v>
+      </c>
+      <c r="H287">
+        <v>23.4</v>
+      </c>
+      <c r="I287">
+        <v>18.3</v>
+      </c>
+      <c r="J287">
+        <v>19.3</v>
+      </c>
+      <c r="K287">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -7563,8 +9782,23 @@
       <c r="E288" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G288">
+        <v>231</v>
+      </c>
+      <c r="H288">
+        <v>30.1</v>
+      </c>
+      <c r="I288">
+        <v>30.4</v>
+      </c>
+      <c r="J288">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K288">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -7580,8 +9814,23 @@
       <c r="E289" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G289">
+        <v>231</v>
+      </c>
+      <c r="H289">
+        <v>21.9</v>
+      </c>
+      <c r="I289">
+        <v>16.8</v>
+      </c>
+      <c r="J289">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K289">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -7597,8 +9846,23 @@
       <c r="E290" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G290">
+        <v>231</v>
+      </c>
+      <c r="H290">
+        <v>25.2</v>
+      </c>
+      <c r="I290">
+        <v>23.6</v>
+      </c>
+      <c r="J290">
+        <v>27.3</v>
+      </c>
+      <c r="K290">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -7614,8 +9878,23 @@
       <c r="E291" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G291">
+        <v>231</v>
+      </c>
+      <c r="H291">
+        <v>16.3</v>
+      </c>
+      <c r="I291">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J291">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K291">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -7631,8 +9910,23 @@
       <c r="E292" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G292">
+        <v>231</v>
+      </c>
+      <c r="H292">
+        <v>27.6</v>
+      </c>
+      <c r="I292">
+        <v>27.6</v>
+      </c>
+      <c r="J292">
+        <v>28</v>
+      </c>
+      <c r="K292">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -7648,8 +9942,23 @@
       <c r="E293" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G293">
+        <v>231</v>
+      </c>
+      <c r="H293">
+        <v>21.3</v>
+      </c>
+      <c r="I293">
+        <v>32.5</v>
+      </c>
+      <c r="J293">
+        <v>21.6</v>
+      </c>
+      <c r="K293">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -7665,8 +9974,23 @@
       <c r="E294" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G294">
+        <v>231</v>
+      </c>
+      <c r="H294">
+        <v>26.9</v>
+      </c>
+      <c r="I294">
+        <v>19.2</v>
+      </c>
+      <c r="J294">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K294">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -7682,8 +10006,23 @@
       <c r="E295" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G295">
+        <v>231</v>
+      </c>
+      <c r="H295">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I295">
+        <v>33.9</v>
+      </c>
+      <c r="J295">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K295">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -7699,8 +10038,23 @@
       <c r="E296" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G296">
+        <v>231</v>
+      </c>
+      <c r="H296">
+        <v>36.1</v>
+      </c>
+      <c r="I296">
+        <v>35.4</v>
+      </c>
+      <c r="J296">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K296">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -7716,8 +10070,23 @@
       <c r="E297" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G297">
+        <v>231</v>
+      </c>
+      <c r="H297">
+        <v>30.9</v>
+      </c>
+      <c r="I297">
+        <v>29.2</v>
+      </c>
+      <c r="J297">
+        <v>28</v>
+      </c>
+      <c r="K297">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -7733,8 +10102,23 @@
       <c r="E298" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G298">
+        <v>231</v>
+      </c>
+      <c r="H298">
+        <v>39</v>
+      </c>
+      <c r="I298">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J298">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="K298">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -7750,8 +10134,23 @@
       <c r="E299" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G299">
+        <v>231</v>
+      </c>
+      <c r="H299">
+        <v>26.4</v>
+      </c>
+      <c r="I299">
+        <v>26.3</v>
+      </c>
+      <c r="J299">
+        <v>28.1</v>
+      </c>
+      <c r="K299">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -7767,8 +10166,23 @@
       <c r="E300" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G300">
+        <v>231</v>
+      </c>
+      <c r="H300">
+        <v>26.7</v>
+      </c>
+      <c r="I300">
+        <v>33.4</v>
+      </c>
+      <c r="J300">
+        <v>28</v>
+      </c>
+      <c r="K300">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -7784,8 +10198,23 @@
       <c r="E301" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G301">
+        <v>231</v>
+      </c>
+      <c r="H301">
+        <v>15.6</v>
+      </c>
+      <c r="I301">
+        <v>16.7</v>
+      </c>
+      <c r="J301">
+        <v>16</v>
+      </c>
+      <c r="K301">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -7801,8 +10230,26 @@
       <c r="E302" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302" t="s">
+        <v>466</v>
+      </c>
+      <c r="G302">
+        <v>231</v>
+      </c>
+      <c r="H302">
+        <v>22.3</v>
+      </c>
+      <c r="I302">
+        <v>18</v>
+      </c>
+      <c r="J302">
+        <v>27.7</v>
+      </c>
+      <c r="K302">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -7818,8 +10265,23 @@
       <c r="E303" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G303">
+        <v>231</v>
+      </c>
+      <c r="H303">
+        <v>24.5</v>
+      </c>
+      <c r="I303">
+        <v>22.8</v>
+      </c>
+      <c r="J303">
+        <v>24.6</v>
+      </c>
+      <c r="K303">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -7835,8 +10297,23 @@
       <c r="E304" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G304">
+        <v>231</v>
+      </c>
+      <c r="H304">
+        <v>22</v>
+      </c>
+      <c r="I304">
+        <v>25.4</v>
+      </c>
+      <c r="J304">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K304">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -7852,8 +10329,23 @@
       <c r="E305" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G305">
+        <v>231</v>
+      </c>
+      <c r="H305">
+        <v>27.6</v>
+      </c>
+      <c r="I305">
+        <v>27.5</v>
+      </c>
+      <c r="J305">
+        <v>30.2</v>
+      </c>
+      <c r="K305">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -7869,8 +10361,23 @@
       <c r="E306" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G306">
+        <v>231</v>
+      </c>
+      <c r="H306">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I306">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J306">
+        <v>17.8</v>
+      </c>
+      <c r="K306">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -7886,8 +10393,23 @@
       <c r="E307" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G307">
+        <v>231</v>
+      </c>
+      <c r="H307">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I307">
+        <v>22.5</v>
+      </c>
+      <c r="J307">
+        <v>24.3</v>
+      </c>
+      <c r="K307">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -7903,8 +10425,23 @@
       <c r="E308" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G308">
+        <v>231</v>
+      </c>
+      <c r="H308">
+        <v>29.3</v>
+      </c>
+      <c r="I308">
+        <v>29.2</v>
+      </c>
+      <c r="J308">
+        <v>21.8</v>
+      </c>
+      <c r="K308">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -7920,8 +10457,23 @@
       <c r="E309" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G309">
+        <v>231</v>
+      </c>
+      <c r="H309">
+        <v>25.6</v>
+      </c>
+      <c r="I309">
+        <v>24.4</v>
+      </c>
+      <c r="J309">
+        <v>31.9</v>
+      </c>
+      <c r="K309">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -7937,8 +10489,23 @@
       <c r="E310" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G310">
+        <v>231</v>
+      </c>
+      <c r="H310">
+        <v>18.2</v>
+      </c>
+      <c r="I310">
+        <v>18.2</v>
+      </c>
+      <c r="J310">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K310">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -7954,8 +10521,23 @@
       <c r="E311" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G311">
+        <v>231</v>
+      </c>
+      <c r="H311">
+        <v>22.5</v>
+      </c>
+      <c r="I311">
+        <v>19</v>
+      </c>
+      <c r="J311">
+        <v>20.6</v>
+      </c>
+      <c r="K311">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -7971,8 +10553,23 @@
       <c r="E312" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G312">
+        <v>231</v>
+      </c>
+      <c r="H312">
+        <v>20.3</v>
+      </c>
+      <c r="I312">
+        <v>24.9</v>
+      </c>
+      <c r="J312">
+        <v>25.6</v>
+      </c>
+      <c r="K312">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -7988,8 +10585,23 @@
       <c r="E313" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G313">
+        <v>231</v>
+      </c>
+      <c r="H313">
+        <v>26.2</v>
+      </c>
+      <c r="I313">
+        <v>21.4</v>
+      </c>
+      <c r="J313">
+        <v>26.1</v>
+      </c>
+      <c r="K313">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -8005,8 +10617,23 @@
       <c r="E314" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G314">
+        <v>231</v>
+      </c>
+      <c r="H314">
+        <v>31.4</v>
+      </c>
+      <c r="I314">
+        <v>30.5</v>
+      </c>
+      <c r="J314">
+        <v>29.5</v>
+      </c>
+      <c r="K314">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -8022,8 +10649,23 @@
       <c r="E315" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G315">
+        <v>231</v>
+      </c>
+      <c r="H315">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I315">
+        <v>23.1</v>
+      </c>
+      <c r="J315">
+        <v>26.5</v>
+      </c>
+      <c r="K315">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -8039,8 +10681,23 @@
       <c r="E316" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G316">
+        <v>231</v>
+      </c>
+      <c r="H316">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I316">
+        <v>10.8</v>
+      </c>
+      <c r="J316">
+        <v>12.9</v>
+      </c>
+      <c r="K316">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -8056,8 +10713,23 @@
       <c r="E317" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G317">
+        <v>231</v>
+      </c>
+      <c r="H317">
+        <v>31.4</v>
+      </c>
+      <c r="I317">
+        <v>29.8</v>
+      </c>
+      <c r="J317">
+        <v>26</v>
+      </c>
+      <c r="K317">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -8073,8 +10745,23 @@
       <c r="E318" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G318">
+        <v>231</v>
+      </c>
+      <c r="H318">
+        <v>26.9</v>
+      </c>
+      <c r="I318">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J318">
+        <v>27.5</v>
+      </c>
+      <c r="K318">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -8090,8 +10777,23 @@
       <c r="E319" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G319">
+        <v>231</v>
+      </c>
+      <c r="H319">
+        <v>25</v>
+      </c>
+      <c r="I319">
+        <v>24.3</v>
+      </c>
+      <c r="J319">
+        <v>30.5</v>
+      </c>
+      <c r="K319">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -8107,8 +10809,23 @@
       <c r="E320" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G320">
+        <v>231</v>
+      </c>
+      <c r="H320">
+        <v>23.8</v>
+      </c>
+      <c r="I320">
+        <v>17</v>
+      </c>
+      <c r="J320">
+        <v>24.3</v>
+      </c>
+      <c r="K320">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -8124,8 +10841,23 @@
       <c r="E321" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G321">
+        <v>231</v>
+      </c>
+      <c r="H321">
+        <v>21.3</v>
+      </c>
+      <c r="I321">
+        <v>21.6</v>
+      </c>
+      <c r="J321">
+        <v>18.3</v>
+      </c>
+      <c r="K321">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -8141,8 +10873,23 @@
       <c r="E322" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G322">
+        <v>231</v>
+      </c>
+      <c r="H322">
+        <v>25.1</v>
+      </c>
+      <c r="I322">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J322">
+        <v>21</v>
+      </c>
+      <c r="K322">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -8158,8 +10905,23 @@
       <c r="E323" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G323">
+        <v>231</v>
+      </c>
+      <c r="H323">
+        <v>28.6</v>
+      </c>
+      <c r="I323">
+        <v>27.4</v>
+      </c>
+      <c r="J323">
+        <v>30.5</v>
+      </c>
+      <c r="K323">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -8175,8 +10937,23 @@
       <c r="E324" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G324">
+        <v>231</v>
+      </c>
+      <c r="H324">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I324">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J324">
+        <v>36</v>
+      </c>
+      <c r="K324">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -8192,8 +10969,23 @@
       <c r="E325" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G325">
+        <v>231</v>
+      </c>
+      <c r="H325">
+        <v>30.1</v>
+      </c>
+      <c r="I325">
+        <v>28.9</v>
+      </c>
+      <c r="J325">
+        <v>31.1</v>
+      </c>
+      <c r="K325">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -8209,8 +11001,23 @@
       <c r="E326" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G326">
+        <v>231</v>
+      </c>
+      <c r="H326" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="I326" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="J326" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="K326" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -8226,8 +11033,23 @@
       <c r="E327" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G327">
+        <v>231</v>
+      </c>
+      <c r="H327" s="1">
+        <v>26</v>
+      </c>
+      <c r="I327" s="1">
+        <v>26</v>
+      </c>
+      <c r="J327" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="K327" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -8243,8 +11065,23 @@
       <c r="E328" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G328">
+        <v>231</v>
+      </c>
+      <c r="H328" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="I328" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="J328" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="K328" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -8260,8 +11097,23 @@
       <c r="E329" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G329">
+        <v>231</v>
+      </c>
+      <c r="H329">
+        <v>23.9</v>
+      </c>
+      <c r="I329">
+        <v>30.9</v>
+      </c>
+      <c r="J329">
+        <v>23.1</v>
+      </c>
+      <c r="K329">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -8277,8 +11129,23 @@
       <c r="E330" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G330">
+        <v>231</v>
+      </c>
+      <c r="H330">
+        <v>24.9</v>
+      </c>
+      <c r="I330">
+        <v>27</v>
+      </c>
+      <c r="J330">
+        <v>30.8</v>
+      </c>
+      <c r="K330">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -8294,8 +11161,23 @@
       <c r="E331" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G331">
+        <v>231</v>
+      </c>
+      <c r="H331">
+        <v>42.3</v>
+      </c>
+      <c r="I331">
+        <v>32.9</v>
+      </c>
+      <c r="J331">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K331">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -8311,8 +11193,23 @@
       <c r="E332" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G332">
+        <v>231</v>
+      </c>
+      <c r="H332">
+        <v>28.5</v>
+      </c>
+      <c r="I332">
+        <v>33.5</v>
+      </c>
+      <c r="J332">
+        <v>34.1</v>
+      </c>
+      <c r="K332">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -8328,8 +11225,23 @@
       <c r="E333" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G333">
+        <v>231</v>
+      </c>
+      <c r="H333">
+        <v>24</v>
+      </c>
+      <c r="I333">
+        <v>26</v>
+      </c>
+      <c r="J333">
+        <v>25.7</v>
+      </c>
+      <c r="K333">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -8345,8 +11257,23 @@
       <c r="E334" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G334">
+        <v>231</v>
+      </c>
+      <c r="H334">
+        <v>20.8</v>
+      </c>
+      <c r="I334">
+        <v>34</v>
+      </c>
+      <c r="J334">
+        <v>23.2</v>
+      </c>
+      <c r="K334">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -8362,8 +11289,23 @@
       <c r="E335" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G335">
+        <v>231</v>
+      </c>
+      <c r="H335">
+        <v>28.6</v>
+      </c>
+      <c r="I335">
+        <v>32.5</v>
+      </c>
+      <c r="J335">
+        <v>33.9</v>
+      </c>
+      <c r="K335">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -8379,8 +11321,23 @@
       <c r="E336" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G336">
+        <v>231</v>
+      </c>
+      <c r="H336">
+        <v>19.5</v>
+      </c>
+      <c r="I336">
+        <v>24.8</v>
+      </c>
+      <c r="J336">
+        <v>16</v>
+      </c>
+      <c r="K336">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -8396,8 +11353,23 @@
       <c r="E337" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G337">
+        <v>231</v>
+      </c>
+      <c r="H337">
+        <v>35.5</v>
+      </c>
+      <c r="I337">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J337">
+        <v>35.9</v>
+      </c>
+      <c r="K337">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -8413,8 +11385,23 @@
       <c r="E338" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G338">
+        <v>231</v>
+      </c>
+      <c r="H338">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I338">
+        <v>28</v>
+      </c>
+      <c r="J338">
+        <v>31.2</v>
+      </c>
+      <c r="K338">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -8430,8 +11417,23 @@
       <c r="E339" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G339">
+        <v>231</v>
+      </c>
+      <c r="H339">
+        <v>32</v>
+      </c>
+      <c r="I339">
+        <v>32.1</v>
+      </c>
+      <c r="J339">
+        <v>30</v>
+      </c>
+      <c r="K339">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -8447,8 +11449,23 @@
       <c r="E340" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G340">
+        <v>231</v>
+      </c>
+      <c r="H340">
+        <v>17.7</v>
+      </c>
+      <c r="I340">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J340">
+        <v>22.4</v>
+      </c>
+      <c r="K340">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -8464,8 +11481,23 @@
       <c r="E341" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G341">
+        <v>231</v>
+      </c>
+      <c r="H341">
+        <v>22.1</v>
+      </c>
+      <c r="I341">
+        <v>21.4</v>
+      </c>
+      <c r="J341">
+        <v>23</v>
+      </c>
+      <c r="K341">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -8481,8 +11513,23 @@
       <c r="E342" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G342">
+        <v>231</v>
+      </c>
+      <c r="H342">
+        <v>23.6</v>
+      </c>
+      <c r="I342">
+        <v>21.5</v>
+      </c>
+      <c r="J342">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K342">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -8498,8 +11545,23 @@
       <c r="E343" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G343">
+        <v>231</v>
+      </c>
+      <c r="H343">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I343">
+        <v>25.5</v>
+      </c>
+      <c r="J343">
+        <v>23</v>
+      </c>
+      <c r="K343">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -8515,8 +11577,23 @@
       <c r="E344" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G344">
+        <v>231</v>
+      </c>
+      <c r="H344">
+        <v>23.3</v>
+      </c>
+      <c r="I344">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J344">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K344">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -8532,8 +11609,23 @@
       <c r="E345" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G345">
+        <v>231</v>
+      </c>
+      <c r="H345">
+        <v>22.7</v>
+      </c>
+      <c r="I345">
+        <v>19.7</v>
+      </c>
+      <c r="J345">
+        <v>19</v>
+      </c>
+      <c r="K345">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -8549,8 +11641,23 @@
       <c r="E346" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G346">
+        <v>231</v>
+      </c>
+      <c r="H346">
+        <v>21.6</v>
+      </c>
+      <c r="I346">
+        <v>21.7</v>
+      </c>
+      <c r="J346">
+        <v>20.5</v>
+      </c>
+      <c r="K346">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -8566,8 +11673,23 @@
       <c r="E347" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G347">
+        <v>231</v>
+      </c>
+      <c r="H347">
+        <v>21.9</v>
+      </c>
+      <c r="I347">
+        <v>25.6</v>
+      </c>
+      <c r="J347">
+        <v>20.7</v>
+      </c>
+      <c r="K347">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -8583,8 +11705,11 @@
       <c r="E348" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G348">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>369</v>
       </c>
@@ -8600,8 +11725,11 @@
       <c r="E349" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G349">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>370</v>
       </c>
@@ -8617,8 +11745,11 @@
       <c r="E350" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G350">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>371</v>
       </c>
@@ -8634,8 +11765,11 @@
       <c r="E351" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G351">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>372</v>
       </c>
@@ -8651,8 +11785,11 @@
       <c r="E352" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G352">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>373</v>
       </c>
@@ -8668,8 +11805,11 @@
       <c r="E353" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G353">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>374</v>
       </c>
@@ -8685,8 +11825,11 @@
       <c r="E354" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G354">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>375</v>
       </c>
@@ -8702,8 +11845,11 @@
       <c r="E355" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G355">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>376</v>
       </c>
@@ -8719,8 +11865,11 @@
       <c r="E356" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G356">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>377</v>
       </c>
@@ -8736,8 +11885,11 @@
       <c r="E357" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G357">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -8753,8 +11905,11 @@
       <c r="E358" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G358">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -8770,8 +11925,11 @@
       <c r="E359" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G359">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -8787,8 +11945,11 @@
       <c r="E360" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G360">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -8804,8 +11965,11 @@
       <c r="E361" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G361">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -8821,8 +11985,11 @@
       <c r="E362" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G362">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -8838,8 +12005,11 @@
       <c r="E363" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G363">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -8855,8 +12025,11 @@
       <c r="E364" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G364">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -8872,8 +12045,11 @@
       <c r="E365" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G365">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -8889,8 +12065,11 @@
       <c r="E366" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G366">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -8906,8 +12085,11 @@
       <c r="E367" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G367">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -8923,8 +12105,11 @@
       <c r="E368" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G368">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -8940,8 +12125,11 @@
       <c r="E369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G369">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -8957,8 +12145,11 @@
       <c r="E370" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G370">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -8974,8 +12165,11 @@
       <c r="E371" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G371">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -8991,8 +12185,11 @@
       <c r="E372" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G372">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -9008,8 +12205,11 @@
       <c r="E373" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G373">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -9025,8 +12225,11 @@
       <c r="E374" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G374">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -9042,8 +12245,11 @@
       <c r="E375" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G375">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -9059,8 +12265,11 @@
       <c r="E376" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G376">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -9076,8 +12285,11 @@
       <c r="E377" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G377">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -9093,8 +12305,11 @@
       <c r="E378" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G378">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -9110,8 +12325,11 @@
       <c r="E379" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G379">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -9127,8 +12345,11 @@
       <c r="E380" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G380">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -9144,8 +12365,11 @@
       <c r="E381" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G381">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -9161,8 +12385,11 @@
       <c r="E382" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G382">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -9178,8 +12405,11 @@
       <c r="E383" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G383">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -9195,8 +12425,11 @@
       <c r="E384" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G384">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -9212,8 +12445,11 @@
       <c r="E385" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G385">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -9229,8 +12465,11 @@
       <c r="E386" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G386">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -9246,8 +12485,11 @@
       <c r="E387" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G387">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -9263,8 +12505,11 @@
       <c r="E388" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G388">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -9280,8 +12525,11 @@
       <c r="E389" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G389">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -9297,8 +12545,11 @@
       <c r="E390" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G390">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -9314,8 +12565,11 @@
       <c r="E391" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G391">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -9331,8 +12585,11 @@
       <c r="E392" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G392">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -9348,8 +12605,11 @@
       <c r="E393" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G393">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -9365,8 +12625,11 @@
       <c r="E394" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G394">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -9382,8 +12645,11 @@
       <c r="E395" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G395">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -9399,8 +12665,11 @@
       <c r="E396" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G396">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -9416,8 +12685,11 @@
       <c r="E397" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G397">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -9433,8 +12705,11 @@
       <c r="E398" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G398">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -9450,8 +12725,11 @@
       <c r="E399" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G399">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -9467,8 +12745,11 @@
       <c r="E400" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G400">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -9484,8 +12765,11 @@
       <c r="E401" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G401">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -9501,8 +12785,11 @@
       <c r="E402" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G402">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -9518,8 +12805,11 @@
       <c r="E403" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G403">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -9535,8 +12825,11 @@
       <c r="E404" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G404">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -9552,8 +12845,11 @@
       <c r="E405" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G405">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -9569,8 +12865,11 @@
       <c r="E406" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G406">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -9586,8 +12885,11 @@
       <c r="E407" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G407">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -9603,8 +12905,11 @@
       <c r="E408" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G408">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -9620,8 +12925,11 @@
       <c r="E409" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G409">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -9637,8 +12945,11 @@
       <c r="E410" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G410">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -9654,8 +12965,11 @@
       <c r="E411" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G411">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -9671,8 +12985,11 @@
       <c r="E412" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G412">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -9688,8 +13005,11 @@
       <c r="E413" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G413">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -9705,8 +13025,11 @@
       <c r="E414" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G414">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -9722,8 +13045,11 @@
       <c r="E415" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G415">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -9739,8 +13065,11 @@
       <c r="E416" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G416">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -9756,8 +13085,11 @@
       <c r="E417" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G417">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -9773,8 +13105,11 @@
       <c r="E418" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G418">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -9790,8 +13125,11 @@
       <c r="E419" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G419">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -9807,8 +13145,11 @@
       <c r="E420" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G420">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -9824,8 +13165,11 @@
       <c r="E421" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G421">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -9841,8 +13185,11 @@
       <c r="E422" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G422">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -9858,8 +13205,11 @@
       <c r="E423" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G423">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -9875,8 +13225,11 @@
       <c r="E424" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G424">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -9892,8 +13245,11 @@
       <c r="E425" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G425">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -9909,8 +13265,11 @@
       <c r="E426" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G426">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -9926,8 +13285,11 @@
       <c r="E427" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G427">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -9943,8 +13305,11 @@
       <c r="E428" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G428">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -9960,8 +13325,11 @@
       <c r="E429" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G429">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -9977,8 +13345,11 @@
       <c r="E430" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G430">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -9994,8 +13365,11 @@
       <c r="E431" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G431">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -10011,8 +13385,11 @@
       <c r="E432" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G432">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -10028,8 +13405,11 @@
       <c r="E433" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G433">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -10045,8 +13425,11 @@
       <c r="E434" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G434">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -10062,8 +13445,11 @@
       <c r="E435" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G435">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -10079,8 +13465,11 @@
       <c r="E436" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G436">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -10095,6 +13484,9 @@
       </c>
       <c r="E437" t="s">
         <v>368</v>
+      </c>
+      <c r="G437">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitoringPhenology/2025Senescence.xlsx
+++ b/data/monitoringPhenology/2025Senescence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756FD79-0FB5-6A43-80FC-A4D235175E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27623966-AB79-BE41-B23E-CB8E92587A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33680" yWindow="-1980" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="466">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1434,9 +1434,6 @@
   </si>
   <si>
     <t>lastleavesfell</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>only 4 leaves, very small</t>
@@ -1931,9 +1928,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2182,7 +2178,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2296,18 +2292,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:M437" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:M437" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="betula"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M437" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="11"/>
@@ -2647,9 +2632,9 @@
   <dimension ref="A1:M437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="K166" sqref="K166"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2687,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2718,11 +2703,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2738,11 +2720,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2758,11 +2737,8 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2778,11 +2754,8 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2798,11 +2771,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="G6">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2818,11 +2788,8 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2838,11 +2805,8 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2858,11 +2822,8 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="G9">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2878,11 +2839,8 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2898,11 +2856,8 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2918,11 +2873,8 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="G12">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2938,11 +2890,8 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2958,11 +2907,8 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="G14">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2978,11 +2924,8 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="G15">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2998,11 +2941,8 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="G16">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3018,11 +2958,8 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="G17">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3038,11 +2975,8 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="G18">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3058,11 +2992,8 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="G19">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3078,11 +3009,8 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="G20">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3098,11 +3026,8 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="G21">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3118,11 +3043,8 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G22">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3138,11 +3060,8 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="G23">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3158,11 +3077,8 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="G24">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3178,11 +3094,8 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="G25">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3198,11 +3111,8 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="G26">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3218,11 +3128,8 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="G27">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3238,11 +3145,8 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="G28">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3258,11 +3162,8 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="G29">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3278,11 +3179,8 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="G30">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3298,11 +3196,8 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="G31">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3318,11 +3213,8 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="G32">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3338,11 +3230,8 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="G33">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3358,11 +3247,8 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="G34">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3378,11 +3264,8 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="G35">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3398,11 +3281,8 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="G36">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3418,11 +3298,8 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="G37">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3438,11 +3315,8 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="G38">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3458,11 +3332,8 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="G39">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3478,11 +3349,8 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="G40">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3498,11 +3366,8 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="G41">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3518,11 +3383,8 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="G42">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3538,11 +3400,8 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="G43">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3558,11 +3417,8 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="G44">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3578,11 +3434,8 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="G45">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3598,11 +3451,8 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="G46">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3618,11 +3468,8 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="G47">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3638,11 +3485,8 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="G48">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3658,11 +3502,8 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="G49">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3678,11 +3519,8 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="G50">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3698,11 +3536,8 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="G51">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3718,11 +3553,8 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="G52">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3738,11 +3570,8 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="G53">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3758,11 +3587,8 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="G54">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3778,11 +3604,8 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="G55">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3798,11 +3621,8 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="G56">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3818,11 +3638,8 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="G57">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3838,11 +3655,8 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="G58">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3858,11 +3672,8 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="G59">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3878,11 +3689,8 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="G60">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3898,11 +3706,8 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="G61">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3918,11 +3723,8 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="G62">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3938,11 +3740,8 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="G63">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3958,11 +3757,8 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="G64">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3978,11 +3774,8 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="G65">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3998,11 +3791,8 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="G66">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4018,11 +3808,8 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="G67">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4038,11 +3825,8 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="G68">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4058,11 +3842,8 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="G69">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4078,11 +3859,8 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="G70">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4098,11 +3876,8 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="G71">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4118,11 +3893,8 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="G72">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4138,11 +3910,8 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-      <c r="G73">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4158,11 +3927,8 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="G74">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4178,11 +3944,8 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-      <c r="G75">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4198,11 +3961,8 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-      <c r="G76">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4218,11 +3978,8 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="G77">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4238,11 +3995,8 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-      <c r="G78">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4258,11 +4012,8 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="G79">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4278,11 +4029,8 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="G80">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4298,11 +4046,8 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="G81">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4318,11 +4063,8 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="G82">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4338,11 +4080,8 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="G83">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4358,11 +4097,8 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="G84">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4378,11 +4114,8 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-      <c r="G85">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4398,11 +4131,8 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="G86">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -4418,11 +4148,8 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="G87">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -4438,11 +4165,8 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="G88">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -4458,11 +4182,8 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="G89">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -4478,11 +4199,8 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-      <c r="G90">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4498,11 +4216,8 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-      <c r="G91">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4518,23 +4233,8 @@
       <c r="E92" t="s">
         <v>106</v>
       </c>
-      <c r="G92">
-        <v>231</v>
-      </c>
-      <c r="H92">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="I92">
-        <v>16.8</v>
-      </c>
-      <c r="J92">
-        <v>16.5</v>
-      </c>
-      <c r="K92">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4550,23 +4250,8 @@
       <c r="E93" t="s">
         <v>106</v>
       </c>
-      <c r="G93">
-        <v>231</v>
-      </c>
-      <c r="H93">
-        <v>20.7</v>
-      </c>
-      <c r="I93">
-        <v>23.9</v>
-      </c>
-      <c r="J93">
-        <v>32.4</v>
-      </c>
-      <c r="K93">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4582,23 +4267,8 @@
       <c r="E94" t="s">
         <v>106</v>
       </c>
-      <c r="G94">
-        <v>231</v>
-      </c>
-      <c r="H94">
-        <v>19.5</v>
-      </c>
-      <c r="I94">
-        <v>20.7</v>
-      </c>
-      <c r="J94">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="K94">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4614,23 +4284,8 @@
       <c r="E95" t="s">
         <v>106</v>
       </c>
-      <c r="G95">
-        <v>231</v>
-      </c>
-      <c r="H95">
-        <v>28.9</v>
-      </c>
-      <c r="I95">
-        <v>21</v>
-      </c>
-      <c r="J95">
-        <v>23.4</v>
-      </c>
-      <c r="K95">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4646,23 +4301,8 @@
       <c r="E96" t="s">
         <v>106</v>
       </c>
-      <c r="G96">
-        <v>231</v>
-      </c>
-      <c r="H96">
-        <v>21.9</v>
-      </c>
-      <c r="I96">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="J96">
-        <v>42.5</v>
-      </c>
-      <c r="K96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4678,23 +4318,8 @@
       <c r="E97" t="s">
         <v>106</v>
       </c>
-      <c r="G97">
-        <v>231</v>
-      </c>
-      <c r="H97">
-        <v>23.7</v>
-      </c>
-      <c r="I97">
-        <v>26.6</v>
-      </c>
-      <c r="J97">
-        <v>21</v>
-      </c>
-      <c r="K97">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4710,23 +4335,8 @@
       <c r="E98" t="s">
         <v>106</v>
       </c>
-      <c r="G98">
-        <v>231</v>
-      </c>
-      <c r="H98">
-        <v>23.8</v>
-      </c>
-      <c r="I98">
-        <v>17.3</v>
-      </c>
-      <c r="J98">
-        <v>30.9</v>
-      </c>
-      <c r="K98">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4742,23 +4352,8 @@
       <c r="E99" t="s">
         <v>106</v>
       </c>
-      <c r="G99">
-        <v>231</v>
-      </c>
-      <c r="H99">
-        <v>21.7</v>
-      </c>
-      <c r="I99">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="J99">
-        <v>27.2</v>
-      </c>
-      <c r="K99">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4774,23 +4369,8 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-      <c r="G100">
-        <v>231</v>
-      </c>
-      <c r="H100">
-        <v>28</v>
-      </c>
-      <c r="I100">
-        <v>33.6</v>
-      </c>
-      <c r="J100">
-        <v>28.1</v>
-      </c>
-      <c r="K100">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4806,23 +4386,8 @@
       <c r="E101" t="s">
         <v>106</v>
       </c>
-      <c r="G101">
-        <v>231</v>
-      </c>
-      <c r="H101">
-        <v>29.9</v>
-      </c>
-      <c r="I101">
-        <v>23.8</v>
-      </c>
-      <c r="J101">
-        <v>32.5</v>
-      </c>
-      <c r="K101">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4838,23 +4403,8 @@
       <c r="E102" t="s">
         <v>106</v>
       </c>
-      <c r="G102">
-        <v>231</v>
-      </c>
-      <c r="H102" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I102" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="J102" s="1">
-        <v>23.7</v>
-      </c>
-      <c r="K102" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4870,23 +4420,8 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-      <c r="G103">
-        <v>231</v>
-      </c>
-      <c r="H103" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="I103" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="J103" s="1">
-        <v>22.9</v>
-      </c>
-      <c r="K103" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4902,23 +4437,8 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-      <c r="G104">
-        <v>231</v>
-      </c>
-      <c r="H104" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="I104" s="1">
-        <v>24.8</v>
-      </c>
-      <c r="J104" s="1">
-        <v>34</v>
-      </c>
-      <c r="K104" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -4934,23 +4454,8 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-      <c r="G105">
-        <v>231</v>
-      </c>
-      <c r="H105" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="I105" s="1">
-        <v>24</v>
-      </c>
-      <c r="J105" s="1">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="K105" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -4966,23 +4471,8 @@
       <c r="E106" t="s">
         <v>106</v>
       </c>
-      <c r="G106">
-        <v>231</v>
-      </c>
-      <c r="H106" s="1">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="I106" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="J106" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="K106" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -4998,23 +4488,8 @@
       <c r="E107" t="s">
         <v>106</v>
       </c>
-      <c r="G107">
-        <v>231</v>
-      </c>
-      <c r="H107">
-        <v>14.5</v>
-      </c>
-      <c r="I107">
-        <v>22.7</v>
-      </c>
-      <c r="J107">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="K107">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -5030,23 +4505,8 @@
       <c r="E108" t="s">
         <v>106</v>
       </c>
-      <c r="G108">
-        <v>231</v>
-      </c>
-      <c r="H108">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I108">
-        <v>20.2</v>
-      </c>
-      <c r="J108">
-        <v>33.1</v>
-      </c>
-      <c r="K108">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -5062,23 +4522,8 @@
       <c r="E109" t="s">
         <v>106</v>
       </c>
-      <c r="G109">
-        <v>231</v>
-      </c>
-      <c r="H109">
-        <v>17</v>
-      </c>
-      <c r="I109">
-        <v>17.8</v>
-      </c>
-      <c r="J109">
-        <v>31.4</v>
-      </c>
-      <c r="K109">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -5094,23 +4539,8 @@
       <c r="E110" t="s">
         <v>106</v>
       </c>
-      <c r="G110">
-        <v>231</v>
-      </c>
-      <c r="H110">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="I110">
-        <v>28.3</v>
-      </c>
-      <c r="J110">
-        <v>24.4</v>
-      </c>
-      <c r="K110">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -5126,23 +4556,8 @@
       <c r="E111" t="s">
         <v>106</v>
       </c>
-      <c r="G111">
-        <v>231</v>
-      </c>
-      <c r="H111">
-        <v>12</v>
-      </c>
-      <c r="I111">
-        <v>12.4</v>
-      </c>
-      <c r="J111">
-        <v>13.9</v>
-      </c>
-      <c r="K111">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -5158,23 +4573,8 @@
       <c r="E112" t="s">
         <v>106</v>
       </c>
-      <c r="G112">
-        <v>231</v>
-      </c>
-      <c r="H112">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I112">
-        <v>15.2</v>
-      </c>
-      <c r="J112">
-        <v>20.7</v>
-      </c>
-      <c r="K112">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -5190,23 +4590,8 @@
       <c r="E113" t="s">
         <v>106</v>
       </c>
-      <c r="G113">
-        <v>231</v>
-      </c>
-      <c r="H113">
-        <v>29.2</v>
-      </c>
-      <c r="I113">
-        <v>28.4</v>
-      </c>
-      <c r="J113">
-        <v>29.7</v>
-      </c>
-      <c r="K113">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -5222,23 +4607,8 @@
       <c r="E114" t="s">
         <v>106</v>
       </c>
-      <c r="G114">
-        <v>231</v>
-      </c>
-      <c r="H114">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I114">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="J114">
-        <v>16</v>
-      </c>
-      <c r="K114">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -5254,23 +4624,8 @@
       <c r="E115" t="s">
         <v>106</v>
       </c>
-      <c r="G115">
-        <v>231</v>
-      </c>
-      <c r="H115">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="I115">
-        <v>29.9</v>
-      </c>
-      <c r="J115">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K115">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5286,23 +4641,8 @@
       <c r="E116" t="s">
         <v>106</v>
       </c>
-      <c r="G116">
-        <v>231</v>
-      </c>
-      <c r="H116">
-        <v>26</v>
-      </c>
-      <c r="I116">
-        <v>20.5</v>
-      </c>
-      <c r="J116">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="K116">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -5318,23 +4658,8 @@
       <c r="E117" t="s">
         <v>106</v>
       </c>
-      <c r="G117">
-        <v>231</v>
-      </c>
-      <c r="H117">
-        <v>25.9</v>
-      </c>
-      <c r="I117">
-        <v>20.8</v>
-      </c>
-      <c r="J117">
-        <v>26.1</v>
-      </c>
-      <c r="K117">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -5350,23 +4675,8 @@
       <c r="E118" t="s">
         <v>106</v>
       </c>
-      <c r="G118">
-        <v>231</v>
-      </c>
-      <c r="H118">
-        <v>20.7</v>
-      </c>
-      <c r="I118">
-        <v>23.7</v>
-      </c>
-      <c r="J118">
-        <v>38.9</v>
-      </c>
-      <c r="K118">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -5382,23 +4692,8 @@
       <c r="E119" t="s">
         <v>106</v>
       </c>
-      <c r="G119">
-        <v>231</v>
-      </c>
-      <c r="H119">
-        <v>24.8</v>
-      </c>
-      <c r="I119">
-        <v>22</v>
-      </c>
-      <c r="J119">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="K119">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -5414,23 +4709,8 @@
       <c r="E120" t="s">
         <v>106</v>
       </c>
-      <c r="G120">
-        <v>231</v>
-      </c>
-      <c r="H120">
-        <v>22.4</v>
-      </c>
-      <c r="I120">
-        <v>25.2</v>
-      </c>
-      <c r="J120">
-        <v>43</v>
-      </c>
-      <c r="K120">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -5446,23 +4726,8 @@
       <c r="E121" t="s">
         <v>106</v>
       </c>
-      <c r="G121">
-        <v>231</v>
-      </c>
-      <c r="H121">
-        <v>23.1</v>
-      </c>
-      <c r="I121">
-        <v>25.7</v>
-      </c>
-      <c r="J121">
-        <v>17</v>
-      </c>
-      <c r="K121">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -5478,23 +4743,8 @@
       <c r="E122" t="s">
         <v>106</v>
       </c>
-      <c r="G122">
-        <v>231</v>
-      </c>
-      <c r="H122">
-        <v>22.5</v>
-      </c>
-      <c r="I122">
-        <v>35.9</v>
-      </c>
-      <c r="J122">
-        <v>17.2</v>
-      </c>
-      <c r="K122">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -5510,23 +4760,8 @@
       <c r="E123" t="s">
         <v>106</v>
       </c>
-      <c r="G123">
-        <v>231</v>
-      </c>
-      <c r="H123">
-        <v>15.6</v>
-      </c>
-      <c r="I123">
-        <v>15.3</v>
-      </c>
-      <c r="J123">
-        <v>25.3</v>
-      </c>
-      <c r="K123">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -5542,23 +4777,8 @@
       <c r="E124" t="s">
         <v>106</v>
       </c>
-      <c r="G124">
-        <v>231</v>
-      </c>
-      <c r="H124">
-        <v>18.3</v>
-      </c>
-      <c r="I124">
-        <v>23.1</v>
-      </c>
-      <c r="J124">
-        <v>26.6</v>
-      </c>
-      <c r="K124">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -5574,23 +4794,8 @@
       <c r="E125" t="s">
         <v>106</v>
       </c>
-      <c r="G125">
-        <v>231</v>
-      </c>
-      <c r="H125">
-        <v>18.3</v>
-      </c>
-      <c r="I125">
-        <v>17.3</v>
-      </c>
-      <c r="J125">
-        <v>32</v>
-      </c>
-      <c r="K125">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -5606,23 +4811,8 @@
       <c r="E126" t="s">
         <v>106</v>
       </c>
-      <c r="G126">
-        <v>231</v>
-      </c>
-      <c r="H126">
-        <v>28.2</v>
-      </c>
-      <c r="I126">
-        <v>20.5</v>
-      </c>
-      <c r="J126">
-        <v>38.9</v>
-      </c>
-      <c r="K126">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -5638,23 +4828,8 @@
       <c r="E127" t="s">
         <v>106</v>
       </c>
-      <c r="G127">
-        <v>231</v>
-      </c>
-      <c r="H127">
-        <v>23.5</v>
-      </c>
-      <c r="I127">
-        <v>30.5</v>
-      </c>
-      <c r="J127">
-        <v>22.1</v>
-      </c>
-      <c r="K127">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -5670,23 +4845,8 @@
       <c r="E128" t="s">
         <v>106</v>
       </c>
-      <c r="G128">
-        <v>231</v>
-      </c>
-      <c r="H128">
-        <v>22.2</v>
-      </c>
-      <c r="I128">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="J128">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="K128">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -5702,23 +4862,8 @@
       <c r="E129" t="s">
         <v>106</v>
       </c>
-      <c r="G129">
-        <v>231</v>
-      </c>
-      <c r="H129">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I129">
-        <v>33.4</v>
-      </c>
-      <c r="J129">
-        <v>17</v>
-      </c>
-      <c r="K129">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5734,23 +4879,8 @@
       <c r="E130" t="s">
         <v>106</v>
       </c>
-      <c r="G130">
-        <v>231</v>
-      </c>
-      <c r="H130">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I130">
-        <v>19</v>
-      </c>
-      <c r="J130">
-        <v>20.8</v>
-      </c>
-      <c r="K130">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -5766,23 +4896,8 @@
       <c r="E131" t="s">
         <v>106</v>
       </c>
-      <c r="G131">
-        <v>231</v>
-      </c>
-      <c r="H131">
-        <v>31.9</v>
-      </c>
-      <c r="I131">
-        <v>31.7</v>
-      </c>
-      <c r="J131">
-        <v>18.7</v>
-      </c>
-      <c r="K131">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -5798,23 +4913,8 @@
       <c r="E132" t="s">
         <v>106</v>
       </c>
-      <c r="G132">
-        <v>231</v>
-      </c>
-      <c r="H132">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="I132">
-        <v>19</v>
-      </c>
-      <c r="J132">
-        <v>38.6</v>
-      </c>
-      <c r="K132">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -5830,23 +4930,8 @@
       <c r="E133" t="s">
         <v>106</v>
       </c>
-      <c r="G133">
-        <v>231</v>
-      </c>
-      <c r="H133">
-        <v>37.6</v>
-      </c>
-      <c r="I133">
-        <v>30</v>
-      </c>
-      <c r="J133">
-        <v>36.9</v>
-      </c>
-      <c r="K133">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -5862,23 +4947,8 @@
       <c r="E134" t="s">
         <v>106</v>
       </c>
-      <c r="G134">
-        <v>231</v>
-      </c>
-      <c r="H134">
-        <v>44.1</v>
-      </c>
-      <c r="I134">
-        <v>20</v>
-      </c>
-      <c r="J134">
-        <v>20.3</v>
-      </c>
-      <c r="K134">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -5894,23 +4964,8 @@
       <c r="E135" t="s">
         <v>106</v>
       </c>
-      <c r="G135">
-        <v>231</v>
-      </c>
-      <c r="H135">
-        <v>32.5</v>
-      </c>
-      <c r="I135">
-        <v>32.5</v>
-      </c>
-      <c r="J135">
-        <v>27.6</v>
-      </c>
-      <c r="K135">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -5926,23 +4981,8 @@
       <c r="E136" t="s">
         <v>106</v>
       </c>
-      <c r="G136">
-        <v>231</v>
-      </c>
-      <c r="H136">
-        <v>19</v>
-      </c>
-      <c r="I136">
-        <v>18.8</v>
-      </c>
-      <c r="J136">
-        <v>32.6</v>
-      </c>
-      <c r="K136">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -5958,23 +4998,8 @@
       <c r="E137" t="s">
         <v>106</v>
       </c>
-      <c r="G137">
-        <v>231</v>
-      </c>
-      <c r="H137">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I137">
-        <v>13.3</v>
-      </c>
-      <c r="J137">
-        <v>31.7</v>
-      </c>
-      <c r="K137">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -5990,23 +5015,8 @@
       <c r="E138" t="s">
         <v>106</v>
       </c>
-      <c r="G138">
-        <v>231</v>
-      </c>
-      <c r="H138">
-        <v>14</v>
-      </c>
-      <c r="I138">
-        <v>15.8</v>
-      </c>
-      <c r="J138">
-        <v>30.6</v>
-      </c>
-      <c r="K138">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -6022,23 +5032,8 @@
       <c r="E139" t="s">
         <v>106</v>
       </c>
-      <c r="G139">
-        <v>231</v>
-      </c>
-      <c r="H139">
-        <v>10.1</v>
-      </c>
-      <c r="I139">
-        <v>22.5</v>
-      </c>
-      <c r="J139">
-        <v>30.6</v>
-      </c>
-      <c r="K139">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -6054,23 +5049,8 @@
       <c r="E140" t="s">
         <v>106</v>
       </c>
-      <c r="G140">
-        <v>231</v>
-      </c>
-      <c r="H140">
-        <v>19.7</v>
-      </c>
-      <c r="I140">
-        <v>20.8</v>
-      </c>
-      <c r="J140">
-        <v>24.8</v>
-      </c>
-      <c r="K140">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -6086,23 +5066,8 @@
       <c r="E141" t="s">
         <v>106</v>
       </c>
-      <c r="G141">
-        <v>231</v>
-      </c>
-      <c r="H141">
-        <v>18.8</v>
-      </c>
-      <c r="I141">
-        <v>21.5</v>
-      </c>
-      <c r="J141">
-        <v>26</v>
-      </c>
-      <c r="K141">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -6118,23 +5083,8 @@
       <c r="E142" t="s">
         <v>106</v>
       </c>
-      <c r="G142">
-        <v>231</v>
-      </c>
-      <c r="H142" s="1">
-        <v>26.2</v>
-      </c>
-      <c r="I142" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="J142" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="K142" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -6150,23 +5100,8 @@
       <c r="E143" t="s">
         <v>106</v>
       </c>
-      <c r="G143">
-        <v>231</v>
-      </c>
-      <c r="H143" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="I143" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="J143" s="1">
-        <v>23.7</v>
-      </c>
-      <c r="K143" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6182,23 +5117,8 @@
       <c r="E144" t="s">
         <v>106</v>
       </c>
-      <c r="G144">
-        <v>231</v>
-      </c>
-      <c r="H144" s="1">
-        <v>21.4</v>
-      </c>
-      <c r="I144" s="1">
-        <v>22.9</v>
-      </c>
-      <c r="J144" s="1">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="K144" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -6214,23 +5134,8 @@
       <c r="E145" t="s">
         <v>106</v>
       </c>
-      <c r="G145">
-        <v>231</v>
-      </c>
-      <c r="H145" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="I145" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="J145" s="1">
-        <v>38.6</v>
-      </c>
-      <c r="K145" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -6246,23 +5151,8 @@
       <c r="E146" t="s">
         <v>106</v>
       </c>
-      <c r="G146">
-        <v>231</v>
-      </c>
-      <c r="H146" s="1">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="I146" s="1">
-        <v>29.2</v>
-      </c>
-      <c r="J146" s="1">
-        <v>38.5</v>
-      </c>
-      <c r="K146" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -6278,23 +5168,8 @@
       <c r="E147" t="s">
         <v>106</v>
       </c>
-      <c r="G147">
-        <v>231</v>
-      </c>
-      <c r="H147">
-        <v>21.5</v>
-      </c>
-      <c r="I147">
-        <v>21.3</v>
-      </c>
-      <c r="J147">
-        <v>45.6</v>
-      </c>
-      <c r="K147">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -6310,23 +5185,8 @@
       <c r="E148" t="s">
         <v>106</v>
       </c>
-      <c r="G148">
-        <v>231</v>
-      </c>
-      <c r="H148">
-        <v>28.4</v>
-      </c>
-      <c r="I148">
-        <v>36</v>
-      </c>
-      <c r="J148">
-        <v>27.4</v>
-      </c>
-      <c r="K148">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -6342,23 +5202,8 @@
       <c r="E149" t="s">
         <v>106</v>
       </c>
-      <c r="G149">
-        <v>231</v>
-      </c>
-      <c r="H149">
-        <v>20.9</v>
-      </c>
-      <c r="I149">
-        <v>23.6</v>
-      </c>
-      <c r="J149">
-        <v>32.1</v>
-      </c>
-      <c r="K149">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -6374,23 +5219,8 @@
       <c r="E150" t="s">
         <v>106</v>
       </c>
-      <c r="G150">
-        <v>231</v>
-      </c>
-      <c r="H150">
-        <v>10</v>
-      </c>
-      <c r="I150">
-        <v>24.8</v>
-      </c>
-      <c r="J150">
-        <v>31.9</v>
-      </c>
-      <c r="K150">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -6406,23 +5236,8 @@
       <c r="E151" t="s">
         <v>106</v>
       </c>
-      <c r="G151">
-        <v>231</v>
-      </c>
-      <c r="H151">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="I151">
-        <v>22.8</v>
-      </c>
-      <c r="J151">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="K151">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -6438,23 +5253,8 @@
       <c r="E152" t="s">
         <v>106</v>
       </c>
-      <c r="G152">
-        <v>231</v>
-      </c>
-      <c r="H152">
-        <v>21.6</v>
-      </c>
-      <c r="I152">
-        <v>24.1</v>
-      </c>
-      <c r="J152">
-        <v>32.4</v>
-      </c>
-      <c r="K152">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -6470,23 +5270,8 @@
       <c r="E153" t="s">
         <v>106</v>
       </c>
-      <c r="G153">
-        <v>231</v>
-      </c>
-      <c r="H153">
-        <v>23.2</v>
-      </c>
-      <c r="I153">
-        <v>24.3</v>
-      </c>
-      <c r="J153">
-        <v>31.7</v>
-      </c>
-      <c r="K153">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -6502,23 +5287,8 @@
       <c r="E154" t="s">
         <v>106</v>
       </c>
-      <c r="G154">
-        <v>231</v>
-      </c>
-      <c r="H154">
-        <v>10.1</v>
-      </c>
-      <c r="I154">
-        <v>14.1</v>
-      </c>
-      <c r="J154">
-        <v>33.6</v>
-      </c>
-      <c r="K154">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -6534,23 +5304,8 @@
       <c r="E155" t="s">
         <v>106</v>
       </c>
-      <c r="G155">
-        <v>231</v>
-      </c>
-      <c r="H155">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I155">
-        <v>21.9</v>
-      </c>
-      <c r="J155">
-        <v>34</v>
-      </c>
-      <c r="K155">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -6566,23 +5321,8 @@
       <c r="E156" t="s">
         <v>106</v>
       </c>
-      <c r="G156">
-        <v>231</v>
-      </c>
-      <c r="H156">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I156">
-        <v>21.4</v>
-      </c>
-      <c r="J156">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K156">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -6598,23 +5338,8 @@
       <c r="E157" t="s">
         <v>106</v>
       </c>
-      <c r="G157">
-        <v>231</v>
-      </c>
-      <c r="H157">
-        <v>25.1</v>
-      </c>
-      <c r="I157">
-        <v>21.7</v>
-      </c>
-      <c r="J157">
-        <v>35.6</v>
-      </c>
-      <c r="K157">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -6630,23 +5355,8 @@
       <c r="E158" t="s">
         <v>106</v>
       </c>
-      <c r="G158">
-        <v>231</v>
-      </c>
-      <c r="H158">
-        <v>22.5</v>
-      </c>
-      <c r="I158">
-        <v>24.3</v>
-      </c>
-      <c r="J158">
-        <v>34.1</v>
-      </c>
-      <c r="K158">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -6662,23 +5372,8 @@
       <c r="E159" t="s">
         <v>106</v>
       </c>
-      <c r="G159">
-        <v>231</v>
-      </c>
-      <c r="H159">
-        <v>21.8</v>
-      </c>
-      <c r="I159">
-        <v>22.6</v>
-      </c>
-      <c r="J159">
-        <v>29.8</v>
-      </c>
-      <c r="K159">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -6694,23 +5389,8 @@
       <c r="E160" t="s">
         <v>106</v>
       </c>
-      <c r="G160">
-        <v>231</v>
-      </c>
-      <c r="H160">
-        <v>26.5</v>
-      </c>
-      <c r="I160">
-        <v>22.1</v>
-      </c>
-      <c r="J160">
-        <v>25.1</v>
-      </c>
-      <c r="K160">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -6726,23 +5406,8 @@
       <c r="E161" t="s">
         <v>106</v>
       </c>
-      <c r="G161">
-        <v>231</v>
-      </c>
-      <c r="H161">
-        <v>29.5</v>
-      </c>
-      <c r="I161">
-        <v>25.3</v>
-      </c>
-      <c r="J161">
-        <v>19.3</v>
-      </c>
-      <c r="K161">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -6758,23 +5423,8 @@
       <c r="E162" t="s">
         <v>106</v>
       </c>
-      <c r="G162">
-        <v>231</v>
-      </c>
-      <c r="H162">
-        <v>20.3</v>
-      </c>
-      <c r="I162">
-        <v>30</v>
-      </c>
-      <c r="J162">
-        <v>25.2</v>
-      </c>
-      <c r="K162">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -6790,23 +5440,8 @@
       <c r="E163" t="s">
         <v>106</v>
       </c>
-      <c r="G163">
-        <v>231</v>
-      </c>
-      <c r="H163">
-        <v>39.4</v>
-      </c>
-      <c r="I163">
-        <v>41</v>
-      </c>
-      <c r="J163">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="K163">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -6822,23 +5457,8 @@
       <c r="E164" t="s">
         <v>106</v>
       </c>
-      <c r="G164">
-        <v>231</v>
-      </c>
-      <c r="H164">
-        <v>31.5</v>
-      </c>
-      <c r="I164">
-        <v>26.6</v>
-      </c>
-      <c r="J164">
-        <v>25.1</v>
-      </c>
-      <c r="K164">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -6854,23 +5474,8 @@
       <c r="E165" t="s">
         <v>106</v>
       </c>
-      <c r="G165">
-        <v>231</v>
-      </c>
-      <c r="H165">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="I165">
-        <v>26.2</v>
-      </c>
-      <c r="J165">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="K165">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6886,23 +5491,8 @@
       <c r="E166" t="s">
         <v>106</v>
       </c>
-      <c r="G166">
-        <v>231</v>
-      </c>
-      <c r="H166">
-        <v>31.2</v>
-      </c>
-      <c r="I166">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="J166">
-        <v>26.3</v>
-      </c>
-      <c r="K166">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6918,23 +5508,8 @@
       <c r="E167" t="s">
         <v>106</v>
       </c>
-      <c r="G167">
-        <v>231</v>
-      </c>
-      <c r="H167">
-        <v>17.5</v>
-      </c>
-      <c r="I167">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="J167">
-        <v>19.8</v>
-      </c>
-      <c r="K167">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6950,23 +5525,8 @@
       <c r="E168" t="s">
         <v>106</v>
       </c>
-      <c r="G168">
-        <v>231</v>
-      </c>
-      <c r="H168">
-        <v>28</v>
-      </c>
-      <c r="I168">
-        <v>30.6</v>
-      </c>
-      <c r="J168">
-        <v>27.5</v>
-      </c>
-      <c r="K168">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6982,23 +5542,8 @@
       <c r="E169" t="s">
         <v>106</v>
       </c>
-      <c r="G169">
-        <v>231</v>
-      </c>
-      <c r="H169">
-        <v>10.9</v>
-      </c>
-      <c r="I169">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="J169">
-        <v>22.9</v>
-      </c>
-      <c r="K169">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -7014,23 +5559,8 @@
       <c r="E170" t="s">
         <v>106</v>
       </c>
-      <c r="G170">
-        <v>231</v>
-      </c>
-      <c r="H170">
-        <v>21.5</v>
-      </c>
-      <c r="I170">
-        <v>31.9</v>
-      </c>
-      <c r="J170">
-        <v>29.8</v>
-      </c>
-      <c r="K170">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -7046,23 +5576,8 @@
       <c r="E171" t="s">
         <v>106</v>
       </c>
-      <c r="G171">
-        <v>231</v>
-      </c>
-      <c r="H171">
-        <v>22.6</v>
-      </c>
-      <c r="I171">
-        <v>21.6</v>
-      </c>
-      <c r="J171">
-        <v>25.8</v>
-      </c>
-      <c r="K171">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -7078,23 +5593,8 @@
       <c r="E172" t="s">
         <v>106</v>
       </c>
-      <c r="G172">
-        <v>231</v>
-      </c>
-      <c r="H172">
-        <v>14.1</v>
-      </c>
-      <c r="I172">
-        <v>21.8</v>
-      </c>
-      <c r="J172">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="K172">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -7110,23 +5610,8 @@
       <c r="E173" t="s">
         <v>106</v>
       </c>
-      <c r="G173">
-        <v>231</v>
-      </c>
-      <c r="H173">
-        <v>25.8</v>
-      </c>
-      <c r="I173">
-        <v>27.8</v>
-      </c>
-      <c r="J173">
-        <v>27.2</v>
-      </c>
-      <c r="K173">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -7142,23 +5627,8 @@
       <c r="E174" t="s">
         <v>106</v>
       </c>
-      <c r="G174">
-        <v>231</v>
-      </c>
-      <c r="H174">
-        <v>22.7</v>
-      </c>
-      <c r="I174">
-        <v>19.2</v>
-      </c>
-      <c r="J174">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="K174">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -7174,23 +5644,8 @@
       <c r="E175" t="s">
         <v>106</v>
       </c>
-      <c r="G175">
-        <v>231</v>
-      </c>
-      <c r="H175">
-        <v>19.3</v>
-      </c>
-      <c r="I175">
-        <v>18.5</v>
-      </c>
-      <c r="J175">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K175">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -7206,23 +5661,8 @@
       <c r="E176" t="s">
         <v>106</v>
       </c>
-      <c r="G176">
-        <v>231</v>
-      </c>
-      <c r="H176">
-        <v>24.3</v>
-      </c>
-      <c r="I176">
-        <v>23.9</v>
-      </c>
-      <c r="J176">
-        <v>32.1</v>
-      </c>
-      <c r="K176">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -7238,23 +5678,8 @@
       <c r="E177" t="s">
         <v>106</v>
       </c>
-      <c r="G177">
-        <v>231</v>
-      </c>
-      <c r="H177">
-        <v>24.4</v>
-      </c>
-      <c r="I177">
-        <v>34.4</v>
-      </c>
-      <c r="J177">
-        <v>20.6</v>
-      </c>
-      <c r="K177">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -7270,23 +5695,8 @@
       <c r="E178" t="s">
         <v>106</v>
       </c>
-      <c r="G178">
-        <v>231</v>
-      </c>
-      <c r="H178">
-        <v>37.5</v>
-      </c>
-      <c r="I178">
-        <v>18.7</v>
-      </c>
-      <c r="J178">
-        <v>24</v>
-      </c>
-      <c r="K178">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -7302,23 +5712,8 @@
       <c r="E179" t="s">
         <v>106</v>
       </c>
-      <c r="G179">
-        <v>231</v>
-      </c>
-      <c r="H179">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I179">
-        <v>11.2</v>
-      </c>
-      <c r="J179">
-        <v>23.9</v>
-      </c>
-      <c r="K179">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -7334,23 +5729,8 @@
       <c r="E180" t="s">
         <v>106</v>
       </c>
-      <c r="G180">
-        <v>231</v>
-      </c>
-      <c r="H180">
-        <v>21.5</v>
-      </c>
-      <c r="I180">
-        <v>24.3</v>
-      </c>
-      <c r="J180">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="K180">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -7366,23 +5746,8 @@
       <c r="E181" t="s">
         <v>106</v>
       </c>
-      <c r="G181">
-        <v>231</v>
-      </c>
-      <c r="H181">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="I181">
-        <v>25.5</v>
-      </c>
-      <c r="J181">
-        <v>42.2</v>
-      </c>
-      <c r="K181">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -7398,11 +5763,8 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-      <c r="G182">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -7418,11 +5780,8 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-      <c r="G183">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -7438,11 +5797,8 @@
       <c r="E184" t="s">
         <v>198</v>
       </c>
-      <c r="G184">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -7458,11 +5814,8 @@
       <c r="E185" t="s">
         <v>198</v>
       </c>
-      <c r="G185">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -7478,11 +5831,8 @@
       <c r="E186" t="s">
         <v>198</v>
       </c>
-      <c r="G186">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -7498,11 +5848,8 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-      <c r="G187">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -7518,11 +5865,8 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-      <c r="G188">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -7538,11 +5882,8 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-      <c r="G189">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -7558,11 +5899,8 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-      <c r="G190">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -7578,11 +5916,8 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-      <c r="G191">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -7598,11 +5933,8 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-      <c r="G192">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -7618,11 +5950,8 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-      <c r="G193">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -7638,11 +5967,8 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-      <c r="G194">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -7658,11 +5984,8 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-      <c r="G195">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -7678,11 +6001,8 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-      <c r="G196">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -7698,11 +6018,8 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-      <c r="G197">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -7718,11 +6035,8 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-      <c r="G198">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -7738,11 +6052,8 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-      <c r="G199">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -7758,11 +6069,8 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-      <c r="G200">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -7778,11 +6086,8 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-      <c r="G201">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -7798,11 +6103,8 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-      <c r="G202">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -7818,11 +6120,8 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-      <c r="G203">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -7838,11 +6137,8 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-      <c r="G204">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -7858,11 +6154,8 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-      <c r="G205">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -7878,11 +6171,8 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-      <c r="G206">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -7898,11 +6188,8 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-      <c r="G207">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -7918,11 +6205,8 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-      <c r="G208">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -7938,11 +6222,8 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-      <c r="G209">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -7958,11 +6239,8 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-      <c r="G210">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -7978,11 +6256,8 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-      <c r="G211">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -7998,11 +6273,8 @@
       <c r="E212" t="s">
         <v>198</v>
       </c>
-      <c r="G212">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -8018,11 +6290,8 @@
       <c r="E213" t="s">
         <v>198</v>
       </c>
-      <c r="G213">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -8038,11 +6307,8 @@
       <c r="E214" t="s">
         <v>198</v>
       </c>
-      <c r="G214">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -8058,11 +6324,8 @@
       <c r="E215" t="s">
         <v>198</v>
       </c>
-      <c r="G215">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -8078,11 +6341,8 @@
       <c r="E216" t="s">
         <v>198</v>
       </c>
-      <c r="G216">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -8098,11 +6358,8 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-      <c r="G217">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -8118,11 +6375,8 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-      <c r="G218">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -8138,11 +6392,8 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-      <c r="G219">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -8158,11 +6409,8 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-      <c r="G220">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -8178,11 +6426,8 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-      <c r="G221">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -8198,11 +6443,8 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-      <c r="G222">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -8218,11 +6460,8 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-      <c r="G223">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -8238,11 +6477,8 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-      <c r="G224">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -8258,11 +6494,8 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-      <c r="G225">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -8278,11 +6511,8 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-      <c r="G226">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -8298,11 +6528,8 @@
       <c r="E227" t="s">
         <v>198</v>
       </c>
-      <c r="G227">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -8318,11 +6545,8 @@
       <c r="E228" t="s">
         <v>198</v>
       </c>
-      <c r="G228">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -8338,11 +6562,8 @@
       <c r="E229" t="s">
         <v>198</v>
       </c>
-      <c r="G229">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -8358,11 +6579,8 @@
       <c r="E230" t="s">
         <v>198</v>
       </c>
-      <c r="G230">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -8378,11 +6596,8 @@
       <c r="E231" t="s">
         <v>198</v>
       </c>
-      <c r="G231">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -8398,11 +6613,8 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-      <c r="G232">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -8418,11 +6630,8 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-      <c r="G233">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -8438,11 +6647,8 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-      <c r="G234">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -8458,11 +6664,8 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-      <c r="G235">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -8478,11 +6681,8 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-      <c r="G236">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -8498,11 +6698,8 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-      <c r="G237">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -8518,11 +6715,8 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-      <c r="G238">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -8538,11 +6732,8 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-      <c r="G239">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -8558,11 +6749,8 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-      <c r="G240">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -8578,11 +6766,8 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-      <c r="G241">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -8598,11 +6783,8 @@
       <c r="E242" t="s">
         <v>198</v>
       </c>
-      <c r="G242">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -8618,11 +6800,8 @@
       <c r="E243" t="s">
         <v>198</v>
       </c>
-      <c r="G243">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -8638,11 +6817,8 @@
       <c r="E244" t="s">
         <v>198</v>
       </c>
-      <c r="G244">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -8658,11 +6834,8 @@
       <c r="E245" t="s">
         <v>198</v>
       </c>
-      <c r="G245">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -8678,11 +6851,8 @@
       <c r="E246" t="s">
         <v>198</v>
       </c>
-      <c r="G246">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -8698,11 +6868,8 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-      <c r="G247">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -8718,11 +6885,8 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-      <c r="G248">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -8738,11 +6902,8 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-      <c r="G249">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -8758,11 +6919,8 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-      <c r="G250">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -8778,11 +6936,8 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-      <c r="G251">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -8798,11 +6953,8 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-      <c r="G252">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -8818,11 +6970,8 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-      <c r="G253">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -8838,11 +6987,8 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-      <c r="G254">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -8858,11 +7004,8 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-      <c r="G255">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -8878,11 +7021,8 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-      <c r="G256">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -8898,11 +7038,8 @@
       <c r="E257" t="s">
         <v>198</v>
       </c>
-      <c r="G257">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -8918,11 +7055,8 @@
       <c r="E258" t="s">
         <v>198</v>
       </c>
-      <c r="G258">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -8938,11 +7072,8 @@
       <c r="E259" t="s">
         <v>198</v>
       </c>
-      <c r="G259">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -8958,11 +7089,8 @@
       <c r="E260" t="s">
         <v>198</v>
       </c>
-      <c r="G260">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -8978,11 +7106,8 @@
       <c r="E261" t="s">
         <v>198</v>
       </c>
-      <c r="G261">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -8998,11 +7123,8 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-      <c r="G262">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -9018,11 +7140,8 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-      <c r="G263">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -9038,11 +7157,8 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-      <c r="G264">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -9058,11 +7174,8 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-      <c r="G265">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -9078,11 +7191,8 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-      <c r="G266">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -9098,11 +7208,8 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-      <c r="G267">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -9118,29 +7225,8 @@
       <c r="E268" t="s">
         <v>286</v>
       </c>
-      <c r="G268">
-        <v>231</v>
-      </c>
-      <c r="H268">
-        <v>25.5</v>
-      </c>
-      <c r="I268">
-        <v>23.5</v>
-      </c>
-      <c r="J268">
-        <v>23.7</v>
-      </c>
-      <c r="K268">
-        <v>100</v>
-      </c>
-      <c r="L268" t="s">
-        <v>465</v>
-      </c>
-      <c r="M268" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>287</v>
       </c>
@@ -9156,29 +7242,8 @@
       <c r="E269" t="s">
         <v>286</v>
       </c>
-      <c r="G269">
-        <v>231</v>
-      </c>
-      <c r="H269">
-        <v>29.7</v>
-      </c>
-      <c r="I269">
-        <v>29.9</v>
-      </c>
-      <c r="J269">
-        <v>26</v>
-      </c>
-      <c r="K269">
-        <v>95</v>
-      </c>
-      <c r="L269" t="s">
-        <v>465</v>
-      </c>
-      <c r="M269" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>288</v>
       </c>
@@ -9194,29 +7259,8 @@
       <c r="E270" t="s">
         <v>286</v>
       </c>
-      <c r="G270">
-        <v>231</v>
-      </c>
-      <c r="H270">
-        <v>22.9</v>
-      </c>
-      <c r="I270">
-        <v>27.9</v>
-      </c>
-      <c r="J270">
-        <v>26.1</v>
-      </c>
-      <c r="K270">
-        <v>90</v>
-      </c>
-      <c r="L270" t="s">
-        <v>465</v>
-      </c>
-      <c r="M270" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -9232,29 +7276,8 @@
       <c r="E271" t="s">
         <v>286</v>
       </c>
-      <c r="G271">
-        <v>231</v>
-      </c>
-      <c r="H271">
-        <v>27.2</v>
-      </c>
-      <c r="I271">
-        <v>27.2</v>
-      </c>
-      <c r="J271">
-        <v>23.2</v>
-      </c>
-      <c r="K271">
-        <v>95</v>
-      </c>
-      <c r="L271" t="s">
-        <v>465</v>
-      </c>
-      <c r="M271" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>290</v>
       </c>
@@ -9270,23 +7293,8 @@
       <c r="E272" t="s">
         <v>286</v>
       </c>
-      <c r="G272">
-        <v>231</v>
-      </c>
-      <c r="H272">
-        <v>23.4</v>
-      </c>
-      <c r="I272">
-        <v>17.5</v>
-      </c>
-      <c r="J272">
-        <v>22.5</v>
-      </c>
-      <c r="K272">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -9302,23 +7310,8 @@
       <c r="E273" t="s">
         <v>286</v>
       </c>
-      <c r="G273">
-        <v>231</v>
-      </c>
-      <c r="H273">
-        <v>26.5</v>
-      </c>
-      <c r="I273">
-        <v>32.4</v>
-      </c>
-      <c r="J273">
-        <v>9.4</v>
-      </c>
-      <c r="K273">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -9334,23 +7327,8 @@
       <c r="E274" t="s">
         <v>286</v>
       </c>
-      <c r="G274">
-        <v>231</v>
-      </c>
-      <c r="H274">
-        <v>23.8</v>
-      </c>
-      <c r="I274">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="J274">
-        <v>20.8</v>
-      </c>
-      <c r="K274">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -9366,23 +7344,8 @@
       <c r="E275" t="s">
         <v>286</v>
       </c>
-      <c r="G275">
-        <v>231</v>
-      </c>
-      <c r="H275">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="I275">
-        <v>34.1</v>
-      </c>
-      <c r="J275">
-        <v>33.5</v>
-      </c>
-      <c r="K275">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -9398,23 +7361,8 @@
       <c r="E276" t="s">
         <v>286</v>
       </c>
-      <c r="G276">
-        <v>231</v>
-      </c>
-      <c r="H276">
-        <v>28.7</v>
-      </c>
-      <c r="I276">
-        <v>24.9</v>
-      </c>
-      <c r="J276">
-        <v>26.6</v>
-      </c>
-      <c r="K276">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -9430,23 +7378,8 @@
       <c r="E277" t="s">
         <v>286</v>
       </c>
-      <c r="G277">
-        <v>231</v>
-      </c>
-      <c r="H277">
-        <v>30.7</v>
-      </c>
-      <c r="I277">
-        <v>35</v>
-      </c>
-      <c r="J277">
-        <v>25</v>
-      </c>
-      <c r="K277">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -9462,23 +7395,8 @@
       <c r="E278" t="s">
         <v>286</v>
       </c>
-      <c r="G278">
-        <v>231</v>
-      </c>
-      <c r="H278">
-        <v>28.7</v>
-      </c>
-      <c r="I278">
-        <v>24.4</v>
-      </c>
-      <c r="J278">
-        <v>25.1</v>
-      </c>
-      <c r="K278">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -9494,23 +7412,8 @@
       <c r="E279" t="s">
         <v>286</v>
       </c>
-      <c r="G279">
-        <v>231</v>
-      </c>
-      <c r="H279">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I279">
-        <v>15.4</v>
-      </c>
-      <c r="J279">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="K279">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -9526,23 +7429,8 @@
       <c r="E280" t="s">
         <v>286</v>
       </c>
-      <c r="G280">
-        <v>231</v>
-      </c>
-      <c r="H280">
-        <v>24.2</v>
-      </c>
-      <c r="I280">
-        <v>25.6</v>
-      </c>
-      <c r="J280">
-        <v>24.5</v>
-      </c>
-      <c r="K280">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -9558,23 +7446,8 @@
       <c r="E281" t="s">
         <v>286</v>
       </c>
-      <c r="G281">
-        <v>231</v>
-      </c>
-      <c r="H281">
-        <v>25.3</v>
-      </c>
-      <c r="I281">
-        <v>23.5</v>
-      </c>
-      <c r="J281">
-        <v>23.1</v>
-      </c>
-      <c r="K281">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -9590,23 +7463,8 @@
       <c r="E282" t="s">
         <v>286</v>
       </c>
-      <c r="G282">
-        <v>231</v>
-      </c>
-      <c r="H282">
-        <v>22.6</v>
-      </c>
-      <c r="I282">
-        <v>24.8</v>
-      </c>
-      <c r="J282">
-        <v>30.2</v>
-      </c>
-      <c r="K282">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -9622,23 +7480,8 @@
       <c r="E283" t="s">
         <v>286</v>
       </c>
-      <c r="G283">
-        <v>231</v>
-      </c>
-      <c r="H283">
-        <v>19.8</v>
-      </c>
-      <c r="I283">
-        <v>26.4</v>
-      </c>
-      <c r="J283">
-        <v>21.1</v>
-      </c>
-      <c r="K283">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -9654,23 +7497,8 @@
       <c r="E284" t="s">
         <v>286</v>
       </c>
-      <c r="G284">
-        <v>231</v>
-      </c>
-      <c r="H284">
-        <v>25.3</v>
-      </c>
-      <c r="I284">
-        <v>20.2</v>
-      </c>
-      <c r="J284">
-        <v>26.5</v>
-      </c>
-      <c r="K284">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -9686,23 +7514,8 @@
       <c r="E285" t="s">
         <v>286</v>
       </c>
-      <c r="G285">
-        <v>231</v>
-      </c>
-      <c r="H285">
-        <v>22.2</v>
-      </c>
-      <c r="I285">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J285">
-        <v>30.1</v>
-      </c>
-      <c r="K285">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -9718,23 +7531,8 @@
       <c r="E286" t="s">
         <v>286</v>
       </c>
-      <c r="G286">
-        <v>231</v>
-      </c>
-      <c r="H286">
-        <v>24.9</v>
-      </c>
-      <c r="I286">
-        <v>17.8</v>
-      </c>
-      <c r="J286">
-        <v>24.2</v>
-      </c>
-      <c r="K286">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -9750,23 +7548,8 @@
       <c r="E287" t="s">
         <v>286</v>
       </c>
-      <c r="G287">
-        <v>231</v>
-      </c>
-      <c r="H287">
-        <v>23.4</v>
-      </c>
-      <c r="I287">
-        <v>18.3</v>
-      </c>
-      <c r="J287">
-        <v>19.3</v>
-      </c>
-      <c r="K287">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -9782,23 +7565,8 @@
       <c r="E288" t="s">
         <v>286</v>
       </c>
-      <c r="G288">
-        <v>231</v>
-      </c>
-      <c r="H288">
-        <v>30.1</v>
-      </c>
-      <c r="I288">
-        <v>30.4</v>
-      </c>
-      <c r="J288">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K288">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -9814,23 +7582,8 @@
       <c r="E289" t="s">
         <v>286</v>
       </c>
-      <c r="G289">
-        <v>231</v>
-      </c>
-      <c r="H289">
-        <v>21.9</v>
-      </c>
-      <c r="I289">
-        <v>16.8</v>
-      </c>
-      <c r="J289">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="K289">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -9846,23 +7599,8 @@
       <c r="E290" t="s">
         <v>286</v>
       </c>
-      <c r="G290">
-        <v>231</v>
-      </c>
-      <c r="H290">
-        <v>25.2</v>
-      </c>
-      <c r="I290">
-        <v>23.6</v>
-      </c>
-      <c r="J290">
-        <v>27.3</v>
-      </c>
-      <c r="K290">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -9878,23 +7616,8 @@
       <c r="E291" t="s">
         <v>286</v>
       </c>
-      <c r="G291">
-        <v>231</v>
-      </c>
-      <c r="H291">
-        <v>16.3</v>
-      </c>
-      <c r="I291">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="J291">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K291">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -9910,23 +7633,8 @@
       <c r="E292" t="s">
         <v>286</v>
       </c>
-      <c r="G292">
-        <v>231</v>
-      </c>
-      <c r="H292">
-        <v>27.6</v>
-      </c>
-      <c r="I292">
-        <v>27.6</v>
-      </c>
-      <c r="J292">
-        <v>28</v>
-      </c>
-      <c r="K292">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -9942,23 +7650,8 @@
       <c r="E293" t="s">
         <v>286</v>
       </c>
-      <c r="G293">
-        <v>231</v>
-      </c>
-      <c r="H293">
-        <v>21.3</v>
-      </c>
-      <c r="I293">
-        <v>32.5</v>
-      </c>
-      <c r="J293">
-        <v>21.6</v>
-      </c>
-      <c r="K293">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -9974,23 +7667,8 @@
       <c r="E294" t="s">
         <v>286</v>
       </c>
-      <c r="G294">
-        <v>231</v>
-      </c>
-      <c r="H294">
-        <v>26.9</v>
-      </c>
-      <c r="I294">
-        <v>19.2</v>
-      </c>
-      <c r="J294">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K294">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -10006,23 +7684,8 @@
       <c r="E295" t="s">
         <v>286</v>
       </c>
-      <c r="G295">
-        <v>231</v>
-      </c>
-      <c r="H295">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="I295">
-        <v>33.9</v>
-      </c>
-      <c r="J295">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="K295">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -10038,23 +7701,8 @@
       <c r="E296" t="s">
         <v>286</v>
       </c>
-      <c r="G296">
-        <v>231</v>
-      </c>
-      <c r="H296">
-        <v>36.1</v>
-      </c>
-      <c r="I296">
-        <v>35.4</v>
-      </c>
-      <c r="J296">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="K296">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -10070,23 +7718,8 @@
       <c r="E297" t="s">
         <v>286</v>
       </c>
-      <c r="G297">
-        <v>231</v>
-      </c>
-      <c r="H297">
-        <v>30.9</v>
-      </c>
-      <c r="I297">
-        <v>29.2</v>
-      </c>
-      <c r="J297">
-        <v>28</v>
-      </c>
-      <c r="K297">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -10102,23 +7735,8 @@
       <c r="E298" t="s">
         <v>286</v>
       </c>
-      <c r="G298">
-        <v>231</v>
-      </c>
-      <c r="H298">
-        <v>39</v>
-      </c>
-      <c r="I298">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="J298">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="K298">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -10134,23 +7752,8 @@
       <c r="E299" t="s">
         <v>286</v>
       </c>
-      <c r="G299">
-        <v>231</v>
-      </c>
-      <c r="H299">
-        <v>26.4</v>
-      </c>
-      <c r="I299">
-        <v>26.3</v>
-      </c>
-      <c r="J299">
-        <v>28.1</v>
-      </c>
-      <c r="K299">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -10166,23 +7769,8 @@
       <c r="E300" t="s">
         <v>286</v>
       </c>
-      <c r="G300">
-        <v>231</v>
-      </c>
-      <c r="H300">
-        <v>26.7</v>
-      </c>
-      <c r="I300">
-        <v>33.4</v>
-      </c>
-      <c r="J300">
-        <v>28</v>
-      </c>
-      <c r="K300">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -10198,23 +7786,8 @@
       <c r="E301" t="s">
         <v>286</v>
       </c>
-      <c r="G301">
-        <v>231</v>
-      </c>
-      <c r="H301">
-        <v>15.6</v>
-      </c>
-      <c r="I301">
-        <v>16.7</v>
-      </c>
-      <c r="J301">
-        <v>16</v>
-      </c>
-      <c r="K301">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -10231,25 +7804,10 @@
         <v>286</v>
       </c>
       <c r="F302" t="s">
-        <v>466</v>
-      </c>
-      <c r="G302">
-        <v>231</v>
-      </c>
-      <c r="H302">
-        <v>22.3</v>
-      </c>
-      <c r="I302">
-        <v>18</v>
-      </c>
-      <c r="J302">
-        <v>27.7</v>
-      </c>
-      <c r="K302">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -10265,23 +7823,8 @@
       <c r="E303" t="s">
         <v>286</v>
       </c>
-      <c r="G303">
-        <v>231</v>
-      </c>
-      <c r="H303">
-        <v>24.5</v>
-      </c>
-      <c r="I303">
-        <v>22.8</v>
-      </c>
-      <c r="J303">
-        <v>24.6</v>
-      </c>
-      <c r="K303">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -10297,23 +7840,8 @@
       <c r="E304" t="s">
         <v>286</v>
       </c>
-      <c r="G304">
-        <v>231</v>
-      </c>
-      <c r="H304">
-        <v>22</v>
-      </c>
-      <c r="I304">
-        <v>25.4</v>
-      </c>
-      <c r="J304">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="K304">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -10329,23 +7857,8 @@
       <c r="E305" t="s">
         <v>286</v>
       </c>
-      <c r="G305">
-        <v>231</v>
-      </c>
-      <c r="H305">
-        <v>27.6</v>
-      </c>
-      <c r="I305">
-        <v>27.5</v>
-      </c>
-      <c r="J305">
-        <v>30.2</v>
-      </c>
-      <c r="K305">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -10361,23 +7874,8 @@
       <c r="E306" t="s">
         <v>286</v>
       </c>
-      <c r="G306">
-        <v>231</v>
-      </c>
-      <c r="H306">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="I306">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="J306">
-        <v>17.8</v>
-      </c>
-      <c r="K306">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -10393,23 +7891,8 @@
       <c r="E307" t="s">
         <v>286</v>
       </c>
-      <c r="G307">
-        <v>231</v>
-      </c>
-      <c r="H307">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I307">
-        <v>22.5</v>
-      </c>
-      <c r="J307">
-        <v>24.3</v>
-      </c>
-      <c r="K307">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -10425,23 +7908,8 @@
       <c r="E308" t="s">
         <v>286</v>
       </c>
-      <c r="G308">
-        <v>231</v>
-      </c>
-      <c r="H308">
-        <v>29.3</v>
-      </c>
-      <c r="I308">
-        <v>29.2</v>
-      </c>
-      <c r="J308">
-        <v>21.8</v>
-      </c>
-      <c r="K308">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -10457,23 +7925,8 @@
       <c r="E309" t="s">
         <v>286</v>
       </c>
-      <c r="G309">
-        <v>231</v>
-      </c>
-      <c r="H309">
-        <v>25.6</v>
-      </c>
-      <c r="I309">
-        <v>24.4</v>
-      </c>
-      <c r="J309">
-        <v>31.9</v>
-      </c>
-      <c r="K309">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -10489,23 +7942,8 @@
       <c r="E310" t="s">
         <v>286</v>
       </c>
-      <c r="G310">
-        <v>231</v>
-      </c>
-      <c r="H310">
-        <v>18.2</v>
-      </c>
-      <c r="I310">
-        <v>18.2</v>
-      </c>
-      <c r="J310">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K310">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -10521,23 +7959,8 @@
       <c r="E311" t="s">
         <v>286</v>
       </c>
-      <c r="G311">
-        <v>231</v>
-      </c>
-      <c r="H311">
-        <v>22.5</v>
-      </c>
-      <c r="I311">
-        <v>19</v>
-      </c>
-      <c r="J311">
-        <v>20.6</v>
-      </c>
-      <c r="K311">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -10553,23 +7976,8 @@
       <c r="E312" t="s">
         <v>286</v>
       </c>
-      <c r="G312">
-        <v>231</v>
-      </c>
-      <c r="H312">
-        <v>20.3</v>
-      </c>
-      <c r="I312">
-        <v>24.9</v>
-      </c>
-      <c r="J312">
-        <v>25.6</v>
-      </c>
-      <c r="K312">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -10585,23 +7993,8 @@
       <c r="E313" t="s">
         <v>286</v>
       </c>
-      <c r="G313">
-        <v>231</v>
-      </c>
-      <c r="H313">
-        <v>26.2</v>
-      </c>
-      <c r="I313">
-        <v>21.4</v>
-      </c>
-      <c r="J313">
-        <v>26.1</v>
-      </c>
-      <c r="K313">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -10617,23 +8010,8 @@
       <c r="E314" t="s">
         <v>286</v>
       </c>
-      <c r="G314">
-        <v>231</v>
-      </c>
-      <c r="H314">
-        <v>31.4</v>
-      </c>
-      <c r="I314">
-        <v>30.5</v>
-      </c>
-      <c r="J314">
-        <v>29.5</v>
-      </c>
-      <c r="K314">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -10649,23 +8027,8 @@
       <c r="E315" t="s">
         <v>286</v>
       </c>
-      <c r="G315">
-        <v>231</v>
-      </c>
-      <c r="H315">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I315">
-        <v>23.1</v>
-      </c>
-      <c r="J315">
-        <v>26.5</v>
-      </c>
-      <c r="K315">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -10681,23 +8044,8 @@
       <c r="E316" t="s">
         <v>286</v>
       </c>
-      <c r="G316">
-        <v>231</v>
-      </c>
-      <c r="H316">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="I316">
-        <v>10.8</v>
-      </c>
-      <c r="J316">
-        <v>12.9</v>
-      </c>
-      <c r="K316">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -10713,23 +8061,8 @@
       <c r="E317" t="s">
         <v>286</v>
       </c>
-      <c r="G317">
-        <v>231</v>
-      </c>
-      <c r="H317">
-        <v>31.4</v>
-      </c>
-      <c r="I317">
-        <v>29.8</v>
-      </c>
-      <c r="J317">
-        <v>26</v>
-      </c>
-      <c r="K317">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -10745,23 +8078,8 @@
       <c r="E318" t="s">
         <v>286</v>
       </c>
-      <c r="G318">
-        <v>231</v>
-      </c>
-      <c r="H318">
-        <v>26.9</v>
-      </c>
-      <c r="I318">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="J318">
-        <v>27.5</v>
-      </c>
-      <c r="K318">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -10777,23 +8095,8 @@
       <c r="E319" t="s">
         <v>286</v>
       </c>
-      <c r="G319">
-        <v>231</v>
-      </c>
-      <c r="H319">
-        <v>25</v>
-      </c>
-      <c r="I319">
-        <v>24.3</v>
-      </c>
-      <c r="J319">
-        <v>30.5</v>
-      </c>
-      <c r="K319">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -10809,23 +8112,8 @@
       <c r="E320" t="s">
         <v>286</v>
       </c>
-      <c r="G320">
-        <v>231</v>
-      </c>
-      <c r="H320">
-        <v>23.8</v>
-      </c>
-      <c r="I320">
-        <v>17</v>
-      </c>
-      <c r="J320">
-        <v>24.3</v>
-      </c>
-      <c r="K320">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -10841,23 +8129,8 @@
       <c r="E321" t="s">
         <v>286</v>
       </c>
-      <c r="G321">
-        <v>231</v>
-      </c>
-      <c r="H321">
-        <v>21.3</v>
-      </c>
-      <c r="I321">
-        <v>21.6</v>
-      </c>
-      <c r="J321">
-        <v>18.3</v>
-      </c>
-      <c r="K321">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -10873,23 +8146,8 @@
       <c r="E322" t="s">
         <v>286</v>
       </c>
-      <c r="G322">
-        <v>231</v>
-      </c>
-      <c r="H322">
-        <v>25.1</v>
-      </c>
-      <c r="I322">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="J322">
-        <v>21</v>
-      </c>
-      <c r="K322">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -10905,23 +8163,8 @@
       <c r="E323" t="s">
         <v>286</v>
       </c>
-      <c r="G323">
-        <v>231</v>
-      </c>
-      <c r="H323">
-        <v>28.6</v>
-      </c>
-      <c r="I323">
-        <v>27.4</v>
-      </c>
-      <c r="J323">
-        <v>30.5</v>
-      </c>
-      <c r="K323">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -10937,23 +8180,8 @@
       <c r="E324" t="s">
         <v>286</v>
       </c>
-      <c r="G324">
-        <v>231</v>
-      </c>
-      <c r="H324">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="I324">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="J324">
-        <v>36</v>
-      </c>
-      <c r="K324">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -10969,23 +8197,8 @@
       <c r="E325" t="s">
         <v>286</v>
       </c>
-      <c r="G325">
-        <v>231</v>
-      </c>
-      <c r="H325">
-        <v>30.1</v>
-      </c>
-      <c r="I325">
-        <v>28.9</v>
-      </c>
-      <c r="J325">
-        <v>31.1</v>
-      </c>
-      <c r="K325">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -11001,23 +8214,8 @@
       <c r="E326" t="s">
         <v>286</v>
       </c>
-      <c r="G326">
-        <v>231</v>
-      </c>
-      <c r="H326" s="1">
-        <v>31.8</v>
-      </c>
-      <c r="I326" s="1">
-        <v>28.9</v>
-      </c>
-      <c r="J326" s="1">
-        <v>24.7</v>
-      </c>
-      <c r="K326" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -11033,23 +8231,8 @@
       <c r="E327" t="s">
         <v>286</v>
       </c>
-      <c r="G327">
-        <v>231</v>
-      </c>
-      <c r="H327" s="1">
-        <v>26</v>
-      </c>
-      <c r="I327" s="1">
-        <v>26</v>
-      </c>
-      <c r="J327" s="1">
-        <v>31.3</v>
-      </c>
-      <c r="K327" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -11065,23 +8248,8 @@
       <c r="E328" t="s">
         <v>286</v>
       </c>
-      <c r="G328">
-        <v>231</v>
-      </c>
-      <c r="H328" s="1">
-        <v>28.3</v>
-      </c>
-      <c r="I328" s="1">
-        <v>22.7</v>
-      </c>
-      <c r="J328" s="1">
-        <v>23.1</v>
-      </c>
-      <c r="K328" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -11097,23 +8265,8 @@
       <c r="E329" t="s">
         <v>286</v>
       </c>
-      <c r="G329">
-        <v>231</v>
-      </c>
-      <c r="H329">
-        <v>23.9</v>
-      </c>
-      <c r="I329">
-        <v>30.9</v>
-      </c>
-      <c r="J329">
-        <v>23.1</v>
-      </c>
-      <c r="K329">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -11129,23 +8282,8 @@
       <c r="E330" t="s">
         <v>286</v>
       </c>
-      <c r="G330">
-        <v>231</v>
-      </c>
-      <c r="H330">
-        <v>24.9</v>
-      </c>
-      <c r="I330">
-        <v>27</v>
-      </c>
-      <c r="J330">
-        <v>30.8</v>
-      </c>
-      <c r="K330">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -11161,23 +8299,8 @@
       <c r="E331" t="s">
         <v>286</v>
       </c>
-      <c r="G331">
-        <v>231</v>
-      </c>
-      <c r="H331">
-        <v>42.3</v>
-      </c>
-      <c r="I331">
-        <v>32.9</v>
-      </c>
-      <c r="J331">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="K331">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -11193,23 +8316,8 @@
       <c r="E332" t="s">
         <v>286</v>
       </c>
-      <c r="G332">
-        <v>231</v>
-      </c>
-      <c r="H332">
-        <v>28.5</v>
-      </c>
-      <c r="I332">
-        <v>33.5</v>
-      </c>
-      <c r="J332">
-        <v>34.1</v>
-      </c>
-      <c r="K332">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -11225,23 +8333,8 @@
       <c r="E333" t="s">
         <v>286</v>
       </c>
-      <c r="G333">
-        <v>231</v>
-      </c>
-      <c r="H333">
-        <v>24</v>
-      </c>
-      <c r="I333">
-        <v>26</v>
-      </c>
-      <c r="J333">
-        <v>25.7</v>
-      </c>
-      <c r="K333">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -11257,23 +8350,8 @@
       <c r="E334" t="s">
         <v>286</v>
       </c>
-      <c r="G334">
-        <v>231</v>
-      </c>
-      <c r="H334">
-        <v>20.8</v>
-      </c>
-      <c r="I334">
-        <v>34</v>
-      </c>
-      <c r="J334">
-        <v>23.2</v>
-      </c>
-      <c r="K334">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -11289,23 +8367,8 @@
       <c r="E335" t="s">
         <v>286</v>
       </c>
-      <c r="G335">
-        <v>231</v>
-      </c>
-      <c r="H335">
-        <v>28.6</v>
-      </c>
-      <c r="I335">
-        <v>32.5</v>
-      </c>
-      <c r="J335">
-        <v>33.9</v>
-      </c>
-      <c r="K335">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -11321,23 +8384,8 @@
       <c r="E336" t="s">
         <v>286</v>
       </c>
-      <c r="G336">
-        <v>231</v>
-      </c>
-      <c r="H336">
-        <v>19.5</v>
-      </c>
-      <c r="I336">
-        <v>24.8</v>
-      </c>
-      <c r="J336">
-        <v>16</v>
-      </c>
-      <c r="K336">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -11353,23 +8401,8 @@
       <c r="E337" t="s">
         <v>286</v>
       </c>
-      <c r="G337">
-        <v>231</v>
-      </c>
-      <c r="H337">
-        <v>35.5</v>
-      </c>
-      <c r="I337">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="J337">
-        <v>35.9</v>
-      </c>
-      <c r="K337">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -11385,23 +8418,8 @@
       <c r="E338" t="s">
         <v>286</v>
       </c>
-      <c r="G338">
-        <v>231</v>
-      </c>
-      <c r="H338">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I338">
-        <v>28</v>
-      </c>
-      <c r="J338">
-        <v>31.2</v>
-      </c>
-      <c r="K338">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -11417,23 +8435,8 @@
       <c r="E339" t="s">
         <v>286</v>
       </c>
-      <c r="G339">
-        <v>231</v>
-      </c>
-      <c r="H339">
-        <v>32</v>
-      </c>
-      <c r="I339">
-        <v>32.1</v>
-      </c>
-      <c r="J339">
-        <v>30</v>
-      </c>
-      <c r="K339">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -11449,23 +8452,8 @@
       <c r="E340" t="s">
         <v>286</v>
       </c>
-      <c r="G340">
-        <v>231</v>
-      </c>
-      <c r="H340">
-        <v>17.7</v>
-      </c>
-      <c r="I340">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J340">
-        <v>22.4</v>
-      </c>
-      <c r="K340">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -11481,23 +8469,8 @@
       <c r="E341" t="s">
         <v>286</v>
       </c>
-      <c r="G341">
-        <v>231</v>
-      </c>
-      <c r="H341">
-        <v>22.1</v>
-      </c>
-      <c r="I341">
-        <v>21.4</v>
-      </c>
-      <c r="J341">
-        <v>23</v>
-      </c>
-      <c r="K341">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -11513,23 +8486,8 @@
       <c r="E342" t="s">
         <v>286</v>
       </c>
-      <c r="G342">
-        <v>231</v>
-      </c>
-      <c r="H342">
-        <v>23.6</v>
-      </c>
-      <c r="I342">
-        <v>21.5</v>
-      </c>
-      <c r="J342">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K342">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -11545,23 +8503,8 @@
       <c r="E343" t="s">
         <v>286</v>
       </c>
-      <c r="G343">
-        <v>231</v>
-      </c>
-      <c r="H343">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I343">
-        <v>25.5</v>
-      </c>
-      <c r="J343">
-        <v>23</v>
-      </c>
-      <c r="K343">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -11577,23 +8520,8 @@
       <c r="E344" t="s">
         <v>286</v>
       </c>
-      <c r="G344">
-        <v>231</v>
-      </c>
-      <c r="H344">
-        <v>23.3</v>
-      </c>
-      <c r="I344">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="J344">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="K344">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -11609,23 +8537,8 @@
       <c r="E345" t="s">
         <v>286</v>
       </c>
-      <c r="G345">
-        <v>231</v>
-      </c>
-      <c r="H345">
-        <v>22.7</v>
-      </c>
-      <c r="I345">
-        <v>19.7</v>
-      </c>
-      <c r="J345">
-        <v>19</v>
-      </c>
-      <c r="K345">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -11641,23 +8554,8 @@
       <c r="E346" t="s">
         <v>286</v>
       </c>
-      <c r="G346">
-        <v>231</v>
-      </c>
-      <c r="H346">
-        <v>21.6</v>
-      </c>
-      <c r="I346">
-        <v>21.7</v>
-      </c>
-      <c r="J346">
-        <v>20.5</v>
-      </c>
-      <c r="K346">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -11673,23 +8571,8 @@
       <c r="E347" t="s">
         <v>286</v>
       </c>
-      <c r="G347">
-        <v>231</v>
-      </c>
-      <c r="H347">
-        <v>21.9</v>
-      </c>
-      <c r="I347">
-        <v>25.6</v>
-      </c>
-      <c r="J347">
-        <v>20.7</v>
-      </c>
-      <c r="K347">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -11705,11 +8588,8 @@
       <c r="E348" t="s">
         <v>368</v>
       </c>
-      <c r="G348">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>369</v>
       </c>
@@ -11725,11 +8605,8 @@
       <c r="E349" t="s">
         <v>368</v>
       </c>
-      <c r="G349">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>370</v>
       </c>
@@ -11745,11 +8622,8 @@
       <c r="E350" t="s">
         <v>368</v>
       </c>
-      <c r="G350">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>371</v>
       </c>
@@ -11765,11 +8639,8 @@
       <c r="E351" t="s">
         <v>368</v>
       </c>
-      <c r="G351">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>372</v>
       </c>
@@ -11785,11 +8656,8 @@
       <c r="E352" t="s">
         <v>368</v>
       </c>
-      <c r="G352">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>373</v>
       </c>
@@ -11805,11 +8673,8 @@
       <c r="E353" t="s">
         <v>368</v>
       </c>
-      <c r="G353">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>374</v>
       </c>
@@ -11825,11 +8690,8 @@
       <c r="E354" t="s">
         <v>368</v>
       </c>
-      <c r="G354">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>375</v>
       </c>
@@ -11845,11 +8707,8 @@
       <c r="E355" t="s">
         <v>368</v>
       </c>
-      <c r="G355">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>376</v>
       </c>
@@ -11865,11 +8724,8 @@
       <c r="E356" t="s">
         <v>368</v>
       </c>
-      <c r="G356">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>377</v>
       </c>
@@ -11885,11 +8741,8 @@
       <c r="E357" t="s">
         <v>368</v>
       </c>
-      <c r="G357">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -11905,11 +8758,8 @@
       <c r="E358" t="s">
         <v>368</v>
       </c>
-      <c r="G358">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -11925,11 +8775,8 @@
       <c r="E359" t="s">
         <v>368</v>
       </c>
-      <c r="G359">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -11945,11 +8792,8 @@
       <c r="E360" t="s">
         <v>368</v>
       </c>
-      <c r="G360">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -11965,11 +8809,8 @@
       <c r="E361" t="s">
         <v>368</v>
       </c>
-      <c r="G361">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -11985,11 +8826,8 @@
       <c r="E362" t="s">
         <v>368</v>
       </c>
-      <c r="G362">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -12005,11 +8843,8 @@
       <c r="E363" t="s">
         <v>368</v>
       </c>
-      <c r="G363">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -12025,11 +8860,8 @@
       <c r="E364" t="s">
         <v>368</v>
       </c>
-      <c r="G364">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -12045,11 +8877,8 @@
       <c r="E365" t="s">
         <v>368</v>
       </c>
-      <c r="G365">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -12065,11 +8894,8 @@
       <c r="E366" t="s">
         <v>368</v>
       </c>
-      <c r="G366">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -12085,11 +8911,8 @@
       <c r="E367" t="s">
         <v>368</v>
       </c>
-      <c r="G367">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -12105,11 +8928,8 @@
       <c r="E368" t="s">
         <v>368</v>
       </c>
-      <c r="G368">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -12125,11 +8945,8 @@
       <c r="E369" t="s">
         <v>368</v>
       </c>
-      <c r="G369">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -12145,11 +8962,8 @@
       <c r="E370" t="s">
         <v>368</v>
       </c>
-      <c r="G370">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -12165,11 +8979,8 @@
       <c r="E371" t="s">
         <v>368</v>
       </c>
-      <c r="G371">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -12185,11 +8996,8 @@
       <c r="E372" t="s">
         <v>368</v>
       </c>
-      <c r="G372">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -12205,11 +9013,8 @@
       <c r="E373" t="s">
         <v>368</v>
       </c>
-      <c r="G373">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -12225,11 +9030,8 @@
       <c r="E374" t="s">
         <v>368</v>
       </c>
-      <c r="G374">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -12245,11 +9047,8 @@
       <c r="E375" t="s">
         <v>368</v>
       </c>
-      <c r="G375">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -12265,11 +9064,8 @@
       <c r="E376" t="s">
         <v>368</v>
       </c>
-      <c r="G376">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -12285,11 +9081,8 @@
       <c r="E377" t="s">
         <v>368</v>
       </c>
-      <c r="G377">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -12305,11 +9098,8 @@
       <c r="E378" t="s">
         <v>368</v>
       </c>
-      <c r="G378">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -12325,11 +9115,8 @@
       <c r="E379" t="s">
         <v>368</v>
       </c>
-      <c r="G379">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -12345,11 +9132,8 @@
       <c r="E380" t="s">
         <v>368</v>
       </c>
-      <c r="G380">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -12365,11 +9149,8 @@
       <c r="E381" t="s">
         <v>368</v>
       </c>
-      <c r="G381">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -12385,11 +9166,8 @@
       <c r="E382" t="s">
         <v>368</v>
       </c>
-      <c r="G382">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -12405,11 +9183,8 @@
       <c r="E383" t="s">
         <v>368</v>
       </c>
-      <c r="G383">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -12425,11 +9200,8 @@
       <c r="E384" t="s">
         <v>368</v>
       </c>
-      <c r="G384">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -12445,11 +9217,8 @@
       <c r="E385" t="s">
         <v>368</v>
       </c>
-      <c r="G385">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -12465,11 +9234,8 @@
       <c r="E386" t="s">
         <v>368</v>
       </c>
-      <c r="G386">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -12485,11 +9251,8 @@
       <c r="E387" t="s">
         <v>368</v>
       </c>
-      <c r="G387">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -12505,11 +9268,8 @@
       <c r="E388" t="s">
         <v>368</v>
       </c>
-      <c r="G388">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -12525,11 +9285,8 @@
       <c r="E389" t="s">
         <v>368</v>
       </c>
-      <c r="G389">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -12545,11 +9302,8 @@
       <c r="E390" t="s">
         <v>368</v>
       </c>
-      <c r="G390">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -12565,11 +9319,8 @@
       <c r="E391" t="s">
         <v>368</v>
       </c>
-      <c r="G391">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -12585,11 +9336,8 @@
       <c r="E392" t="s">
         <v>368</v>
       </c>
-      <c r="G392">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -12605,11 +9353,8 @@
       <c r="E393" t="s">
         <v>368</v>
       </c>
-      <c r="G393">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -12625,11 +9370,8 @@
       <c r="E394" t="s">
         <v>368</v>
       </c>
-      <c r="G394">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -12645,11 +9387,8 @@
       <c r="E395" t="s">
         <v>368</v>
       </c>
-      <c r="G395">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -12665,11 +9404,8 @@
       <c r="E396" t="s">
         <v>368</v>
       </c>
-      <c r="G396">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -12685,11 +9421,8 @@
       <c r="E397" t="s">
         <v>368</v>
       </c>
-      <c r="G397">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -12705,11 +9438,8 @@
       <c r="E398" t="s">
         <v>368</v>
       </c>
-      <c r="G398">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -12725,11 +9455,8 @@
       <c r="E399" t="s">
         <v>368</v>
       </c>
-      <c r="G399">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -12745,11 +9472,8 @@
       <c r="E400" t="s">
         <v>368</v>
       </c>
-      <c r="G400">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -12765,11 +9489,8 @@
       <c r="E401" t="s">
         <v>368</v>
       </c>
-      <c r="G401">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -12785,11 +9506,8 @@
       <c r="E402" t="s">
         <v>368</v>
       </c>
-      <c r="G402">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -12805,11 +9523,8 @@
       <c r="E403" t="s">
         <v>368</v>
       </c>
-      <c r="G403">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -12825,11 +9540,8 @@
       <c r="E404" t="s">
         <v>368</v>
       </c>
-      <c r="G404">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -12845,11 +9557,8 @@
       <c r="E405" t="s">
         <v>368</v>
       </c>
-      <c r="G405">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -12865,11 +9574,8 @@
       <c r="E406" t="s">
         <v>368</v>
       </c>
-      <c r="G406">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -12885,11 +9591,8 @@
       <c r="E407" t="s">
         <v>368</v>
       </c>
-      <c r="G407">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -12905,11 +9608,8 @@
       <c r="E408" t="s">
         <v>368</v>
       </c>
-      <c r="G408">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -12925,11 +9625,8 @@
       <c r="E409" t="s">
         <v>368</v>
       </c>
-      <c r="G409">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -12945,11 +9642,8 @@
       <c r="E410" t="s">
         <v>368</v>
       </c>
-      <c r="G410">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -12965,11 +9659,8 @@
       <c r="E411" t="s">
         <v>368</v>
       </c>
-      <c r="G411">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -12985,11 +9676,8 @@
       <c r="E412" t="s">
         <v>368</v>
       </c>
-      <c r="G412">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -13005,11 +9693,8 @@
       <c r="E413" t="s">
         <v>368</v>
       </c>
-      <c r="G413">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -13025,11 +9710,8 @@
       <c r="E414" t="s">
         <v>368</v>
       </c>
-      <c r="G414">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -13045,11 +9727,8 @@
       <c r="E415" t="s">
         <v>368</v>
       </c>
-      <c r="G415">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -13065,11 +9744,8 @@
       <c r="E416" t="s">
         <v>368</v>
       </c>
-      <c r="G416">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -13085,11 +9761,8 @@
       <c r="E417" t="s">
         <v>368</v>
       </c>
-      <c r="G417">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -13105,11 +9778,8 @@
       <c r="E418" t="s">
         <v>368</v>
       </c>
-      <c r="G418">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -13125,11 +9795,8 @@
       <c r="E419" t="s">
         <v>368</v>
       </c>
-      <c r="G419">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -13145,11 +9812,8 @@
       <c r="E420" t="s">
         <v>368</v>
       </c>
-      <c r="G420">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -13165,11 +9829,8 @@
       <c r="E421" t="s">
         <v>368</v>
       </c>
-      <c r="G421">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -13185,11 +9846,8 @@
       <c r="E422" t="s">
         <v>368</v>
       </c>
-      <c r="G422">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -13205,11 +9863,8 @@
       <c r="E423" t="s">
         <v>368</v>
       </c>
-      <c r="G423">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -13225,11 +9880,8 @@
       <c r="E424" t="s">
         <v>368</v>
       </c>
-      <c r="G424">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -13245,11 +9897,8 @@
       <c r="E425" t="s">
         <v>368</v>
       </c>
-      <c r="G425">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -13265,11 +9914,8 @@
       <c r="E426" t="s">
         <v>368</v>
       </c>
-      <c r="G426">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -13285,11 +9931,8 @@
       <c r="E427" t="s">
         <v>368</v>
       </c>
-      <c r="G427">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -13305,11 +9948,8 @@
       <c r="E428" t="s">
         <v>368</v>
       </c>
-      <c r="G428">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -13325,11 +9965,8 @@
       <c r="E429" t="s">
         <v>368</v>
       </c>
-      <c r="G429">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -13345,11 +9982,8 @@
       <c r="E430" t="s">
         <v>368</v>
       </c>
-      <c r="G430">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -13365,11 +9999,8 @@
       <c r="E431" t="s">
         <v>368</v>
       </c>
-      <c r="G431">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -13385,11 +10016,8 @@
       <c r="E432" t="s">
         <v>368</v>
       </c>
-      <c r="G432">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -13405,11 +10033,8 @@
       <c r="E433" t="s">
         <v>368</v>
       </c>
-      <c r="G433">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -13425,11 +10050,8 @@
       <c r="E434" t="s">
         <v>368</v>
       </c>
-      <c r="G434">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -13445,11 +10067,8 @@
       <c r="E435" t="s">
         <v>368</v>
       </c>
-      <c r="G435">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -13465,11 +10084,8 @@
       <c r="E436" t="s">
         <v>368</v>
       </c>
-      <c r="G436">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -13484,9 +10100,6 @@
       </c>
       <c r="E437" t="s">
         <v>368</v>
-      </c>
-      <c r="G437">
-        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitoringPhenology/2025Senescence.xlsx
+++ b/data/monitoringPhenology/2025Senescence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27623966-AB79-BE41-B23E-CB8E92587A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8504F-0484-B946-90AD-8A4ABB0FA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33680" yWindow="-1980" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="465">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1434,9 +1434,6 @@
   </si>
   <si>
     <t>lastleavesfell</t>
-  </si>
-  <si>
-    <t>only 4 leaves, very small</t>
   </si>
 </sst>
 </file>
@@ -2631,10 +2628,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M437"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
+      <selection pane="topRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7566,7 +7563,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -7583,7 +7580,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -7600,7 +7597,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -7617,7 +7614,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -7634,7 +7631,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -7651,7 +7648,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -7668,7 +7665,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -7685,7 +7682,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -7702,7 +7699,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -7719,7 +7716,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -7753,7 +7750,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -7770,7 +7767,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -7787,7 +7784,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -7803,11 +7800,8 @@
       <c r="E302" t="s">
         <v>286</v>
       </c>
-      <c r="F302" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -7824,7 +7818,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
